--- a/dataset-cpx.xlsx
+++ b/dataset-cpx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/Documents/these/studies/cpx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03755649-CF38-4F49-A8C9-6AB161125900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21DFEAD-83A4-5746-A226-5249848E362E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{E3999CCB-9ED0-3445-84E9-42CD1661CA3C}"/>
+    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{E3999CCB-9ED0-3445-84E9-42CD1661CA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -6372,7 +6372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6388,12 +6388,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6439,14 +6433,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -6473,17 +6461,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -6539,24 +6516,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6617,13 +6581,13 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6634,7 +6598,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6642,7 +6606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6650,13 +6614,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6669,7 +6633,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6678,17 +6642,17 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6698,19 +6662,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6720,41 +6684,23 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8292,11 +8238,11 @@
               <c:size val="8"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -8316,11 +8262,11 @@
               <c:size val="8"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="15875">
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -8340,11 +8286,11 @@
               <c:size val="8"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -8364,11 +8310,11 @@
               <c:size val="8"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -8388,11 +8334,11 @@
               <c:size val="8"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -8510,19 +8456,19 @@
                   <c:v>10.90676270550866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7590000000000003</c:v>
+                  <c:v>6.7590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8557599999999992</c:v>
+                  <c:v>6.6677599999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4803999999999999</c:v>
+                  <c:v>4.2604000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3540000000000001</c:v>
+                  <c:v>4.7540000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1592400000000005</c:v>
+                  <c:v>5.8592400000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.9318737209704704</c:v>
@@ -8829,7 +8775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A6F2BB6-9CF7-9347-9662-0CFB6B72E43A}" type="CELLRANGE">
+                    <a:fld id="{D94F70F8-FDB2-2F45-A535-A54EE68BA19B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -8862,7 +8808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D2AD598-2293-C741-8E62-D6BFC7BBB985}" type="CELLRANGE">
+                    <a:fld id="{6D1C9885-136E-EE45-B4E3-7245B6D54E80}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -8895,7 +8841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D807BDCE-4CCD-4847-B581-6797498A78A9}" type="CELLRANGE">
+                    <a:fld id="{177AA11B-835D-134B-9F6A-A2F345E9466D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -8928,7 +8874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9030FB5A-E225-7F42-A477-535EB0013E26}" type="CELLRANGE">
+                    <a:fld id="{C5A5C0F9-6E29-5147-865C-099D9A8FAF23}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -8961,7 +8907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E8F0B0C-9669-7347-BFB5-DFCF22E3FE68}" type="CELLRANGE">
+                    <a:fld id="{50F2F60C-21A1-8645-B901-A68313777575}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -8994,7 +8940,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBD5780C-A1DF-A942-89D1-A9B9B0D94B8F}" type="CELLRANGE">
+                    <a:fld id="{CCEE879E-AD71-AB46-A795-862023187281}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9027,7 +8973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE2FFF78-61E0-3C47-815D-D7C8EB2F5C45}" type="CELLRANGE">
+                    <a:fld id="{F80AACE9-7604-8243-A37A-1C8F53103C5E}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9060,7 +9006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9778622B-041F-4F42-914B-0E311F02C090}" type="CELLRANGE">
+                    <a:fld id="{4B1F5084-0EDA-B74A-A142-9EA72572D328}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9093,7 +9039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A1F9248-656B-F341-8F88-A0992CEE9B8E}" type="CELLRANGE">
+                    <a:fld id="{4F03A091-447D-7747-A47E-34C9A270C520}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9126,7 +9072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48EF3E1C-B50A-7645-BAE8-46C052DC73CD}" type="CELLRANGE">
+                    <a:fld id="{07B734CC-C4B2-BF4A-8F29-F315CA8B13C6}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9159,7 +9105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A3E059B-4870-714D-8149-F34E1078B0BE}" type="CELLRANGE">
+                    <a:fld id="{99B09BEE-AFBE-E649-8350-602F0A67876C}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9192,7 +9138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D3C24BD-3391-794F-8D18-2578FF7C436E}" type="CELLRANGE">
+                    <a:fld id="{6FA3DA80-AF55-7140-8425-B9E9F7005B50}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9225,7 +9171,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B03D40D-68C4-9F47-A13F-CC4A12235B90}" type="CELLRANGE">
+                    <a:fld id="{748E4CE5-BE3F-F540-806F-A96F553CBFF8}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9258,7 +9204,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{369DB6CB-928D-3846-982F-67435D81C69A}" type="CELLRANGE">
+                    <a:fld id="{A81B351C-CC5F-974B-BE4A-01D213864AAB}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9291,7 +9237,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E051113B-2E35-9141-991B-63D8A018D1B6}" type="CELLRANGE">
+                    <a:fld id="{1E6F6995-7445-B446-8E84-674C552107DA}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9324,7 +9270,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BD8D0D6-F6F2-9646-B70A-30AE5BF72E6C}" type="CELLRANGE">
+                    <a:fld id="{9A76EAEF-5985-7A4D-97B7-DD007E64C278}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9357,7 +9303,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C0D7A3F-7E36-794B-A7A9-66A5ED1A6FB0}" type="CELLRANGE">
+                    <a:fld id="{1757442A-48B7-6541-9E36-D00C08432E35}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9390,7 +9336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08146BDD-0472-BA44-BFB5-299FCF15EFD1}" type="CELLRANGE">
+                    <a:fld id="{8FE95CE8-7826-014B-8E4D-B8BB87ED6089}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9423,7 +9369,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2ED42F0-D943-5E44-AD1A-6580415B8E25}" type="CELLRANGE">
+                    <a:fld id="{092BFE6C-FEC6-B540-9B25-BB47D263B675}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9456,7 +9402,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1277FCCF-432B-0A4A-B09E-DCF48DF0B63F}" type="CELLRANGE">
+                    <a:fld id="{8FEC0432-A216-9E44-ABBE-BE4B369B292B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9489,7 +9435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{082ECE9C-3254-074C-9048-F623397F18BC}" type="CELLRANGE">
+                    <a:fld id="{E849D538-56FC-D64C-9B2D-171BB3A49DB3}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9522,7 +9468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8C8A7B0-ACBF-B047-87CD-84E2782EC830}" type="CELLRANGE">
+                    <a:fld id="{930950FF-1A4D-304B-86BD-96D4A145EFD9}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9555,7 +9501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BBFBCE8-5EB9-BF46-A5F6-279F5E6E3F4B}" type="CELLRANGE">
+                    <a:fld id="{FFE9D38E-17A4-0E44-B68F-2DB34EE75E20}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -21519,7 +21465,7 @@
       </c>
       <c r="H48" s="80">
         <f>peitek2021!F13</f>
-        <v>8.36</v>
+        <v>9.36</v>
       </c>
       <c r="I48" s="80" t="e">
         <f>peitek2021!#REF!</f>
@@ -21550,7 +21496,7 @@
       </c>
       <c r="H49" s="80">
         <f>peitek2021!F14</f>
-        <v>5.5472000000000001</v>
+        <v>6.3591999999999995</v>
       </c>
       <c r="I49" s="80" t="e">
         <f>peitek2021!#REF!</f>
@@ -21581,7 +21527,7 @@
       </c>
       <c r="H50" s="80">
         <f>peitek2021!F15</f>
-        <v>3.1840000000000002</v>
+        <v>3.9640000000000004</v>
       </c>
       <c r="I50" s="80" t="e">
         <f>peitek2021!#REF!</f>
@@ -21612,7 +21558,7 @@
       </c>
       <c r="H51" s="80">
         <f>peitek2021!F16</f>
-        <v>3.0495999999999999</v>
+        <v>4.4496000000000002</v>
       </c>
       <c r="I51" s="80" t="e">
         <f>peitek2021!#REF!</f>
@@ -21643,7 +21589,7 @@
       </c>
       <c r="H52" s="80">
         <f>peitek2021!F17</f>
-        <v>5.7600000000000007</v>
+        <v>6.4600000000000009</v>
       </c>
       <c r="I52" s="80" t="e">
         <f>peitek2021!#REF!</f>
@@ -21810,7 +21756,7 @@
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="31"/>
-      <c r="I5" s="110"/>
+      <c r="I5" s="107"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10">
@@ -21826,7 +21772,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="31"/>
-      <c r="I6" s="110"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10">
@@ -21842,7 +21788,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="31"/>
-      <c r="I7" s="110"/>
+      <c r="I7" s="107"/>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10">
@@ -21858,7 +21804,7 @@
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="110"/>
+      <c r="I8" s="107"/>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10">
@@ -21878,7 +21824,7 @@
       <c r="H9" s="31">
         <v>2</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="107">
         <v>2</v>
       </c>
       <c r="J9" s="31">
@@ -21902,7 +21848,7 @@
       <c r="H10" s="31">
         <v>2</v>
       </c>
-      <c r="I10" s="110">
+      <c r="I10" s="107">
         <v>2</v>
       </c>
       <c r="J10" s="31">
@@ -21926,11 +21872,11 @@
       <c r="H11" s="31">
         <v>2</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="107">
         <v>2</v>
       </c>
       <c r="J11" s="31">
-        <f>Synthesis!$B$8+Synthesis!$B$8</f>
+        <f>Synthesis!$C$7+Synthesis!$C$7</f>
         <v>1.4</v>
       </c>
     </row>
@@ -21951,12 +21897,12 @@
       <c r="H12" s="31">
         <v>1</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I12" s="107">
         <f>H12</f>
         <v>1</v>
       </c>
       <c r="J12" s="31">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -21977,12 +21923,12 @@
       <c r="H13" s="31">
         <v>1</v>
       </c>
-      <c r="I13" s="110">
+      <c r="I13" s="107">
         <f>H13</f>
         <v>1</v>
       </c>
       <c r="J13" s="31">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -22003,7 +21949,7 @@
       <c r="H14" s="31">
         <v>1</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="107">
         <f t="shared" ref="I14:I22" si="0">H14</f>
         <v>1</v>
       </c>
@@ -22028,12 +21974,12 @@
       <c r="H15" s="31">
         <v>2</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="107">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J15" s="31">
-        <f>Synthesis!$B$8+Synthesis!$B$8</f>
+        <f>Synthesis!$C$7+Synthesis!$C$7</f>
         <v>1.4</v>
       </c>
     </row>
@@ -22054,12 +22000,12 @@
       <c r="H16" s="31">
         <v>1</v>
       </c>
-      <c r="I16" s="110">
+      <c r="I16" s="107">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J16" s="31">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -22080,12 +22026,12 @@
       <c r="H17" s="31">
         <v>1</v>
       </c>
-      <c r="I17" s="110">
+      <c r="I17" s="107">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J17" s="31">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -22106,7 +22052,7 @@
       <c r="H18" s="31">
         <v>1</v>
       </c>
-      <c r="I18" s="110">
+      <c r="I18" s="107">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -22131,7 +22077,7 @@
       <c r="H19" s="31">
         <v>2</v>
       </c>
-      <c r="I19" s="110">
+      <c r="I19" s="107">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -22157,12 +22103,12 @@
       <c r="H20" s="31">
         <v>1</v>
       </c>
-      <c r="I20" s="110">
+      <c r="I20" s="107">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J20" s="31">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -22183,12 +22129,12 @@
       <c r="H21" s="31">
         <v>1</v>
       </c>
-      <c r="I21" s="110">
+      <c r="I21" s="107">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J21" s="31">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -22209,7 +22155,7 @@
       <c r="H22" s="31">
         <v>1</v>
       </c>
-      <c r="I22" s="110">
+      <c r="I22" s="107">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -22228,7 +22174,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="110"/>
+      <c r="I23" s="107"/>
       <c r="J23" s="31"/>
     </row>
   </sheetData>
@@ -22315,7 +22261,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="110"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8">
@@ -22329,7 +22275,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="110"/>
+      <c r="G6" s="107"/>
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8">
@@ -22343,11 +22289,11 @@
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="110"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="104" t="s">
         <v>377</v>
       </c>
       <c r="B8" s="27"/>
@@ -22359,7 +22305,7 @@
       <c r="F8" s="31">
         <v>1</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="107">
         <v>1</v>
       </c>
       <c r="H8" s="31">
@@ -22381,7 +22327,7 @@
       <c r="F9" s="31">
         <v>2</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="107">
         <v>2</v>
       </c>
       <c r="H9" s="31">
@@ -22405,14 +22351,14 @@
         <v>1</v>
       </c>
       <c r="F10" s="31">
-        <f>2+E10*Synthesis!$B$7</f>
+        <f>2+E10*Synthesis!$C$6</f>
         <v>3.4</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="107">
         <v>4.0999999999999996</v>
       </c>
       <c r="H10" s="31">
-        <f>Synthesis!$B$8+Synthesis!$B$8+Synthesis!$B$7</f>
+        <f>Synthesis!$C$7+Synthesis!$C$7+Synthesis!$C$6</f>
         <v>2.8</v>
       </c>
     </row>
@@ -22429,7 +22375,7 @@
       <c r="F11" s="31">
         <v>1</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="107">
         <v>1</v>
       </c>
       <c r="H11" s="31">
@@ -22451,11 +22397,11 @@
       <c r="F12" s="31">
         <v>2</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="107">
         <v>2</v>
       </c>
       <c r="H12" s="31">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -22474,16 +22420,16 @@
       <c r="F13" s="31">
         <v>2</v>
       </c>
-      <c r="G13" s="110">
+      <c r="G13" s="107">
         <v>2</v>
       </c>
       <c r="H13" s="31">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="104" t="s">
         <v>377</v>
       </c>
       <c r="B14" s="27"/>
@@ -22493,15 +22439,15 @@
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="31">
-        <f>F8*Synthesis!$B$5</f>
+        <f>F8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="G14" s="110">
-        <f>G8*Synthesis!$B$5</f>
+      <c r="G14" s="107">
+        <f>G8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="H14" s="31">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -22518,15 +22464,15 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="31">
-        <f>F9*Synthesis!$B$5</f>
+        <f>F9*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
-      <c r="G15" s="110">
-        <f>G9*Synthesis!$B$5</f>
+      <c r="G15" s="107">
+        <f>G9*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H15" s="31">
-        <f>(1+1)*Synthesis!$B$5</f>
+        <f>(1+1)*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
     </row>
@@ -22545,15 +22491,15 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="31">
-        <f>F10*Synthesis!$B$5</f>
+        <f>F10*Synthesis!$C$4</f>
         <v>1.36</v>
       </c>
-      <c r="G16" s="110">
-        <f>G10*Synthesis!$B$5</f>
+      <c r="G16" s="107">
+        <f>G10*Synthesis!$C$4</f>
         <v>1.64</v>
       </c>
       <c r="H16" s="31">
-        <f>(Synthesis!$B$8+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.55999999999999994</v>
       </c>
     </row>
@@ -22568,15 +22514,15 @@
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="31">
-        <f>F11*Synthesis!$B$5</f>
+        <f>F11*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="G17" s="110">
-        <f>G11*Synthesis!$B$5</f>
+      <c r="G17" s="107">
+        <f>G11*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="H17" s="31">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -22589,7 +22535,7 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="110"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="31"/>
     </row>
     <row r="29" spans="1:8">
@@ -22693,7 +22639,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="88"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="110"/>
+      <c r="H5" s="107"/>
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9">
@@ -22710,7 +22656,7 @@
       <c r="G6" s="31">
         <v>1</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="107">
         <v>1</v>
       </c>
       <c r="I6" s="31">
@@ -22733,11 +22679,11 @@
       <c r="G7" s="31">
         <v>1</v>
       </c>
-      <c r="H7" s="110">
+      <c r="H7" s="107">
         <v>1</v>
       </c>
       <c r="I7" s="31">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -22753,11 +22699,11 @@
       <c r="E8" s="27"/>
       <c r="F8" s="88"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="110"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="104" t="s">
         <v>387</v>
       </c>
       <c r="B9" s="27"/>
@@ -22772,7 +22718,7 @@
       <c r="G9" s="31">
         <v>1</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="107">
         <v>1</v>
       </c>
       <c r="I9" s="31">
@@ -22797,11 +22743,11 @@
       <c r="G10" s="31">
         <v>2</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="107">
         <v>2</v>
       </c>
       <c r="I10" s="31">
-        <f>Synthesis!$B$8+1</f>
+        <f>Synthesis!$C$7+1</f>
         <v>1.7</v>
       </c>
     </row>
@@ -22823,12 +22769,12 @@
       <c r="G11" s="31">
         <v>3</v>
       </c>
-      <c r="H11" s="110" t="e">
+      <c r="H11" s="107" t="e">
         <f>3+Synthesis!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I11" s="31">
-        <f>Synthesis!$B$8^2+Synthesis!$B$8+1</f>
+        <f>Synthesis!$C$7^2+Synthesis!$C$7+1</f>
         <v>2.19</v>
       </c>
     </row>
@@ -22848,16 +22794,16 @@
       <c r="G12" s="31">
         <v>2</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H12" s="107">
         <v>2</v>
       </c>
       <c r="I12" s="31">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="104" t="s">
         <v>387</v>
       </c>
       <c r="B13" s="27"/>
@@ -22870,15 +22816,15 @@
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="31">
-        <f>G9*Synthesis!$B$5</f>
+        <f>G9*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="H13" s="110">
-        <f>H9*Synthesis!$B$5</f>
+      <c r="H13" s="107">
+        <f>H9*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I13" s="31">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -22898,15 +22844,15 @@
         <v>2</v>
       </c>
       <c r="G14" s="31">
-        <f>G10*Synthesis!$B$5</f>
+        <f>G10*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
-      <c r="H14" s="110">
-        <f>H10*Synthesis!$B$5</f>
+      <c r="H14" s="107">
+        <f>H10*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="I14" s="31">
-        <f>(Synthesis!$B$8^3+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+1)*Synthesis!$C$4</f>
         <v>0.53720000000000001</v>
       </c>
     </row>
@@ -22926,15 +22872,15 @@
         <v>2</v>
       </c>
       <c r="G15" s="31">
-        <f>G11*Synthesis!$B$5</f>
+        <f>G11*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="H15" s="110" t="e">
-        <f>H11*Synthesis!$B$5</f>
+      <c r="H15" s="107" t="e">
+        <f>H11*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="I15" s="31">
-        <f>(Synthesis!$B$8^3)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3)*Synthesis!$C$4</f>
         <v>0.13719999999999996</v>
       </c>
     </row>
@@ -22952,20 +22898,20 @@
         <v>2</v>
       </c>
       <c r="G16" s="31">
-        <f>G12*Synthesis!$B$5</f>
+        <f>G12*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
-      <c r="H16" s="110">
-        <f>H12*Synthesis!$B$5</f>
+      <c r="H16" s="107">
+        <f>H12*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="I16" s="31">
-        <f>(Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.27999999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="104" t="s">
         <v>387</v>
       </c>
       <c r="B17" s="27"/>
@@ -22978,15 +22924,15 @@
       </c>
       <c r="F17" s="88"/>
       <c r="G17" s="31">
-        <f>G13*Synthesis!$B$5</f>
+        <f>G13*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="H17" s="110">
-        <f>H13*Synthesis!$B$5</f>
+      <c r="H17" s="107">
+        <f>H13*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I17" s="31">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4^2</f>
         <v>3.8415999999999999E-2</v>
       </c>
     </row>
@@ -23006,15 +22952,15 @@
         <v>2</v>
       </c>
       <c r="G18" s="31">
-        <f>G14*Synthesis!$B$5</f>
+        <f>G14*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="H18" s="110">
-        <f>H14*Synthesis!$B$5</f>
+      <c r="H18" s="107">
+        <f>H14*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="I18" s="31">
-        <f>(Synthesis!$B$8^5+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^5+1)*Synthesis!$C$4^2</f>
         <v>0.18689120000000004</v>
       </c>
     </row>
@@ -23034,15 +22980,15 @@
         <v>2</v>
       </c>
       <c r="G19" s="31">
-        <f>G15*Synthesis!$B$5</f>
+        <f>G15*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
-      <c r="H19" s="110" t="e">
-        <f>H15*Synthesis!$B$5</f>
+      <c r="H19" s="107" t="e">
+        <f>H15*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="I19" s="31">
-        <f>(Synthesis!$B$8^4+Synthesis!$B$8+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4+Synthesis!$C$7+1)*Synthesis!$C$4^2</f>
         <v>0.31041600000000003</v>
       </c>
     </row>
@@ -23056,7 +23002,7 @@
       <c r="E20" s="27"/>
       <c r="F20" s="88"/>
       <c r="G20" s="31"/>
-      <c r="H20" s="110"/>
+      <c r="H20" s="107"/>
       <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9">
@@ -23069,7 +23015,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="88"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="110"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9">
@@ -23082,7 +23028,7 @@
       <c r="E22" s="27"/>
       <c r="F22" s="88"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="110"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="31"/>
     </row>
     <row r="45" spans="1:1">
@@ -23167,7 +23113,7 @@
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="110"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6">
@@ -23177,7 +23123,7 @@
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="110"/>
+      <c r="E6" s="107"/>
       <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6">
@@ -23191,7 +23137,7 @@
       <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="107">
         <v>1</v>
       </c>
       <c r="F7" s="31">
@@ -23210,11 +23156,11 @@
       <c r="D8" s="31">
         <v>1</v>
       </c>
-      <c r="E8" s="110">
+      <c r="E8" s="107">
         <v>1</v>
       </c>
       <c r="F8" s="31">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -23230,11 +23176,11 @@
       <c r="D9" s="31">
         <v>1</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="107">
         <v>1</v>
       </c>
       <c r="F9" s="31">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -23252,11 +23198,11 @@
       <c r="D10" s="31">
         <v>1</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="107">
         <v>1</v>
       </c>
       <c r="F10" s="31">
-        <f>Synthesis!$B$8^3</f>
+        <f>Synthesis!$C$7^3</f>
         <v>0.34299999999999992</v>
       </c>
     </row>
@@ -23267,7 +23213,7 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="31"/>
-      <c r="E11" s="110"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="31"/>
     </row>
   </sheetData>
@@ -23356,7 +23302,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="110"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8">
@@ -23370,7 +23316,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="110"/>
+      <c r="G6" s="107"/>
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8">
@@ -23390,11 +23336,11 @@
       <c r="F7" s="31">
         <v>2</v>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="107">
         <v>2</v>
       </c>
       <c r="H7" s="31">
-        <f>1+Synthesis!$B$8</f>
+        <f>1+Synthesis!$C$7</f>
         <v>1.7</v>
       </c>
     </row>
@@ -23415,11 +23361,11 @@
       <c r="F8" s="31">
         <v>3</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="107">
         <v>3</v>
       </c>
       <c r="H8" s="31">
-        <f>Synthesis!$B$8^2+Synthesis!$B$8^3+1+1</f>
+        <f>Synthesis!$C$7^2+Synthesis!$C$7^3+1+1</f>
         <v>2.8329999999999997</v>
       </c>
     </row>
@@ -23438,15 +23384,15 @@
         <v>5</v>
       </c>
       <c r="F9" s="31">
-        <f>F7*Synthesis!$B$5</f>
+        <f>F7*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
-      <c r="G9" s="110">
-        <f>G7*Synthesis!$B$5</f>
+      <c r="G9" s="107">
+        <f>G7*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H9" s="31">
-        <f>(Synthesis!$B$8^4+Synthesis!$B$8^5)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^4+Synthesis!$C$7^5)*Synthesis!$C$4</f>
         <v>0.16326799999999997</v>
       </c>
     </row>
@@ -23465,15 +23411,15 @@
         <v>5</v>
       </c>
       <c r="F10" s="31">
-        <f>F8*Synthesis!$B$5</f>
+        <f>F8*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="G10" s="110">
-        <f>G8*Synthesis!$B$5</f>
+      <c r="G10" s="107">
+        <f>G8*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="H10" s="31">
-        <f>(Synthesis!$B$8^6+Synthesis!$B$8^7+1+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^6+Synthesis!$C$7^7+1+1)*Synthesis!$C$4</f>
         <v>0.88000131999999986</v>
       </c>
     </row>
@@ -23492,15 +23438,15 @@
         <v>4</v>
       </c>
       <c r="F11" s="31">
-        <f>F9*Synthesis!$B$5</f>
+        <f>F9*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G11" s="110">
-        <f>G9*Synthesis!$B$5</f>
+      <c r="G11" s="107">
+        <f>G9*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="H11" s="31">
-        <f>(Synthesis!$B$8^9+Synthesis!$B$8^10)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^9+Synthesis!$C$7^10)*Synthesis!$C$4^2</f>
         <v>1.0976181103999994E-2</v>
       </c>
     </row>
@@ -23519,15 +23465,15 @@
         <v>4</v>
       </c>
       <c r="F12" s="31">
-        <f>F10*Synthesis!$B$5</f>
+        <f>F10*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
-      <c r="G12" s="110">
-        <f>G10*Synthesis!$B$5</f>
+      <c r="G12" s="107">
+        <f>G10*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
       <c r="H12" s="31">
-        <f>(Synthesis!$B$8^11+Synthesis!$B$8^12+1+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^11+Synthesis!$C$7^12+1+1)*Synthesis!$C$4^2</f>
         <v>0.32537832874096001</v>
       </c>
     </row>
@@ -23540,7 +23486,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="110"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="31"/>
     </row>
   </sheetData>
@@ -23635,7 +23581,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="110"/>
+      <c r="H5" s="107"/>
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9">
@@ -23650,7 +23596,7 @@
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="110"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9">
@@ -23665,11 +23611,11 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="110"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="104" t="s">
         <v>411</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -23684,7 +23630,7 @@
       <c r="G8" s="31">
         <v>1</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="107">
         <v>1</v>
       </c>
       <c r="I8" s="31">
@@ -23709,11 +23655,11 @@
       <c r="G9" s="31">
         <v>2</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="107">
         <v>2</v>
       </c>
       <c r="I9" s="31">
-        <f>Synthesis!$B$8+1</f>
+        <f>Synthesis!$C$7+1</f>
         <v>1.7</v>
       </c>
     </row>
@@ -23731,11 +23677,11 @@
       <c r="G10" s="31">
         <v>1</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="107">
         <v>1</v>
       </c>
       <c r="I10" s="31">
-        <f>1+Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$8^3</f>
+        <f>1+Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$7^3</f>
         <v>2.5329999999999999</v>
       </c>
     </row>
@@ -23751,7 +23697,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="110"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9">
@@ -23768,7 +23714,7 @@
       <c r="G12" s="31">
         <v>1</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H12" s="107">
         <v>1</v>
       </c>
       <c r="I12" s="31">
@@ -23776,7 +23722,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="104" t="s">
         <v>411</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -23789,15 +23735,15 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="31">
-        <f>G8*Synthesis!$B$5</f>
+        <f>G8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="H13" s="110">
-        <f>H8*Synthesis!$B$5</f>
+      <c r="H13" s="107">
+        <f>H8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I13" s="31">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -23817,15 +23763,15 @@
         <v>420</v>
       </c>
       <c r="G14" s="31">
-        <f>G9*Synthesis!$B$5</f>
+        <f>G9*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
-      <c r="H14" s="110">
-        <f>H9*Synthesis!$B$5</f>
+      <c r="H14" s="107">
+        <f>H9*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="I14" s="31">
-        <f>(Synthesis!$B$8^3+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+1)*Synthesis!$C$4</f>
         <v>0.53720000000000001</v>
       </c>
     </row>
@@ -23841,15 +23787,15 @@
         <v>420</v>
       </c>
       <c r="G15" s="31">
-        <f>G10*Synthesis!$B$5</f>
+        <f>G10*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="H15" s="110">
-        <f>H10*Synthesis!$B$5</f>
+      <c r="H15" s="107">
+        <f>H10*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I15" s="31">
-        <f>(1+Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$8^3)*Synthesis!$B$5</f>
+        <f>(1+Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$7^3)*Synthesis!$C$4</f>
         <v>1.0132000000000001</v>
       </c>
     </row>
@@ -23865,7 +23811,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="110"/>
+      <c r="H16" s="107"/>
       <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9">
@@ -23880,20 +23826,20 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="31">
-        <f>G12*Synthesis!$B$5</f>
+        <f>G12*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="H17" s="110">
-        <f>H12*Synthesis!$B$5</f>
+      <c r="H17" s="107">
+        <f>H12*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I17" s="31">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="104" t="s">
         <v>411</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -23906,15 +23852,15 @@
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="31">
-        <f>G13*Synthesis!$B$5</f>
+        <f>G13*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="H18" s="110">
-        <f>H13*Synthesis!$B$5</f>
+      <c r="H18" s="107">
+        <f>H13*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I18" s="31">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4^2</f>
         <v>3.8415999999999999E-2</v>
       </c>
     </row>
@@ -23934,15 +23880,15 @@
         <v>128</v>
       </c>
       <c r="G19" s="31">
-        <f>G14*Synthesis!$B$5</f>
+        <f>G14*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="H19" s="110">
-        <f>H14*Synthesis!$B$5</f>
+      <c r="H19" s="107">
+        <f>H14*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="I19" s="31">
-        <f>(Synthesis!$B$8^5+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^5+1)*Synthesis!$C$4^2</f>
         <v>0.18689120000000004</v>
       </c>
     </row>
@@ -23958,15 +23904,15 @@
         <v>128</v>
       </c>
       <c r="G20" s="31">
-        <f>G15*Synthesis!$B$5</f>
+        <f>G15*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="H20" s="110">
-        <f>H15*Synthesis!$B$5</f>
+      <c r="H20" s="107">
+        <f>H15*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I20" s="31">
-        <f>(1+Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$8^3)*Synthesis!$B$5^2</f>
+        <f>(1+Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$7^3)*Synthesis!$C$4^2</f>
         <v>0.40528000000000008</v>
       </c>
     </row>
@@ -23982,7 +23928,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="110"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9">
@@ -23997,20 +23943,20 @@
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="31">
-        <f>G17*Synthesis!$B$5</f>
+        <f>G17*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="H22" s="110">
-        <f>H17*Synthesis!$B$5</f>
+      <c r="H22" s="107">
+        <f>H17*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I22" s="31">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="104" t="s">
         <v>411</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -24023,15 +23969,15 @@
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="31">
-        <f>G18*Synthesis!$B$5</f>
+        <f>G18*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
-      <c r="H23" s="110">
-        <f>H18*Synthesis!$B$5</f>
+      <c r="H23" s="107">
+        <f>H18*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="I23" s="31">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^3</f>
         <v>7.5295359999999981E-3</v>
       </c>
     </row>
@@ -24051,15 +23997,15 @@
         <v>421</v>
       </c>
       <c r="G24" s="31">
-        <f>G19*Synthesis!$B$5</f>
+        <f>G19*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
-      <c r="H24" s="110">
-        <f>H19*Synthesis!$B$5</f>
+      <c r="H24" s="107">
+        <f>H19*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="I24" s="31">
-        <f>(Synthesis!$B$8^7+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^7+1)*Synthesis!$C$4^3</f>
         <v>6.927067520000002E-2</v>
       </c>
     </row>
@@ -24075,15 +24021,15 @@
         <v>421</v>
       </c>
       <c r="G25" s="31">
-        <f>G20*Synthesis!$B$5</f>
+        <f>G20*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
-      <c r="H25" s="110">
-        <f>H20*Synthesis!$B$5</f>
+      <c r="H25" s="107">
+        <f>H20*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="I25" s="31">
-        <f>(1+Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$8^3)*Synthesis!$B$5^3</f>
+        <f>(1+Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$7^3)*Synthesis!$C$4^3</f>
         <v>0.16211200000000003</v>
       </c>
     </row>
@@ -24099,7 +24045,7 @@
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="110"/>
+      <c r="H26" s="107"/>
       <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9">
@@ -24114,20 +24060,20 @@
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="31">
-        <f>G22*Synthesis!$B$5</f>
+        <f>G22*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
-      <c r="H27" s="110">
-        <f>H22*Synthesis!$B$5</f>
+      <c r="H27" s="107">
+        <f>H22*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="I27" s="31">
-        <f>Synthesis!$B$5^3</f>
+        <f>Synthesis!$C$4^3</f>
         <v>6.4000000000000015E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="104" t="s">
         <v>411</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -24140,15 +24086,15 @@
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="31">
-        <f>G23*Synthesis!$B$5</f>
+        <f>G23*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
-      <c r="H28" s="110">
-        <f>H23*Synthesis!$B$5</f>
+      <c r="H28" s="107">
+        <f>H23*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="I28" s="31">
-        <f>(Synthesis!$B$8^8)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^8)*Synthesis!$C$4^4</f>
         <v>1.4757890559999997E-3</v>
       </c>
     </row>
@@ -24168,15 +24114,15 @@
         <v>175</v>
       </c>
       <c r="G29" s="31">
-        <f>G24*Synthesis!$B$5</f>
+        <f>G24*Synthesis!$C$4</f>
         <v>5.1200000000000016E-2</v>
       </c>
-      <c r="H29" s="110">
-        <f>H24*Synthesis!$B$5</f>
+      <c r="H29" s="107">
+        <f>H24*Synthesis!$C$4</f>
         <v>5.1200000000000016E-2</v>
       </c>
       <c r="I29" s="31">
-        <f>(Synthesis!$B$8^9+1)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^9+1)*Synthesis!$C$4^4</f>
         <v>2.6633052339200009E-2</v>
       </c>
     </row>
@@ -24192,15 +24138,15 @@
         <v>175</v>
       </c>
       <c r="G30" s="31">
-        <f>G25*Synthesis!$B$5</f>
+        <f>G25*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
-      <c r="H30" s="110">
-        <f>H25*Synthesis!$B$5</f>
+      <c r="H30" s="107">
+        <f>H25*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="I30" s="31">
-        <f>(1+Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$8^3)*Synthesis!$B$5^4</f>
+        <f>(1+Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$7^3)*Synthesis!$C$4^4</f>
         <v>6.4844800000000022E-2</v>
       </c>
     </row>
@@ -24216,7 +24162,7 @@
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="110"/>
+      <c r="H31" s="107"/>
       <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9">
@@ -24231,20 +24177,20 @@
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="31">
-        <f>G27*Synthesis!$B$5</f>
+        <f>G27*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
-      <c r="H32" s="110">
-        <f>H27*Synthesis!$B$5</f>
+      <c r="H32" s="107">
+        <f>H27*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="I32" s="31">
-        <f>Synthesis!$B$5^5</f>
+        <f>Synthesis!$C$4^5</f>
         <v>1.0240000000000006E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="104" t="s">
         <v>411</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -24257,15 +24203,15 @@
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="31">
-        <f>G28*Synthesis!$B$5</f>
+        <f>G28*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
-      <c r="H33" s="110">
-        <f>H28*Synthesis!$B$5</f>
+      <c r="H33" s="107">
+        <f>H28*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="I33" s="31">
-        <f>(Synthesis!$B$8^10)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^10)*Synthesis!$C$4^5</f>
         <v>2.8925465497599994E-4</v>
       </c>
     </row>
@@ -24285,15 +24231,15 @@
         <v>422</v>
       </c>
       <c r="G34" s="31">
-        <f>G29*Synthesis!$B$5</f>
+        <f>G29*Synthesis!$C$4</f>
         <v>2.0480000000000009E-2</v>
       </c>
-      <c r="H34" s="110">
-        <f>H29*Synthesis!$B$5</f>
+      <c r="H34" s="107">
+        <f>H29*Synthesis!$C$4</f>
         <v>2.0480000000000009E-2</v>
       </c>
       <c r="I34" s="31">
-        <f>(Synthesis!$B$8^11+1)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^11+1)*Synthesis!$C$4^5</f>
         <v>1.0442478258483205E-2</v>
       </c>
     </row>
@@ -24309,15 +24255,15 @@
         <v>422</v>
       </c>
       <c r="G35" s="31">
-        <f>G30*Synthesis!$B$5</f>
+        <f>G30*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
-      <c r="H35" s="110">
-        <f>H30*Synthesis!$B$5</f>
+      <c r="H35" s="107">
+        <f>H30*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="I35" s="31">
-        <f>(1+Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$8^3)*Synthesis!$B$5^5</f>
+        <f>(1+Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$7^3)*Synthesis!$C$4^5</f>
         <v>2.5937920000000014E-2</v>
       </c>
     </row>
@@ -24331,7 +24277,7 @@
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="110"/>
+      <c r="H36" s="107"/>
       <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9">
@@ -24348,7 +24294,7 @@
       <c r="G37" s="31">
         <v>1</v>
       </c>
-      <c r="H37" s="110">
+      <c r="H37" s="107">
         <v>1</v>
       </c>
       <c r="I37" s="31">
@@ -24365,7 +24311,7 @@
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
       <c r="G38" s="31"/>
-      <c r="H38" s="110"/>
+      <c r="H38" s="107"/>
       <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9">
@@ -24378,7 +24324,7 @@
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="110"/>
+      <c r="H39" s="107"/>
       <c r="I39" s="31"/>
     </row>
     <row r="46" spans="1:9">
@@ -24422,15 +24368,15 @@
     <row r="3" spans="1:7">
       <c r="E3" s="32">
         <f>SUM(E5:E13)</f>
-        <v>8.36</v>
+        <v>9.36</v>
       </c>
       <c r="F3" s="32">
         <f>SUM(F5:F100)</f>
-        <v>8.36</v>
+        <v>9.36</v>
       </c>
       <c r="G3" s="32">
         <f>SUM(G5:G14)</f>
-        <v>5.7590000000000003</v>
+        <v>6.7590000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -24483,7 +24429,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="104" t="s">
         <v>424</v>
       </c>
       <c r="B7" s="27"/>
@@ -24519,7 +24465,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="31">
-        <f>1+Synthesis!$B$8</f>
+        <f>1+Synthesis!$C$7</f>
         <v>1.7</v>
       </c>
     </row>
@@ -24537,20 +24483,20 @@
         <v>1</v>
       </c>
       <c r="E9" s="31">
-        <f>2+Synthesis!$B$6</f>
-        <v>2</v>
+        <f>2+Synthesis!$C$5</f>
+        <v>2.5</v>
       </c>
       <c r="F9" s="31">
-        <f>2+Synthesis!$B$6</f>
-        <v>2</v>
+        <f>2+Synthesis!$C$5</f>
+        <v>2.5</v>
       </c>
       <c r="G9" s="31">
-        <f>Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6</f>
-        <v>1.19</v>
+        <f>Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5</f>
+        <v>1.69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="104" t="s">
         <v>424</v>
       </c>
       <c r="B10" s="27"/>
@@ -24559,15 +24505,15 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="31">
-        <f>E7*Synthesis!$B$5</f>
+        <f>E7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F10" s="31">
-        <f>F7*Synthesis!$B$5</f>
+        <f>F7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G10" s="31">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -24583,15 +24529,15 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="31">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="F11" s="31">
-        <f>F8*Synthesis!$B$5</f>
+        <f>F8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="G11" s="31">
-        <f>(Synthesis!$B$8^2+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.47599999999999998</v>
       </c>
     </row>
@@ -24609,20 +24555,20 @@
         <v>1</v>
       </c>
       <c r="E12" s="31">
-        <f>2+Synthesis!$B$6</f>
-        <v>2</v>
+        <f>2+Synthesis!$C$5</f>
+        <v>2.5</v>
       </c>
       <c r="F12" s="31">
-        <f>2+Synthesis!$B$6</f>
-        <v>2</v>
+        <f>2+Synthesis!$C$5</f>
+        <v>2.5</v>
       </c>
       <c r="G12" s="31">
-        <f>(Synthesis!$B$8^3+Synthesis!$B$8^2)+Synthesis!$B$6</f>
-        <v>0.83299999999999985</v>
+        <f>(Synthesis!$C$7^3+Synthesis!$C$7^2)+Synthesis!$C$5</f>
+        <v>1.3329999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="104" t="s">
         <v>424</v>
       </c>
       <c r="B13" s="27"/>
@@ -24631,15 +24577,15 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="31">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F13" s="31">
-        <f>F10*Synthesis!$B$5</f>
+        <f>F10*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G13" s="31">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -24690,15 +24636,15 @@
       <c r="D3" s="83"/>
       <c r="E3" s="32">
         <f>SUM(E5:E15)</f>
-        <v>5.5472000000000001</v>
+        <v>6.3591999999999995</v>
       </c>
       <c r="F3" s="32">
         <f>SUM(F5:F100)</f>
-        <v>5.5472000000000001</v>
+        <v>6.3591999999999995</v>
       </c>
       <c r="G3" s="32">
         <f>SUM(G5:G15)</f>
-        <v>5.8557599999999992</v>
+        <v>6.6677599999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -24734,11 +24680,11 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="110"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="104" t="s">
         <v>434</v>
       </c>
       <c r="B6" s="27">
@@ -24749,7 +24695,7 @@
       <c r="E6" s="31">
         <v>1</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="107">
         <v>1</v>
       </c>
       <c r="G6" s="31">
@@ -24770,20 +24716,20 @@
         <v>1</v>
       </c>
       <c r="E7" s="31">
-        <f>1+C7*Synthesis!$B$6+D7*Synthesis!$B$7</f>
-        <v>2.4</v>
-      </c>
-      <c r="F7" s="110">
-        <f>1+C7*Synthesis!$B$6+D7*Synthesis!$B$7</f>
-        <v>2.4</v>
+        <f>1+C7*Synthesis!$C$5+D7*Synthesis!$C$6</f>
+        <v>2.9</v>
+      </c>
+      <c r="F7" s="107">
+        <f>1+C7*Synthesis!$C$5+D7*Synthesis!$C$6</f>
+        <v>2.9</v>
       </c>
       <c r="G7" s="31">
-        <f>Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6+Synthesis!$B$7</f>
-        <v>2.59</v>
+        <f>Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5+Synthesis!$C$6</f>
+        <v>3.09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="104" t="s">
         <v>434</v>
       </c>
       <c r="B8" s="27">
@@ -24792,15 +24738,15 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="31">
-        <f>E6*Synthesis!$B$5</f>
+        <f>E6*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="F8" s="110">
-        <f>F6*Synthesis!$B$5</f>
+      <c r="F8" s="107">
+        <f>F6*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G8" s="31">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -24816,20 +24762,20 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="31">
-        <f>E7*Synthesis!$B$5</f>
-        <v>0.96</v>
-      </c>
-      <c r="F9" s="110">
-        <f>F7*Synthesis!$B$5</f>
-        <v>0.96</v>
+        <f>E7*Synthesis!$C$4</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F9" s="107">
+        <f>F7*Synthesis!$C$4</f>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G9" s="31">
-        <f>(Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6+Synthesis!$B$7)*Synthesis!$B$5</f>
-        <v>1.036</v>
+        <f>(Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5+Synthesis!$C$6)*Synthesis!$C$4</f>
+        <v>1.236</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="104" t="s">
         <v>434</v>
       </c>
       <c r="B10" s="27">
@@ -24838,15 +24784,15 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="31">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="F10" s="110">
-        <f>F8*Synthesis!$B$5</f>
+      <c r="F10" s="107">
+        <f>F8*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G10" s="31">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -24862,20 +24808,20 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="31">
-        <f>E9*Synthesis!$B$5</f>
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="F11" s="110">
-        <f>F9*Synthesis!$B$5</f>
-        <v>0.38400000000000001</v>
+        <f>E9*Synthesis!$C$4</f>
+        <v>0.46399999999999997</v>
+      </c>
+      <c r="F11" s="107">
+        <f>F9*Synthesis!$C$4</f>
+        <v>0.46399999999999997</v>
       </c>
       <c r="G11" s="31">
-        <f>(Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6+Synthesis!$B$7)*Synthesis!$B$5^2</f>
-        <v>0.41440000000000005</v>
+        <f>(Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5+Synthesis!$C$6)*Synthesis!$C$4^2</f>
+        <v>0.49440000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="104" t="s">
         <v>434</v>
       </c>
       <c r="B12" s="27">
@@ -24884,15 +24830,15 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="31">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
-      <c r="F12" s="110">
-        <f>F10*Synthesis!$B$5</f>
+      <c r="F12" s="107">
+        <f>F10*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="G12" s="31">
-        <f>Synthesis!$B$5^3</f>
+        <f>Synthesis!$C$4^3</f>
         <v>6.4000000000000015E-2</v>
       </c>
     </row>
@@ -24908,20 +24854,20 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="31">
-        <f>E11*Synthesis!$B$5</f>
-        <v>0.15360000000000001</v>
-      </c>
-      <c r="F13" s="110">
-        <f>F11*Synthesis!$B$5</f>
-        <v>0.15360000000000001</v>
+        <f>E11*Synthesis!$C$4</f>
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="F13" s="107">
+        <f>F11*Synthesis!$C$4</f>
+        <v>0.18559999999999999</v>
       </c>
       <c r="G13" s="31">
-        <f>(Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6+Synthesis!$B$7)*Synthesis!$B$5^3</f>
-        <v>0.16576000000000002</v>
+        <f>(Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5+Synthesis!$C$6)*Synthesis!$C$4^3</f>
+        <v>0.19776000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="104" t="s">
         <v>434</v>
       </c>
       <c r="B14" s="27">
@@ -24930,15 +24876,15 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="31">
-        <f>E12*Synthesis!$B$5</f>
+        <f>E12*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
-      <c r="F14" s="110">
-        <f>F12*Synthesis!$B$5</f>
+      <c r="F14" s="107">
+        <f>F12*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="G14" s="31">
-        <f>Synthesis!$B$5^4</f>
+        <f>Synthesis!$C$4^4</f>
         <v>2.5600000000000012E-2</v>
       </c>
     </row>
@@ -24950,7 +24896,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="110"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="31"/>
     </row>
   </sheetData>
@@ -24987,15 +24933,15 @@
     <row r="3" spans="1:6">
       <c r="D3" s="32">
         <f>SUM(D5:D13)</f>
-        <v>3.1840000000000002</v>
+        <v>3.9640000000000004</v>
       </c>
       <c r="E3" s="32">
         <f>SUM(E5:E100)</f>
-        <v>3.1840000000000002</v>
+        <v>3.9640000000000004</v>
       </c>
       <c r="F3" s="32">
         <f>SUM(F5:F13)</f>
-        <v>3.4803999999999999</v>
+        <v>4.2604000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -25027,11 +24973,11 @@
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="110"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="104" t="s">
         <v>436</v>
       </c>
       <c r="B6" s="27">
@@ -25041,7 +24987,7 @@
       <c r="D6" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="107">
         <v>1</v>
       </c>
       <c r="F6" s="31">
@@ -25059,20 +25005,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="31">
-        <f>1+Synthesis!$B$6</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="110">
-        <f>1+Synthesis!$B$6</f>
-        <v>1</v>
+        <f>1+Synthesis!$C$5</f>
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="107">
+        <f>1+Synthesis!$C$5</f>
+        <v>1.5</v>
       </c>
       <c r="F7" s="31">
-        <f>Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6</f>
-        <v>1.19</v>
+        <f>Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5</f>
+        <v>1.69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="104" t="s">
         <v>436</v>
       </c>
       <c r="B8" s="27">
@@ -25080,15 +25026,15 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="31">
-        <f>D6*Synthesis!$B$5</f>
+        <f>D6*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="E8" s="110">
-        <f>E6*Synthesis!$B$5</f>
+      <c r="E8" s="107">
+        <f>E6*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F8" s="31">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -25103,20 +25049,20 @@
         <v>1</v>
       </c>
       <c r="D9" s="31">
-        <f>D7*Synthesis!$B$5</f>
-        <v>0.4</v>
-      </c>
-      <c r="E9" s="110">
-        <f>E7*Synthesis!$B$5</f>
-        <v>0.4</v>
+        <f>D7*Synthesis!$C$4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E9" s="107">
+        <f>E7*Synthesis!$C$4</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F9" s="31">
-        <f>(Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6)*Synthesis!$B$5</f>
-        <v>0.47599999999999998</v>
+        <f>(Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5)*Synthesis!$C$4</f>
+        <v>0.67600000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="104" t="s">
         <v>436</v>
       </c>
       <c r="B10" s="27">
@@ -25124,15 +25070,15 @@
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="31">
-        <f>D8*Synthesis!$B$5</f>
+        <f>D8*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="E10" s="110">
-        <f>E8*Synthesis!$B$5</f>
+      <c r="E10" s="107">
+        <f>E8*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F10" s="31">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -25145,20 +25091,20 @@
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="31">
-        <f>D9*Synthesis!$B$5</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="E11" s="110">
-        <f>E9*Synthesis!$B$5</f>
-        <v>0.16000000000000003</v>
+        <f>D9*Synthesis!$C$4</f>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="E11" s="107">
+        <f>E9*Synthesis!$C$4</f>
+        <v>0.24000000000000005</v>
       </c>
       <c r="F11" s="31">
-        <f>(Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6)*Synthesis!$B$5^2</f>
-        <v>0.19040000000000004</v>
+        <f>(Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5)*Synthesis!$C$4^2</f>
+        <v>0.27040000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="104" t="s">
         <v>436</v>
       </c>
       <c r="B12" s="27">
@@ -25166,15 +25112,15 @@
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="31">
-        <f>D10*Synthesis!$B$5</f>
+        <f>D10*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
-      <c r="E12" s="110">
-        <f>E10*Synthesis!$B$5</f>
+      <c r="E12" s="107">
+        <f>E10*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="F12" s="31">
-        <f>Synthesis!$B$5^3</f>
+        <f>Synthesis!$C$4^3</f>
         <v>6.4000000000000015E-2</v>
       </c>
     </row>
@@ -25185,7 +25131,7 @@
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="110"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="31"/>
     </row>
   </sheetData>
@@ -25222,15 +25168,15 @@
     <row r="3" spans="1:6">
       <c r="D3" s="32">
         <f>SUM(D5:D15)</f>
-        <v>3.0495999999999999</v>
+        <v>4.4496000000000002</v>
       </c>
       <c r="E3" s="32">
         <f>SUM(E5:E100)</f>
-        <v>3.0495999999999999</v>
+        <v>4.4496000000000002</v>
       </c>
       <c r="F3" s="32">
         <f>SUM(F5:F15)</f>
-        <v>3.3540000000000001</v>
+        <v>4.7540000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -25266,7 +25212,7 @@
       <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="104" t="s">
         <v>441</v>
       </c>
       <c r="B6" s="27">
@@ -25294,20 +25240,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="31">
-        <f>1+2*Synthesis!$B$6</f>
-        <v>1</v>
+        <f>1+2*Synthesis!$C$5</f>
+        <v>2</v>
       </c>
       <c r="E7" s="31">
-        <f>1+2*Synthesis!$B$6</f>
-        <v>1</v>
+        <f>1+2*Synthesis!$C$5</f>
+        <v>2</v>
       </c>
       <c r="F7" s="31">
-        <f>Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6+Synthesis!$B$6</f>
-        <v>1.19</v>
+        <f>Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5+Synthesis!$C$5</f>
+        <v>2.19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="104" t="s">
         <v>441</v>
       </c>
       <c r="B8" s="27">
@@ -25315,15 +25261,15 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="31">
-        <f>D6*Synthesis!$B$5</f>
+        <f>D6*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="E8" s="31">
-        <f>E6*Synthesis!$B$5</f>
+        <f>E6*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F8" s="31">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -25338,20 +25284,20 @@
         <v>1</v>
       </c>
       <c r="D9" s="31">
-        <f>D7*Synthesis!$B$5</f>
-        <v>0.4</v>
+        <f>D7*Synthesis!$C$4</f>
+        <v>0.8</v>
       </c>
       <c r="E9" s="31">
-        <f>E7*Synthesis!$B$5</f>
-        <v>0.4</v>
+        <f>E7*Synthesis!$C$4</f>
+        <v>0.8</v>
       </c>
       <c r="F9" s="31">
-        <f>(Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6+Synthesis!$B$6)*Synthesis!$B$5</f>
-        <v>0.47599999999999998</v>
+        <f>(Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5+Synthesis!$C$5)*Synthesis!$C$4</f>
+        <v>0.876</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="104" t="s">
         <v>441</v>
       </c>
       <c r="B10" s="27">
@@ -25359,15 +25305,15 @@
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="31">
-        <f>D8*Synthesis!$B$5</f>
+        <f>D8*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="E10" s="31">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F10" s="31">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -25382,7 +25328,7 @@
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="104" t="s">
         <v>441</v>
       </c>
       <c r="B12" s="27">
@@ -25390,15 +25336,15 @@
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="31">
-        <f>D10*Synthesis!$B$5</f>
+        <f>D10*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="E12" s="31">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="F12" s="31">
-        <f>Synthesis!$B$5^3</f>
+        <f>Synthesis!$C$4^3</f>
         <v>6.4000000000000015E-2</v>
       </c>
     </row>
@@ -25413,7 +25359,7 @@
       <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="104" t="s">
         <v>441</v>
       </c>
       <c r="B14" s="27">
@@ -25421,15 +25367,15 @@
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="31">
-        <f>D12*Synthesis!$B$5</f>
+        <f>D12*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="E14" s="31">
-        <f>E12*Synthesis!$B$5</f>
+        <f>E12*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="F14" s="31">
-        <f>Synthesis!$B$5^3</f>
+        <f>Synthesis!$C$4^3</f>
         <v>6.4000000000000015E-2</v>
       </c>
     </row>
@@ -25809,15 +25755,15 @@
     <row r="3" spans="1:7">
       <c r="E3" s="32">
         <f>SUM(E5:E15)</f>
-        <v>5.7600000000000007</v>
+        <v>6.4600000000000009</v>
       </c>
       <c r="F3" s="32">
         <f>SUM(F5:F100)</f>
-        <v>5.7600000000000007</v>
+        <v>6.4600000000000009</v>
       </c>
       <c r="G3" s="32">
         <f>SUM(G5:G15)</f>
-        <v>5.1592400000000005</v>
+        <v>5.8592400000000007</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -25853,7 +25799,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="110"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7">
@@ -25866,11 +25812,11 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="110"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="104" t="s">
         <v>445</v>
       </c>
       <c r="B7" s="27"/>
@@ -25881,7 +25827,7 @@
       <c r="E7" s="31">
         <v>1</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="107">
         <v>1</v>
       </c>
       <c r="G7" s="31">
@@ -25900,11 +25846,11 @@
       <c r="E8" s="31">
         <v>1</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="107">
         <v>1</v>
       </c>
       <c r="G8" s="31">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -25922,20 +25868,20 @@
         <v>1</v>
       </c>
       <c r="E9" s="31">
-        <f>2+Synthesis!$B$6</f>
-        <v>2</v>
-      </c>
-      <c r="F9" s="110">
-        <f>2+Synthesis!$B$6</f>
-        <v>2</v>
+        <f>2+Synthesis!$C$5</f>
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="107">
+        <f>2+Synthesis!$C$5</f>
+        <v>2.5</v>
       </c>
       <c r="G9" s="31">
-        <f>1+Synthesis!$B$8+Synthesis!$B$8^2+Synthesis!$B$6</f>
-        <v>2.19</v>
+        <f>1+Synthesis!$C$7+Synthesis!$C$7^2+Synthesis!$C$5</f>
+        <v>2.69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="104" t="s">
         <v>445</v>
       </c>
       <c r="B10" s="27"/>
@@ -25944,15 +25890,15 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="31">
-        <f>E7*Synthesis!$B$5</f>
+        <f>E7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="F10" s="110">
-        <f>F7*Synthesis!$B$5</f>
+      <c r="F10" s="107">
+        <f>F7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G10" s="31">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -25966,15 +25912,15 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="31">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="F11" s="110">
-        <f>F8*Synthesis!$B$5</f>
+      <c r="F11" s="107">
+        <f>F8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G11" s="31">
-        <f>(Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.27999999999999997</v>
       </c>
     </row>
@@ -25988,7 +25934,7 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="110"/>
+      <c r="F12" s="107"/>
       <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7">
@@ -26005,20 +25951,20 @@
         <v>1</v>
       </c>
       <c r="E13" s="31">
-        <f>E9*Synthesis!$B$5</f>
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="110">
-        <f>F9*Synthesis!$B$5</f>
-        <v>0.8</v>
+        <f>E9*Synthesis!$C$4</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="107">
+        <f>F9*Synthesis!$C$4</f>
+        <v>1</v>
       </c>
       <c r="G13" s="31">
-        <f>(Synthesis!$B$8^3+Synthesis!$B$8^4+Synthesis!$B$6+Synthesis!$B$8^2)*Synthesis!$B$5</f>
-        <v>0.4292399999999999</v>
+        <f>(Synthesis!$C$7^3+Synthesis!$C$7^4+Synthesis!$C$5+Synthesis!$C$7^2)*Synthesis!$C$4</f>
+        <v>0.62924000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="104" t="s">
         <v>445</v>
       </c>
       <c r="B14" s="27"/>
@@ -26027,15 +25973,15 @@
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="31">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="F14" s="110">
-        <f>F10*Synthesis!$B$5</f>
+      <c r="F14" s="107">
+        <f>F10*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G14" s="31">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -26047,7 +25993,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="110"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="31"/>
     </row>
   </sheetData>
@@ -26132,7 +26078,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="110"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7">
@@ -26149,7 +26095,7 @@
       <c r="E6" s="31">
         <v>1</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="107">
         <v>1</v>
       </c>
       <c r="G6" s="31">
@@ -26157,7 +26103,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="104" t="s">
         <v>451</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -26170,11 +26116,11 @@
       <c r="E7" s="31">
         <v>1</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="107">
         <v>1</v>
       </c>
       <c r="G7" s="31">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -26192,12 +26138,12 @@
       <c r="E8" s="31">
         <v>2</v>
       </c>
-      <c r="F8" s="110" t="e">
+      <c r="F8" s="107" t="e">
         <f>2+Synthesis!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="31">
-        <f>Synthesis!$B$8^2+1</f>
+        <f>Synthesis!$C$7^2+1</f>
         <v>1.49</v>
       </c>
     </row>
@@ -26215,12 +26161,12 @@
       <c r="E9" s="31">
         <v>2</v>
       </c>
-      <c r="F9" s="110" t="e">
+      <c r="F9" s="107" t="e">
         <f>2+Synthesis!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="G9" s="31">
-        <f>Synthesis!$B$8^3+Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^3+Synthesis!$C$7^2</f>
         <v>0.83299999999999985</v>
       </c>
     </row>
@@ -26232,7 +26178,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="110"/>
+      <c r="F10" s="107"/>
       <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7">
@@ -26251,17 +26197,17 @@
       <c r="E11" s="31">
         <v>2</v>
       </c>
-      <c r="F11" s="110" t="e">
+      <c r="F11" s="107" t="e">
         <f>2+Synthesis!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="G11" s="31">
-        <f>Synthesis!$B$8^4+1+Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^4+1+Synthesis!$C$7^2</f>
         <v>1.7301</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="104" t="s">
         <v>451</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -26272,15 +26218,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="31">
-        <f>E7*Synthesis!$B$5</f>
+        <f>E7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
-      <c r="F12" s="110">
-        <f>F7*Synthesis!$B$5</f>
+      <c r="F12" s="107">
+        <f>F7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G12" s="31">
-        <f>(Synthesis!$B$8^5)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^5)*Synthesis!$C$4</f>
         <v>6.7227999999999982E-2</v>
       </c>
     </row>
@@ -26296,15 +26242,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="31">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
-      <c r="F13" s="110" t="e">
-        <f>F8*Synthesis!$B$5</f>
+      <c r="F13" s="107" t="e">
+        <f>F8*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="G13" s="31">
-        <f>(Synthesis!$B$8^6+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^6+1)*Synthesis!$C$4</f>
         <v>0.4470596</v>
       </c>
     </row>
@@ -26320,15 +26266,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="31">
-        <f>E9*Synthesis!$B$5</f>
+        <f>E9*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
-      <c r="F14" s="110" t="e">
-        <f>F9*Synthesis!$B$5</f>
+      <c r="F14" s="107" t="e">
+        <f>F9*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="G14" s="31">
-        <f>(Synthesis!$B$8^7+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^7+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.31294171999999998</v>
       </c>
     </row>
@@ -26340,7 +26286,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="110"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7">
@@ -26357,20 +26303,20 @@
         <v>1</v>
       </c>
       <c r="E16" s="31">
-        <f>E11*Synthesis!$B$5</f>
+        <f>E11*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
-      <c r="F16" s="110" t="e">
-        <f>F11*Synthesis!$B$5</f>
+      <c r="F16" s="107" t="e">
+        <f>F11*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="G16" s="31">
-        <f>(Synthesis!$B$8^8+1+Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^8+1+Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.61905920400000003</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="104" t="s">
         <v>451</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -26381,15 +26327,15 @@
         <v>2</v>
       </c>
       <c r="E17" s="31">
-        <f>E12*Synthesis!$B$5</f>
+        <f>E12*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="F17" s="110">
-        <f>F12*Synthesis!$B$5</f>
+      <c r="F17" s="107">
+        <f>F12*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G17" s="31">
-        <f>(Synthesis!$B$8^9)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^9)*Synthesis!$C$4^2</f>
         <v>6.4565771199999967E-3</v>
       </c>
     </row>
@@ -26405,15 +26351,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="31">
-        <f>E13*Synthesis!$B$5</f>
+        <f>E13*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="F18" s="110" t="e">
-        <f>F13*Synthesis!$B$5</f>
+      <c r="F18" s="107" t="e">
+        <f>F13*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="G18" s="31">
-        <f>(Synthesis!$B$8^10+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^10+1)*Synthesis!$C$4^2</f>
         <v>0.16451960398400003</v>
       </c>
     </row>
@@ -26429,15 +26375,15 @@
         <v>2</v>
       </c>
       <c r="E19" s="31">
-        <f>E14*Synthesis!$B$5</f>
+        <f>E14*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="F19" s="110" t="e">
-        <f>F14*Synthesis!$B$5</f>
+      <c r="F19" s="107" t="e">
+        <f>F14*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="G19" s="31">
-        <f>(Synthesis!$B$8^11+Synthesis!$B$8)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^11+Synthesis!$C$7)*Synthesis!$C$4^2</f>
         <v>0.11516372278880001</v>
       </c>
     </row>
@@ -26449,7 +26395,7 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="31"/>
-      <c r="F20" s="110"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
@@ -26466,20 +26412,20 @@
         <v>2</v>
       </c>
       <c r="E21" s="31">
-        <f>E16*Synthesis!$B$5</f>
+        <f>E16*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="F21" s="110" t="e">
-        <f>F16*Synthesis!$B$5</f>
+      <c r="F21" s="107" t="e">
+        <f>F16*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="G21" s="31">
-        <f>(Synthesis!$B$8^12+1+Synthesis!$B$8^2)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^12+1+Synthesis!$C$7^2)*Synthesis!$C$4^2</f>
         <v>0.24061460595216005</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="104" t="s">
         <v>451</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -26490,15 +26436,15 @@
         <v>3</v>
       </c>
       <c r="E22" s="31">
-        <f>E17*Synthesis!$B$5</f>
+        <f>E17*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
-      <c r="F22" s="110">
-        <f>F17*Synthesis!$B$5</f>
+      <c r="F22" s="107">
+        <f>F17*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="G22" s="31">
-        <f>(Synthesis!$B$8^13)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^13)*Synthesis!$C$4^3</f>
         <v>6.2008966660479945E-4</v>
       </c>
     </row>
@@ -26514,15 +26460,15 @@
         <v>3</v>
       </c>
       <c r="E23" s="31">
-        <f>E18*Synthesis!$B$5</f>
+        <f>E18*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
-      <c r="F23" s="110" t="e">
-        <f>F18*Synthesis!$B$5</f>
+      <c r="F23" s="107" t="e">
+        <f>F18*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="G23" s="31">
-        <f>(Synthesis!$B$8^14+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^14+1)*Synthesis!$C$4^3</f>
         <v>6.4434062766623376E-2</v>
       </c>
     </row>
@@ -26538,15 +26484,15 @@
         <v>3</v>
       </c>
       <c r="E24" s="31">
-        <f>E19*Synthesis!$B$5</f>
+        <f>E19*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
-      <c r="F24" s="110" t="e">
-        <f>F19*Synthesis!$B$5</f>
+      <c r="F24" s="107" t="e">
+        <f>F19*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="G24" s="31">
-        <f>(Synthesis!$B$8^15+Synthesis!$B$8)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^15+Synthesis!$C$7)*Synthesis!$C$4^3</f>
         <v>4.5103843936636363E-2</v>
       </c>
     </row>
@@ -26558,11 +26504,11 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="31">
-        <f>E20*Synthesis!$B$5</f>
+        <f>E20*Synthesis!$C$4</f>
         <v>0</v>
       </c>
-      <c r="F25" s="110">
-        <f>F20*Synthesis!$B$5</f>
+      <c r="F25" s="107">
+        <f>F20*Synthesis!$C$4</f>
         <v>0</v>
       </c>
       <c r="G25" s="31"/>
@@ -26581,15 +26527,15 @@
         <v>3</v>
       </c>
       <c r="E26" s="31">
-        <f>E21*Synthesis!$B$5</f>
+        <f>E21*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
-      <c r="F26" s="110" t="e">
-        <f>F21*Synthesis!$B$5</f>
+      <c r="F26" s="107" t="e">
+        <f>F21*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="G26" s="31">
-        <f>(Synthesis!$B$8^16+1+Synthesis!$B$8^2)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^16+1+Synthesis!$C$7^2)*Synthesis!$C$4^3</f>
         <v>9.5572690755645465E-2</v>
       </c>
     </row>
@@ -26601,7 +26547,7 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="31"/>
-      <c r="F27" s="110"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="31"/>
     </row>
   </sheetData>
@@ -26672,7 +26618,7 @@
         <v>469</v>
       </c>
       <c r="C5" s="31"/>
-      <c r="D5" s="110"/>
+      <c r="D5" s="107"/>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5">
@@ -26685,7 +26631,7 @@
       <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="107">
         <v>1</v>
       </c>
       <c r="E6" s="31">
@@ -26702,11 +26648,11 @@
       <c r="C7" s="31">
         <v>1</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="107">
         <v>1</v>
       </c>
       <c r="E7" s="31">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -26720,11 +26666,11 @@
       <c r="C8" s="31">
         <v>1</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="107">
         <v>1</v>
       </c>
       <c r="E8" s="31">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -26738,11 +26684,11 @@
       <c r="C9" s="31">
         <v>1</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="107">
         <v>1</v>
       </c>
       <c r="E9" s="31">
-        <f>Synthesis!$B$8^3</f>
+        <f>Synthesis!$C$7^3</f>
         <v>0.34299999999999992</v>
       </c>
     </row>
@@ -26756,11 +26702,11 @@
       <c r="C10" s="31">
         <v>1</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="107">
         <v>1</v>
       </c>
       <c r="E10" s="31">
-        <f>Synthesis!$B$8^4</f>
+        <f>Synthesis!$C$7^4</f>
         <v>0.24009999999999992</v>
       </c>
     </row>
@@ -26770,7 +26716,7 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="110"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="31"/>
     </row>
   </sheetData>
@@ -26911,7 +26857,7 @@
       </c>
       <c r="E8" s="89"/>
       <c r="F8" s="30">
-        <f>1+Synthesis!$B$8</f>
+        <f>1+Synthesis!$C$7</f>
         <v>1.7</v>
       </c>
       <c r="G8" s="89">
@@ -26929,7 +26875,7 @@
       <c r="D9" s="30"/>
       <c r="E9" s="89"/>
       <c r="F9" s="30">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="G9" s="89">
@@ -26945,16 +26891,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="30">
-        <f>D7*Synthesis!B$5</f>
+        <f>D7*Synthesis!C$4</f>
         <v>0.4</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="30">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G10" s="89">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -26969,16 +26915,16 @@
         <v>3</v>
       </c>
       <c r="D11" s="30">
-        <f>D8*Synthesis!B$5</f>
+        <f>D8*Synthesis!C$4</f>
         <v>0.8</v>
       </c>
       <c r="E11" s="89"/>
       <c r="F11" s="30">
-        <f>(1+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(1+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.68</v>
       </c>
       <c r="G11" s="89">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -26993,11 +26939,11 @@
       <c r="D12" s="30"/>
       <c r="E12" s="89"/>
       <c r="F12" s="30">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
       <c r="G12" s="89">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -27010,12 +26956,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="30">
-        <f>D10*Synthesis!B$5</f>
+        <f>D10*Synthesis!C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="E13" s="89"/>
       <c r="F13" s="30">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G13" s="89"/>
@@ -27031,12 +26977,12 @@
         <v>2</v>
       </c>
       <c r="D14" s="30">
-        <f>D11*Synthesis!B$5</f>
+        <f>D11*Synthesis!C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="E14" s="89"/>
       <c r="F14" s="30">
-        <f>(Synthesis!$B$8+Synthesis!$B$8^2)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7+Synthesis!$C$7^2)*Synthesis!$C$4^2</f>
         <v>0.19040000000000004</v>
       </c>
       <c r="G14" s="89"/>
@@ -27052,7 +26998,7 @@
       <c r="D15" s="30"/>
       <c r="E15" s="89"/>
       <c r="F15" s="30">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4^2</f>
         <v>7.8400000000000011E-2</v>
       </c>
       <c r="G15" s="89"/>
@@ -27216,7 +27162,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="30">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -27251,7 +27197,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="30">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -27277,7 +27223,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="30">
-        <f>Synthesis!$B$8+1+Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7+1+Synthesis!$C$7^2</f>
         <v>2.19</v>
       </c>
     </row>
@@ -27295,11 +27241,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="30">
-        <f>G11*Synthesis!$B$5</f>
+        <f>G11*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="H13" s="30">
-        <f>Synthesis!$B$8*Synthesis!$B$5</f>
+        <f>Synthesis!$C$7*Synthesis!$C$4</f>
         <v>0.27999999999999997</v>
       </c>
     </row>
@@ -27321,11 +27267,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="30">
-        <f>G12*Synthesis!$B$5</f>
+        <f>G12*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="H14" s="30">
-        <f>Synthesis!$B5</f>
+        <f>Synthesis!$C4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -27361,11 +27307,11 @@
         <v>2</v>
       </c>
       <c r="G16" s="30">
-        <f>G13*Synthesis!$B$5</f>
+        <f>G13*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="H16" s="30">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4^2</f>
         <v>7.8400000000000011E-2</v>
       </c>
     </row>
@@ -27385,11 +27331,11 @@
         <v>2</v>
       </c>
       <c r="G17" s="30">
-        <f>G14*Synthesis!$B$5</f>
+        <f>G14*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
       <c r="H17" s="30">
-        <f>(Synthesis!$B$8^3+Synthesis!$B$8^4+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^3+Synthesis!$C$7^4+1)*Synthesis!$C$4^2</f>
         <v>0.25329600000000002</v>
       </c>
     </row>
@@ -27407,11 +27353,11 @@
         <v>3</v>
       </c>
       <c r="G18" s="30">
-        <f>G16*Synthesis!$B$5</f>
+        <f>G16*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="H18" s="30">
-        <f>(Synthesis!$B$8^3)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^3)*Synthesis!$C$4^3</f>
         <v>2.1951999999999999E-2</v>
       </c>
     </row>
@@ -27432,11 +27378,11 @@
         <v>3</v>
       </c>
       <c r="G19" s="30">
-        <f>G17*Synthesis!$B$5</f>
+        <f>G17*Synthesis!$C$4</f>
         <v>0.19200000000000006</v>
       </c>
       <c r="H19" s="30">
-        <f>(Synthesis!$B$8^4+Synthesis!$B$8^5+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^4+Synthesis!$C$7^5+1)*Synthesis!$C$4^3</f>
         <v>9.0122880000000016E-2</v>
       </c>
     </row>
@@ -27454,11 +27400,11 @@
         <v>4</v>
       </c>
       <c r="G20" s="30">
-        <f>G18*Synthesis!$B$5</f>
+        <f>G18*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="H20" s="30">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4^4</f>
         <v>6.1465600000000006E-3</v>
       </c>
     </row>
@@ -27478,11 +27424,11 @@
         <v>4</v>
       </c>
       <c r="G21" s="30">
-        <f>G19*Synthesis!$B$5</f>
+        <f>G19*Synthesis!$C$4</f>
         <v>7.6800000000000035E-2</v>
       </c>
       <c r="H21" s="30">
-        <f>(Synthesis!$B$8^5+Synthesis!$B$8^6+1)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^5+Synthesis!$C$7^6+1)*Synthesis!$C$4^4</f>
         <v>3.2914406400000012E-2</v>
       </c>
     </row>
@@ -27500,11 +27446,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="30">
-        <f>G20*Synthesis!$B$5</f>
+        <f>G20*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="H22" s="30">
-        <f>(Synthesis!$B$8^5)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^5)*Synthesis!$C$4^5</f>
         <v>1.7210368000000005E-3</v>
       </c>
     </row>
@@ -27524,11 +27470,11 @@
         <v>5</v>
       </c>
       <c r="G23" s="30">
-        <f>G21*Synthesis!$B$5</f>
+        <f>G21*Synthesis!$C$4</f>
         <v>3.0720000000000015E-2</v>
       </c>
       <c r="H23" s="30">
-        <f>(Synthesis!$B$8^6+Synthesis!$B$8^7+1)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^6+Synthesis!$C$7^7+1)*Synthesis!$C$4^5</f>
         <v>1.2288033792000006E-2</v>
       </c>
     </row>
@@ -27546,11 +27492,11 @@
         <v>6</v>
       </c>
       <c r="G24" s="30">
-        <f>G22*Synthesis!$B$5</f>
+        <f>G22*Synthesis!$C$4</f>
         <v>4.0960000000000015E-3</v>
       </c>
       <c r="H24" s="30">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^6</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^6</f>
         <v>4.818903040000001E-4</v>
       </c>
     </row>
@@ -27570,11 +27516,11 @@
         <v>6</v>
       </c>
       <c r="G25" s="30">
-        <f>G23*Synthesis!$B$5</f>
+        <f>G23*Synthesis!$C$4</f>
         <v>1.2288000000000007E-2</v>
       </c>
       <c r="H25" s="30">
-        <f>(Synthesis!$B$8^7+Synthesis!$B$8^8)*Synthesis!$B$8^6</f>
+        <f>(Synthesis!$C$7^7+Synthesis!$C$7^8)*Synthesis!$C$7^6</f>
         <v>1.6471131769189983E-2</v>
       </c>
     </row>
@@ -27777,7 +27723,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="58">
-        <f>Synthesis!$B$8+1</f>
+        <f>Synthesis!$C$7+1</f>
         <v>1.7</v>
       </c>
     </row>
@@ -27795,12 +27741,12 @@
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="58">
-        <f>G7*Synthesis!$B$5</f>
+        <f>G7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="H9" s="91"/>
       <c r="I9" s="58">
-        <f>(1+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(1+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.68</v>
       </c>
     </row>
@@ -27818,15 +27764,15 @@
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
       <c r="G10" s="58">
-        <f>G8*Synthesis!$B$5</f>
+        <f>G8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H10" s="91">
-        <f>H8*Synthesis!$B$5</f>
+        <f>H8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="I10" s="58">
-        <f>(Synthesis!$B$8^2+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2+1)*Synthesis!$C$4</f>
         <v>0.59599999999999997</v>
       </c>
     </row>
@@ -27852,7 +27798,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="58">
-        <f>(Synthesis!$B$8^3+Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.33319999999999994</v>
       </c>
     </row>
@@ -27876,7 +27822,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="58">
-        <f>(Synthesis!$B$8^4+Synthesis!$B$8^3)</f>
+        <f>(Synthesis!$C$7^4+Synthesis!$C$7^3)</f>
         <v>0.58309999999999984</v>
       </c>
     </row>
@@ -27902,7 +27848,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="58">
-        <f>Synthesis!$B$8^3+1</f>
+        <f>Synthesis!$C$7^3+1</f>
         <v>1.343</v>
       </c>
     </row>
@@ -27925,7 +27871,7 @@
       </c>
       <c r="H14" s="91"/>
       <c r="I14" s="58">
-        <f>(1)*Synthesis!$B$5</f>
+        <f>(1)*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -27944,12 +27890,12 @@
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="58">
-        <f>G9*Synthesis!$B$5</f>
+        <f>G9*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="H15" s="91"/>
       <c r="I15" s="58">
-        <f>(Synthesis!$B$8)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7)*Synthesis!$C$4^2</f>
         <v>0.11200000000000002</v>
       </c>
     </row>
@@ -27967,15 +27913,15 @@
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
       <c r="G16" s="58">
-        <f>G10*Synthesis!$B$5</f>
+        <f>G10*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="H16" s="91">
-        <f>H10*Synthesis!$B$5</f>
+        <f>H10*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="I16" s="58">
-        <f>(Synthesis!$B$8+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7+1)*Synthesis!$C$4^2</f>
         <v>0.27200000000000002</v>
       </c>
     </row>
@@ -27995,15 +27941,15 @@
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="58">
-        <f>G11*Synthesis!$B$5</f>
+        <f>G11*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H17" s="91">
-        <f>H11*Synthesis!$B$5</f>
+        <f>H11*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I17" s="58">
-        <f>(Synthesis!$B$8^2+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^2+1)*Synthesis!$C$4^2</f>
         <v>0.23840000000000006</v>
       </c>
     </row>
@@ -28021,15 +27967,15 @@
       <c r="E18" s="46"/>
       <c r="F18" s="46"/>
       <c r="G18" s="58">
-        <f>G12*Synthesis!$B$5</f>
+        <f>G12*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H18" s="91">
-        <f>H12*Synthesis!$B$5</f>
+        <f>H12*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="I18" s="58">
-        <f>(Synthesis!$B$8^4+Synthesis!$B$8^2)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4+Synthesis!$C$7^2)*Synthesis!$C$4^2</f>
         <v>0.116816</v>
       </c>
     </row>
@@ -28049,12 +27995,12 @@
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="58">
-        <f>G13*Synthesis!$B$5</f>
+        <f>G13*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="H19" s="91"/>
       <c r="I19" s="58">
-        <f>(1)*Synthesis!$B$5^2</f>
+        <f>(1)*Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -28073,12 +28019,12 @@
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
       <c r="G20" s="58">
-        <f>G15*Synthesis!$B$5</f>
+        <f>G15*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="H20" s="91"/>
       <c r="I20" s="58">
-        <f>(1)*Synthesis!$B$5^3</f>
+        <f>(1)*Synthesis!$C$4^3</f>
         <v>6.4000000000000015E-2</v>
       </c>
     </row>
@@ -28097,15 +28043,15 @@
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
       <c r="G21" s="58">
-        <f>G16*Synthesis!$B$5</f>
+        <f>G16*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="H21" s="91">
-        <f>H16*Synthesis!$B$5</f>
+        <f>H16*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="I21" s="58">
-        <f>(Synthesis!$B$8+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7+1)*Synthesis!$C$4^3</f>
         <v>0.10880000000000002</v>
       </c>
     </row>
@@ -28127,7 +28073,7 @@
       </c>
       <c r="H22" s="91"/>
       <c r="I22" s="58">
-        <f>(Synthesis!$B$8^2)</f>
+        <f>(Synthesis!$C$7^2)</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -28164,12 +28110,12 @@
         <v>1</v>
       </c>
       <c r="G24" s="58">
-        <f>G22*Synthesis!$B$5</f>
+        <f>G22*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="H24" s="91"/>
       <c r="I24" s="58">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4</f>
         <v>9.6039999999999973E-2</v>
       </c>
     </row>
@@ -28188,7 +28134,7 @@
       </c>
       <c r="G25" s="58"/>
       <c r="H25" s="91">
-        <f>H23*Synthesis!$B$5</f>
+        <f>H23*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I25" s="58"/>
@@ -28207,12 +28153,12 @@
         <v>2</v>
       </c>
       <c r="G26" s="58">
-        <f>G24*Synthesis!$B$5</f>
+        <f>G24*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="H26" s="91"/>
       <c r="I26" s="58">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^2</f>
         <v>1.8823839999999994E-2</v>
       </c>
     </row>
@@ -28231,7 +28177,7 @@
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="91">
-        <f>H25*Synthesis!$B$5</f>
+        <f>H25*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I27" s="58"/>
@@ -28421,7 +28367,7 @@
       </c>
       <c r="H10" s="90"/>
       <c r="I10" s="30">
-        <f>Synthesis!$B$8+Synthesis!$B$8</f>
+        <f>Synthesis!$C$7+Synthesis!$C$7</f>
         <v>1.4</v>
       </c>
     </row>
@@ -28447,7 +28393,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="30">
-        <f>Synthesis!$B$8+1+1</f>
+        <f>Synthesis!$C$7+1+1</f>
         <v>2.7</v>
       </c>
     </row>
@@ -28469,7 +28415,7 @@
       </c>
       <c r="H12" s="90"/>
       <c r="I12" s="30">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -28487,12 +28433,12 @@
       </c>
       <c r="F13" s="46"/>
       <c r="G13" s="30">
-        <f>G9*Synthesis!$B$5</f>
+        <f>G9*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H13" s="90"/>
       <c r="I13" s="30">
-        <f>(Synthesis!$B$8^2+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.47599999999999998</v>
       </c>
     </row>
@@ -28512,12 +28458,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="30">
-        <f>G10*Synthesis!$B$5</f>
+        <f>G10*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H14" s="90"/>
       <c r="I14" s="30">
-        <f>(Synthesis!$B$8^3+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.41720000000000002</v>
       </c>
     </row>
@@ -28537,15 +28483,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="30">
-        <f>G11*Synthesis!$B$5</f>
+        <f>G11*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="H15" s="90">
-        <f>H11*Synthesis!$B$5</f>
+        <f>H11*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I15" s="30">
-        <f>(Synthesis!$B$8^2+Synthesis!$B$8+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2+Synthesis!$C$7+1)*Synthesis!$C$4</f>
         <v>0.876</v>
       </c>
     </row>
@@ -28571,7 +28517,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="30">
-        <f>(Synthesis!$B$8^3+Synthesis!$B$8^2+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+Synthesis!$C$7^2+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.61319999999999997</v>
       </c>
     </row>
@@ -28593,7 +28539,7 @@
       </c>
       <c r="H17" s="90"/>
       <c r="I17" s="30">
-        <f>(Synthesis!$B$8^2)</f>
+        <f>(Synthesis!$C$7^2)</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -28611,12 +28557,12 @@
       </c>
       <c r="F18" s="46"/>
       <c r="G18" s="30">
-        <f>G13*Synthesis!$B$5</f>
+        <f>G13*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="H18" s="90"/>
       <c r="I18" s="30">
-        <f>(1)*Synthesis!$B$5^2</f>
+        <f>(1)*Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -28636,12 +28582,12 @@
         <v>2</v>
       </c>
       <c r="G19" s="30">
-        <f>G14*Synthesis!$B$5</f>
+        <f>G14*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="H19" s="90"/>
       <c r="I19" s="30">
-        <f>(Synthesis!$B$8+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7+1)*Synthesis!$C$4^2</f>
         <v>0.27200000000000002</v>
       </c>
     </row>
@@ -28661,15 +28607,15 @@
         <v>2</v>
       </c>
       <c r="G20" s="30">
-        <f>G15*Synthesis!$B$5</f>
+        <f>G15*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
       <c r="H20" s="90">
-        <f>H15*Synthesis!$B$5</f>
+        <f>H15*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I20" s="30">
-        <f>(Synthesis!$B$8^4+Synthesis!$B$8^3+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4+Synthesis!$C$7^3+1)*Synthesis!$C$4^2</f>
         <v>0.25329600000000002</v>
       </c>
     </row>
@@ -28689,15 +28635,15 @@
         <v>2</v>
       </c>
       <c r="G21" s="30">
-        <f>G16*Synthesis!$B$5</f>
+        <f>G16*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="H21" s="90">
-        <f>H16*Synthesis!$B$5</f>
+        <f>H16*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I21" s="30">
-        <f>(Synthesis!$B$8^5+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^5+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.34722799999999998</v>
       </c>
     </row>
@@ -28881,11 +28827,11 @@
         <v>2</v>
       </c>
       <c r="E9" s="58">
-        <f>E7*Synthesis!$B$5</f>
+        <f>E7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F9" s="58">
-        <f>(Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.27999999999999997</v>
       </c>
     </row>
@@ -28901,11 +28847,11 @@
         <v>2</v>
       </c>
       <c r="E10" s="58">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="F10" s="58">
-        <f>(1+1)*Synthesis!$B$5</f>
+        <f>(1+1)*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
     </row>
@@ -28921,11 +28867,11 @@
         <v>3</v>
       </c>
       <c r="E11" s="58">
-        <f>E9*Synthesis!$B$5</f>
+        <f>E9*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F11" s="58">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$8^2</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$7^2</f>
         <v>0.24009999999999992</v>
       </c>
     </row>
@@ -28941,11 +28887,11 @@
         <v>3</v>
       </c>
       <c r="E12" s="58">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="F12" s="58">
-        <f>(1+1)*Synthesis!$B$5^2</f>
+        <f>(1+1)*Synthesis!$C$4^2</f>
         <v>0.32000000000000006</v>
       </c>
     </row>
@@ -28961,11 +28907,11 @@
         <v>4</v>
       </c>
       <c r="E13" s="58">
-        <f>E11*Synthesis!$B$5</f>
+        <f>E11*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="F13" s="58">
-        <f>(Synthesis!$B$8^3)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^3)*Synthesis!$C$4^3</f>
         <v>2.1951999999999999E-2</v>
       </c>
     </row>
@@ -28981,11 +28927,11 @@
         <v>4</v>
       </c>
       <c r="E14" s="58">
-        <f>E12*Synthesis!$B$5</f>
+        <f>E12*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="F14" s="58">
-        <f>(1+1)*Synthesis!$B$5^3</f>
+        <f>(1+1)*Synthesis!$C$4^3</f>
         <v>0.12800000000000003</v>
       </c>
     </row>
@@ -29155,7 +29101,7 @@
       </c>
       <c r="F7" s="91"/>
       <c r="G7" s="58">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -29179,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="58">
-        <f>Synthesis!$B$8+1+1</f>
+        <f>Synthesis!$C$7+1+1</f>
         <v>2.7</v>
       </c>
     </row>
@@ -29203,7 +29149,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="58">
-        <f>Synthesis!$B$8^4+Synthesis!$B$8</f>
+        <f>Synthesis!$C$7^4+Synthesis!$C$7</f>
         <v>0.94009999999999994</v>
       </c>
     </row>
@@ -29219,12 +29165,12 @@
         <v>2</v>
       </c>
       <c r="E10" s="58">
-        <f>E7*Synthesis!$B$5</f>
+        <f>E7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F10" s="91"/>
       <c r="G10" s="58">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4</f>
         <v>9.6039999999999973E-2</v>
       </c>
     </row>
@@ -29242,15 +29188,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="58">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="F11" s="91">
-        <f>F8*Synthesis!$B$5</f>
+        <f>F8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G11" s="58">
-        <f>(Synthesis!$B$8^5+1+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^5+1+1)*Synthesis!$C$4</f>
         <v>0.86722800000000011</v>
       </c>
     </row>
@@ -29266,12 +29212,12 @@
         <v>3</v>
       </c>
       <c r="E12" s="58">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F12" s="91"/>
       <c r="G12" s="58">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^2</f>
         <v>1.8823839999999994E-2</v>
       </c>
     </row>
@@ -29289,15 +29235,15 @@
         <v>3</v>
       </c>
       <c r="E13" s="58">
-        <f>E11*Synthesis!$B$5</f>
+        <f>E11*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
       <c r="F13" s="91">
-        <f>F11*Synthesis!$B$5</f>
+        <f>F11*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G13" s="58">
-        <f>(Synthesis!$B$8^7+Synthesis!$B$8+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^7+Synthesis!$C$7+1)*Synthesis!$C$4^2</f>
         <v>0.28517668800000007</v>
       </c>
     </row>
@@ -30154,12 +30100,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="30">
-        <f>2+D8*Synthesis!B7</f>
+        <f>2+D8*Synthesis!C6</f>
         <v>3.4</v>
       </c>
       <c r="F8" s="90"/>
       <c r="G8" s="30">
-        <f>Synthesis!$B$8+1+Synthesis!B7</f>
+        <f>Synthesis!$C$7+1+Synthesis!C6</f>
         <v>3.0999999999999996</v>
       </c>
     </row>
@@ -30191,12 +30137,12 @@
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="30">
-        <f>E7*Synthesis!$B$5</f>
+        <f>E7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F10" s="90"/>
       <c r="G10" s="30">
-        <f>(1)*Synthesis!$B$5</f>
+        <f>(1)*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -30212,12 +30158,12 @@
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="30">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>1.36</v>
       </c>
       <c r="F11" s="90"/>
       <c r="G11" s="30">
-        <f>(Synthesis!$B$8+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7+1)*Synthesis!$C$4</f>
         <v>0.68</v>
       </c>
     </row>
@@ -30231,12 +30177,12 @@
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="30">
-        <f>E9*Synthesis!$B$5</f>
+        <f>E9*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F12" s="90"/>
       <c r="G12" s="30">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -30250,12 +30196,12 @@
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="30">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F13" s="90"/>
       <c r="G13" s="30">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -30271,12 +30217,12 @@
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="30">
-        <f>E11*Synthesis!$B$5</f>
+        <f>E11*Synthesis!$C$4</f>
         <v>0.54400000000000004</v>
       </c>
       <c r="F14" s="90"/>
       <c r="G14" s="30">
-        <f>(1+Synthesis!$B$8)*Synthesis!$B$5^2</f>
+        <f>(1+Synthesis!$C$7)*Synthesis!$C$4^2</f>
         <v>0.27200000000000002</v>
       </c>
     </row>
@@ -30290,12 +30236,12 @@
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="30">
-        <f>E12*Synthesis!$B$5</f>
+        <f>E12*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F15" s="90"/>
       <c r="G15" s="30">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4^2</f>
         <v>7.8400000000000011E-2</v>
       </c>
     </row>
@@ -30449,12 +30395,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="58">
-        <f>2+E8*Synthesis!$B$7</f>
+        <f>2+E8*Synthesis!$C$6</f>
         <v>3.4</v>
       </c>
       <c r="G8" s="91"/>
       <c r="H8" s="58">
-        <f>Synthesis!$B$8+1+Synthesis!B7</f>
+        <f>Synthesis!$C$7+1+Synthesis!C6</f>
         <v>3.0999999999999996</v>
       </c>
     </row>
@@ -30471,12 +30417,12 @@
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="58">
-        <f>F7*Synthesis!$B$5</f>
+        <f>F7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G9" s="91"/>
       <c r="H9" s="58">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -30493,12 +30439,12 @@
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="58">
-        <f>F8*Synthesis!$B$5</f>
+        <f>F8*Synthesis!$C$4</f>
         <v>1.36</v>
       </c>
       <c r="G10" s="91"/>
       <c r="H10" s="58">
-        <f>(Synthesis!$B$8^3+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+1)*Synthesis!$C$4</f>
         <v>0.53720000000000001</v>
       </c>
     </row>
@@ -30515,12 +30461,12 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="58">
-        <f>F9*Synthesis!$B$5</f>
+        <f>F9*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="58">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4^2</f>
         <v>3.8415999999999999E-2</v>
       </c>
     </row>
@@ -30537,12 +30483,12 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="58">
-        <f>F10*Synthesis!$B$5</f>
+        <f>F10*Synthesis!$C$4</f>
         <v>0.54400000000000004</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="58">
-        <f>(Synthesis!$B$8^5+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^5+1)*Synthesis!$C$4^2</f>
         <v>0.18689120000000004</v>
       </c>
     </row>
@@ -30559,12 +30505,12 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="58">
-        <f>F11*Synthesis!$B$5</f>
+        <f>F11*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="58">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^3</f>
         <v>7.5295359999999981E-3</v>
       </c>
     </row>
@@ -30581,12 +30527,12 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="58">
-        <f>F12*Synthesis!$B$5</f>
+        <f>F12*Synthesis!$C$4</f>
         <v>0.21760000000000002</v>
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="58">
-        <f>(Synthesis!$B$8^7+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^7+1)*Synthesis!$C$4^3</f>
         <v>6.927067520000002E-2</v>
       </c>
     </row>
@@ -30603,12 +30549,12 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="58">
-        <f>F13*Synthesis!$B$5</f>
+        <f>F13*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="58">
-        <f>(Synthesis!$B$8^8)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^8)*Synthesis!$C$4^4</f>
         <v>1.4757890559999997E-3</v>
       </c>
     </row>
@@ -30625,12 +30571,12 @@
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="58">
-        <f>F14*Synthesis!$B$5</f>
+        <f>F14*Synthesis!$C$4</f>
         <v>8.7040000000000006E-2</v>
       </c>
       <c r="G16" s="91"/>
       <c r="H16" s="58">
-        <f>(Synthesis!$B$8^9+1)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^9+1)*Synthesis!$C$4^4</f>
         <v>2.6633052339200009E-2</v>
       </c>
     </row>
@@ -30647,12 +30593,12 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="58">
-        <f>F15*Synthesis!$B$5</f>
+        <f>F15*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="58">
-        <f>(Synthesis!$B$8^10)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^10)*Synthesis!$C$4^5</f>
         <v>2.8925465497599994E-4</v>
       </c>
     </row>
@@ -30669,12 +30615,12 @@
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="58">
-        <f>F16*Synthesis!$B$5</f>
+        <f>F16*Synthesis!$C$4</f>
         <v>3.4816000000000007E-2</v>
       </c>
       <c r="G18" s="91"/>
       <c r="H18" s="58">
-        <f>(Synthesis!$B$8^11+1)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^11+1)*Synthesis!$C$4^5</f>
         <v>1.0442478258483205E-2</v>
       </c>
     </row>
@@ -30691,12 +30637,12 @@
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="58">
-        <f>F17*Synthesis!$B$5</f>
+        <f>F17*Synthesis!$C$4</f>
         <v>4.0960000000000015E-3</v>
       </c>
       <c r="G19" s="91"/>
       <c r="H19" s="58">
-        <f>(Synthesis!$B$8^12)*Synthesis!$B$5^6</f>
+        <f>(Synthesis!$C$7^12)*Synthesis!$C$4^6</f>
         <v>5.6693912375295981E-5</v>
       </c>
     </row>
@@ -30713,12 +30659,12 @@
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="58">
-        <f>F18*Synthesis!$B$5</f>
+        <f>F18*Synthesis!$C$4</f>
         <v>1.3926400000000004E-2</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="58">
-        <f>(Synthesis!$B$8^13+1)*Synthesis!$B$5^6</f>
+        <f>(Synthesis!$C$7^13+1)*Synthesis!$C$4^6</f>
         <v>4.1356857386627092E-3</v>
       </c>
     </row>
@@ -30735,12 +30681,12 @@
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="58">
-        <f>F19*Synthesis!$B$5</f>
+        <f>F19*Synthesis!$C$4</f>
         <v>1.6384000000000008E-3</v>
       </c>
       <c r="G21" s="91"/>
       <c r="H21" s="58">
-        <f>(Synthesis!$B$8^14)*Synthesis!$B$5^7</f>
+        <f>(Synthesis!$C$7^14)*Synthesis!$C$4^7</f>
         <v>1.1112006825558012E-5</v>
       </c>
     </row>
@@ -30757,12 +30703,12 @@
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="58">
-        <f>F20*Synthesis!$B$5</f>
+        <f>F20*Synthesis!$C$4</f>
         <v>5.5705600000000022E-3</v>
       </c>
       <c r="G22" s="91"/>
       <c r="H22" s="58">
-        <f>(Synthesis!$B$8^15+1)*Synthesis!$B$5^7</f>
+        <f>(Synthesis!$C$7^15+1)*Synthesis!$C$4^7</f>
         <v>1.6461784047778919E-3</v>
       </c>
     </row>
@@ -30779,12 +30725,12 @@
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="58">
-        <f>F21*Synthesis!$B$5</f>
+        <f>F21*Synthesis!$C$4</f>
         <v>6.5536000000000034E-4</v>
       </c>
       <c r="G23" s="91"/>
       <c r="H23" s="58">
-        <f>(Synthesis!$B$8^16)*Synthesis!$B$5^8</f>
+        <f>(Synthesis!$C$7^16)*Synthesis!$C$4^8</f>
         <v>2.1779533378093702E-6</v>
       </c>
     </row>
@@ -30801,12 +30747,12 @@
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="58">
-        <f>F22*Synthesis!$B$5</f>
+        <f>F22*Synthesis!$C$4</f>
         <v>2.2282240000000009E-3</v>
       </c>
       <c r="G24" s="91"/>
       <c r="H24" s="58">
-        <f>(Synthesis!$B$8^17+1)*Synthesis!$B$5^8</f>
+        <f>(Synthesis!$C$7^17+1)*Synthesis!$C$4^8</f>
         <v>6.5688456733646713E-4</v>
       </c>
     </row>
@@ -30976,7 +30922,7 @@
       </c>
       <c r="F9" s="90"/>
       <c r="G9" s="57">
-        <f>Synthesis!B8+Synthesis!B8^2+Synthesis!B8</f>
+        <f>Synthesis!C7+Synthesis!C7^2+Synthesis!C7</f>
         <v>1.89</v>
       </c>
     </row>
@@ -30998,7 +30944,7 @@
       </c>
       <c r="F10" s="90"/>
       <c r="G10" s="57">
-        <f>Synthesis!B8^2+Synthesis!B8^3+Synthesis!B8^3</f>
+        <f>Synthesis!C7^2+Synthesis!C7^3+Synthesis!C7^3</f>
         <v>1.1759999999999997</v>
       </c>
     </row>
@@ -31179,7 +31125,7 @@
       </c>
       <c r="G9" s="91"/>
       <c r="H9" s="58">
-        <f>Synthesis!$B$8+1</f>
+        <f>Synthesis!$C$7+1</f>
         <v>1.7</v>
       </c>
     </row>
@@ -31196,12 +31142,12 @@
         <v>2</v>
       </c>
       <c r="F10" s="58">
-        <f>F8*Synthesis!$B$5</f>
+        <f>F8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="G10" s="91"/>
       <c r="H10" s="58">
-        <f>(Synthesis!$B$8+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7+1)*Synthesis!$C$4</f>
         <v>0.68</v>
       </c>
     </row>
@@ -31218,12 +31164,12 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="58">
-        <f>F9*Synthesis!$B$5</f>
+        <f>F9*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="58">
-        <f>(Synthesis!$B$8^2+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2+1)*Synthesis!$C$4</f>
         <v>0.59599999999999997</v>
       </c>
     </row>
@@ -31391,7 +31337,7 @@
       </c>
       <c r="G8" s="91"/>
       <c r="H8" s="58">
-        <f>(Synthesis!$B$8+1+1)</f>
+        <f>(Synthesis!$C$7+1+1)</f>
         <v>2.7</v>
       </c>
     </row>
@@ -31410,12 +31356,12 @@
         <v>2</v>
       </c>
       <c r="F9" s="58">
-        <f>F7*Synthesis!$B$5</f>
+        <f>F7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G9" s="91"/>
       <c r="H9" s="58">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -31434,12 +31380,12 @@
         <v>2</v>
       </c>
       <c r="F10" s="58">
-        <f>F8*Synthesis!$B$5</f>
+        <f>F8*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="G10" s="91"/>
       <c r="H10" s="58">
-        <f>(Synthesis!$B$8^3+1+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+1+1)*Synthesis!$C$4</f>
         <v>0.93720000000000003</v>
       </c>
     </row>
@@ -31780,7 +31726,7 @@
       </c>
       <c r="F8" s="91"/>
       <c r="G8" s="58">
-        <f>Synthesis!$B$8+1+1</f>
+        <f>Synthesis!$C$7+1+1</f>
         <v>2.7</v>
       </c>
     </row>
@@ -31796,12 +31742,12 @@
         <v>3</v>
       </c>
       <c r="E9" s="58">
-        <f>E7*Synthesis!$B$5</f>
+        <f>E7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F9" s="91"/>
       <c r="G9" s="58">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -31819,12 +31765,12 @@
         <v>3</v>
       </c>
       <c r="E10" s="58">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="F10" s="91"/>
       <c r="G10" s="58">
-        <f>(Synthesis!$B$8^3+1+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+1+1)*Synthesis!$C$4</f>
         <v>0.93720000000000003</v>
       </c>
     </row>
@@ -31840,12 +31786,12 @@
         <v>2</v>
       </c>
       <c r="E11" s="58">
-        <f>E9*Synthesis!$B$5</f>
+        <f>E9*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F11" s="91"/>
       <c r="G11" s="58">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4^2</f>
         <v>3.8415999999999999E-2</v>
       </c>
     </row>
@@ -31863,12 +31809,12 @@
         <v>2</v>
       </c>
       <c r="E12" s="58">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="F12" s="91"/>
       <c r="G12" s="58">
-        <f>(Synthesis!$B$8^5+1+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^5+1+1)*Synthesis!$C$4^2</f>
         <v>0.34689120000000007</v>
       </c>
     </row>
@@ -31884,12 +31830,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="58">
-        <f>E11*Synthesis!$B$5</f>
+        <f>E11*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="F13" s="91"/>
       <c r="G13" s="58">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^3</f>
         <v>7.5295359999999981E-3</v>
       </c>
     </row>
@@ -31907,12 +31853,12 @@
         <v>1</v>
       </c>
       <c r="E14" s="58">
-        <f>E12*Synthesis!$B$5</f>
+        <f>E12*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="F14" s="91"/>
       <c r="G14" s="58">
-        <f>(Synthesis!$B$8^7+1+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^7+1+1)*Synthesis!$C$4^3</f>
         <v>0.13327067520000002</v>
       </c>
     </row>
@@ -31928,12 +31874,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="58">
-        <f>E13*Synthesis!$B$5</f>
+        <f>E13*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="F15" s="91"/>
       <c r="G15" s="58">
-        <f>(Synthesis!$B$8^8)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^8)*Synthesis!$C$4^4</f>
         <v>1.4757890559999997E-3</v>
       </c>
     </row>
@@ -31951,12 +31897,12 @@
         <v>0</v>
       </c>
       <c r="E16" s="58">
-        <f>E14*Synthesis!$B$5</f>
+        <f>E14*Synthesis!$C$4</f>
         <v>5.1200000000000016E-2</v>
       </c>
       <c r="F16" s="91"/>
       <c r="G16" s="58">
-        <f>(Synthesis!$B$8^9+1+1)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^9+1+1)*Synthesis!$C$4^4</f>
         <v>5.2233052339200024E-2</v>
       </c>
     </row>
@@ -32296,7 +32242,7 @@
       </c>
       <c r="H9" s="90"/>
       <c r="I9" s="30">
-        <f>Synthesis!$B$8+1</f>
+        <f>Synthesis!$C$7+1</f>
         <v>1.7</v>
       </c>
     </row>
@@ -32333,7 +32279,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="90"/>
       <c r="I11" s="30">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -32370,7 +32316,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="90"/>
       <c r="I13" s="30">
-        <f>Synthesis!$B$8</f>
+        <f>Synthesis!$C$7</f>
         <v>0.7</v>
       </c>
     </row>
@@ -32797,7 +32743,7 @@
       <c r="G30" s="79" t="s">
         <v>508</v>
       </c>
-      <c r="H30" s="114"/>
+      <c r="H30" s="108"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="42">
@@ -32816,11 +32762,11 @@
         <f>'1'!D3</f>
         <v>4.6800000000000006</v>
       </c>
-      <c r="G31" s="115">
+      <c r="G31" s="109">
         <f>'1'!F3</f>
         <v>4.8948</v>
       </c>
-      <c r="H31" s="114"/>
+      <c r="H31" s="108"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="42">
@@ -32839,11 +32785,11 @@
         <f>'2'!G3</f>
         <v>10.655744000000004</v>
       </c>
-      <c r="G32" s="115">
+      <c r="G32" s="109">
         <f>'2'!H3</f>
         <v>7.7837939390651911</v>
       </c>
-      <c r="H32" s="114"/>
+      <c r="H32" s="108"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="42">
@@ -32862,11 +32808,11 @@
         <f>'4'!G3</f>
         <v>15.432000000000002</v>
       </c>
-      <c r="G33" s="115">
+      <c r="G33" s="109">
         <f>'4'!I3</f>
         <v>9.3121798400000007</v>
       </c>
-      <c r="H33" s="114"/>
+      <c r="H33" s="108"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="42">
@@ -32885,11 +32831,11 @@
         <f>'5'!G3</f>
         <v>18.12</v>
       </c>
-      <c r="G34" s="115">
+      <c r="G34" s="109">
         <f>'5'!I3</f>
         <v>11.704923999999998</v>
       </c>
-      <c r="H34" s="114"/>
+      <c r="H34" s="108"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="42">
@@ -32908,11 +32854,11 @@
         <f>'6'!E3</f>
         <v>4.8720000000000008</v>
       </c>
-      <c r="G35" s="115">
+      <c r="G35" s="109">
         <f>'6'!F3</f>
         <v>4.7900520000000002</v>
       </c>
-      <c r="H35" s="114"/>
+      <c r="H35" s="108"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="42">
@@ -32931,14 +32877,14 @@
         <f>'7'!E3</f>
         <v>9.240000000000002</v>
       </c>
-      <c r="G36" s="115">
+      <c r="G36" s="109">
         <f>'7'!G3</f>
         <v>6.6073685280000003</v>
       </c>
-      <c r="H36" s="114"/>
+      <c r="H36" s="108"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="118">
+      <c r="B37" s="112">
         <v>8</v>
       </c>
       <c r="C37" s="41">
@@ -32954,14 +32900,14 @@
         <f>'8'!E3</f>
         <v>8.4240000000000013</v>
       </c>
-      <c r="G37" s="115">
+      <c r="G37" s="109">
         <f>'8'!G3</f>
         <v>6.8864000000000001</v>
       </c>
-      <c r="H37" s="114"/>
+      <c r="H37" s="108"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="118">
+      <c r="B38" s="112">
         <v>9</v>
       </c>
       <c r="C38" s="41">
@@ -32977,14 +32923,14 @@
         <f>'9'!F3</f>
         <v>7.3314109439999999</v>
       </c>
-      <c r="G38" s="115">
+      <c r="G38" s="109">
         <f>'9'!H3</f>
         <v>5.1806567180919743</v>
       </c>
-      <c r="H38" s="114"/>
+      <c r="H38" s="108"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="118">
+      <c r="B39" s="112">
         <v>10</v>
       </c>
       <c r="C39" s="41">
@@ -33000,14 +32946,14 @@
         <f>'10'!E3</f>
         <v>9</v>
       </c>
-      <c r="G39" s="115">
+      <c r="G39" s="109">
         <f>'10'!G3</f>
         <v>6.0659999999999989</v>
       </c>
-      <c r="H39" s="114"/>
+      <c r="H39" s="108"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="118">
+      <c r="B40" s="112">
         <v>11</v>
       </c>
       <c r="C40" s="41">
@@ -33023,14 +32969,14 @@
         <f>'11'!F3</f>
         <v>6.6</v>
       </c>
-      <c r="G40" s="115">
+      <c r="G40" s="109">
         <f>'11'!H3</f>
         <v>4.976</v>
       </c>
-      <c r="H40" s="114"/>
+      <c r="H40" s="108"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="118">
+      <c r="B41" s="112">
         <v>12</v>
       </c>
       <c r="C41" s="41">
@@ -33046,14 +32992,14 @@
         <f>'12'!F3</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="G41" s="115">
+      <c r="G41" s="109">
         <f>'12'!H3</f>
         <v>4.8332000000000006</v>
       </c>
-      <c r="H41" s="114"/>
+      <c r="H41" s="108"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="118">
+      <c r="B42" s="112">
         <v>13</v>
       </c>
       <c r="C42" s="41">
@@ -33069,14 +33015,14 @@
         <f>'13'!E3</f>
         <v>3</v>
       </c>
-      <c r="G42" s="115">
+      <c r="G42" s="109">
         <f>'13'!G3</f>
         <v>3</v>
       </c>
-      <c r="H42" s="114"/>
+      <c r="H42" s="108"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="118">
+      <c r="B43" s="112">
         <v>14</v>
       </c>
       <c r="C43" s="41">
@@ -33092,14 +33038,14 @@
         <f>'14'!E3</f>
         <v>4.9488000000000003</v>
       </c>
-      <c r="G43" s="115">
+      <c r="G43" s="109">
         <f>'14'!G3</f>
         <v>5.4130162525952006</v>
       </c>
-      <c r="H43" s="114"/>
+      <c r="H43" s="108"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="118">
+      <c r="B44" s="112">
         <v>16</v>
       </c>
       <c r="C44" s="41">
@@ -33115,14 +33061,14 @@
         <f>'16'!E3</f>
         <v>2</v>
       </c>
-      <c r="G44" s="115">
+      <c r="G44" s="109">
         <f>'16'!G3</f>
         <v>2</v>
       </c>
-      <c r="H44" s="114"/>
+      <c r="H44" s="108"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="118">
+      <c r="B45" s="112">
         <v>17</v>
       </c>
       <c r="C45" s="41">
@@ -33138,14 +33084,14 @@
         <f>'17'!G3</f>
         <v>6</v>
       </c>
-      <c r="G45" s="115">
+      <c r="G45" s="109">
         <f>'17'!I3</f>
         <v>7.1000000000000005</v>
       </c>
-      <c r="H45" s="114"/>
+      <c r="H45" s="108"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="118">
+      <c r="B46" s="112">
         <v>19</v>
       </c>
       <c r="C46" s="41">
@@ -33161,14 +33107,14 @@
         <f>'19'!F3</f>
         <v>10.948800000000004</v>
       </c>
-      <c r="G46" s="115">
+      <c r="G46" s="109">
         <f>'19'!H3</f>
         <v>8.6915907722453642</v>
       </c>
-      <c r="H46" s="114"/>
+      <c r="H46" s="108"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="118">
+      <c r="B47" s="112">
         <v>20</v>
       </c>
       <c r="C47" s="41">
@@ -33184,14 +33130,14 @@
         <f>'20'!E3</f>
         <v>7.5440000000000014</v>
       </c>
-      <c r="G47" s="115">
+      <c r="G47" s="109">
         <f>'20'!G3</f>
         <v>6.4580000000000011</v>
       </c>
-      <c r="H47" s="114"/>
+      <c r="H47" s="108"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="118">
+      <c r="B48" s="112">
         <v>21</v>
       </c>
       <c r="C48" s="41">
@@ -33207,11 +33153,11 @@
         <f>'21'!E3</f>
         <v>6.6240000000000006</v>
       </c>
-      <c r="G48" s="116">
+      <c r="G48" s="110">
         <f>'21'!G3</f>
         <v>6.1128912</v>
       </c>
-      <c r="H48" s="117"/>
+      <c r="H48" s="111"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="42">
@@ -33230,11 +33176,11 @@
         <f>'23'!D3</f>
         <v>6.5984000000000007</v>
       </c>
-      <c r="G49" s="116">
+      <c r="G49" s="110">
         <f>'23'!F3</f>
         <v>5.7813413250560011</v>
       </c>
-      <c r="H49" s="117"/>
+      <c r="H49" s="111"/>
     </row>
     <row r="50" spans="2:8">
       <c r="C50" s="81" t="s">
@@ -33256,7 +33202,7 @@
         <f>PEARSON($C31:$C49,G31:G49)</f>
         <v>0.93180506545250352</v>
       </c>
-      <c r="H50" s="114"/>
+      <c r="H50" s="108"/>
     </row>
     <row r="51" spans="2:8" hidden="1">
       <c r="C51" s="81" t="s">
@@ -33268,7 +33214,7 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="G51" s="81"/>
-      <c r="H51" s="114"/>
+      <c r="H51" s="108"/>
     </row>
     <row r="54" spans="2:8">
       <c r="C54" s="1" t="s">
@@ -33817,7 +33763,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="58">
-        <f>1+Synthesis!$B$8+Synthesis!$B$8</f>
+        <f>1+Synthesis!$C$7+Synthesis!$C$7</f>
         <v>2.4</v>
       </c>
     </row>
@@ -33835,12 +33781,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="58">
-        <f>F8*Synthesis!$B$5</f>
+        <f>F8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="58">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -33855,12 +33801,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="58">
-        <f>F9*Synthesis!$B$5</f>
+        <f>F9*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="58">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -33898,15 +33844,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="58">
-        <f>F10*Synthesis!$B$5</f>
+        <f>F10*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="G14" s="91">
-        <f>G10*Synthesis!$B$5</f>
+        <f>G10*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H14" s="58">
-        <f>(Synthesis!$B$8^3+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.41720000000000002</v>
       </c>
     </row>
@@ -33924,12 +33870,12 @@
         <v>2</v>
       </c>
       <c r="F15" s="58">
-        <f>F11*Synthesis!$B$5</f>
+        <f>F11*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="58">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4^2</f>
         <v>3.8415999999999999E-2</v>
       </c>
     </row>
@@ -33944,12 +33890,12 @@
         <v>2</v>
       </c>
       <c r="F16" s="58">
-        <f>F12*Synthesis!$B$5</f>
+        <f>F12*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G16" s="91"/>
       <c r="H16" s="58">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -33964,12 +33910,12 @@
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="58">
-        <f>F13*Synthesis!$B$5</f>
+        <f>F13*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="58">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -33988,15 +33934,15 @@
         <v>2</v>
       </c>
       <c r="F18" s="58">
-        <f>F14*Synthesis!$B$5</f>
+        <f>F14*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
       <c r="G18" s="91">
-        <f>G14*Synthesis!$B$5</f>
+        <f>G14*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="H18" s="58">
-        <f>(Synthesis!$B$8^5+Synthesis!$B$8)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^5+Synthesis!$C$7)*Synthesis!$C$4^2</f>
         <v>0.13889120000000002</v>
       </c>
     </row>
@@ -34014,12 +33960,12 @@
         <v>3</v>
       </c>
       <c r="F19" s="58">
-        <f>F15*Synthesis!$B$5</f>
+        <f>F15*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="G19" s="91"/>
       <c r="H19" s="58">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^3</f>
         <v>7.5295359999999981E-3</v>
       </c>
     </row>
@@ -34034,12 +33980,12 @@
         <v>3</v>
       </c>
       <c r="F20" s="58">
-        <f>F16*Synthesis!$B$5</f>
+        <f>F16*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="58">
-        <f>Synthesis!$B$5^3</f>
+        <f>Synthesis!$C$4^3</f>
         <v>6.4000000000000015E-2</v>
       </c>
     </row>
@@ -34054,12 +34000,12 @@
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="58">
-        <f>F17*Synthesis!$B$5</f>
+        <f>F17*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G21" s="91"/>
       <c r="H21" s="58">
-        <f>Synthesis!$B$5^3</f>
+        <f>Synthesis!$C$4^3</f>
         <v>6.4000000000000015E-2</v>
       </c>
     </row>
@@ -34078,15 +34024,15 @@
         <v>3</v>
       </c>
       <c r="F22" s="58">
-        <f>F18*Synthesis!$B$5</f>
+        <f>F18*Synthesis!$C$4</f>
         <v>0.19200000000000006</v>
       </c>
       <c r="G22" s="91">
-        <f>G18*Synthesis!$B$5</f>
+        <f>G18*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="H22" s="58">
-        <f>(Synthesis!$B$8^8+1+Synthesis!$B$8)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^8+1+Synthesis!$C$7)*Synthesis!$C$4^3</f>
         <v>0.11248947264000002</v>
       </c>
     </row>
@@ -34104,12 +34050,12 @@
         <v>4</v>
       </c>
       <c r="F23" s="58">
-        <f>F19*Synthesis!$B$5</f>
+        <f>F19*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="G23" s="91"/>
       <c r="H23" s="58">
-        <f>(Synthesis!$B$8^8)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^8)*Synthesis!$C$4^4</f>
         <v>1.4757890559999997E-3</v>
       </c>
     </row>
@@ -34124,12 +34070,12 @@
         <v>4</v>
       </c>
       <c r="F24" s="58">
-        <f>F20*Synthesis!$B$5</f>
+        <f>F20*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="G24" s="91"/>
       <c r="H24" s="58">
-        <f>Synthesis!$B$5^4</f>
+        <f>Synthesis!$C$4^4</f>
         <v>2.5600000000000012E-2</v>
       </c>
     </row>
@@ -34144,12 +34090,12 @@
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="58">
-        <f>F21*Synthesis!$B$5</f>
+        <f>F21*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="G25" s="91"/>
       <c r="H25" s="58">
-        <f>Synthesis!$B$5^4</f>
+        <f>Synthesis!$C$4^4</f>
         <v>2.5600000000000012E-2</v>
       </c>
     </row>
@@ -34168,15 +34114,15 @@
         <v>4</v>
       </c>
       <c r="F26" s="58">
-        <f>F22*Synthesis!$B$5</f>
+        <f>F22*Synthesis!$C$4</f>
         <v>7.6800000000000035E-2</v>
       </c>
       <c r="G26" s="91">
-        <f>G22*Synthesis!$B$5</f>
+        <f>G22*Synthesis!$C$4</f>
         <v>5.1200000000000016E-2</v>
       </c>
       <c r="H26" s="58">
-        <f>(Synthesis!$B$8^10+Synthesis!$B$8)*Synthesis!$B$8^5</f>
+        <f>(Synthesis!$C$7^10+Synthesis!$C$7)*Synthesis!$C$7^5</f>
         <v>0.12239656150994294</v>
       </c>
     </row>
@@ -34194,12 +34140,12 @@
         <v>5</v>
       </c>
       <c r="F27" s="58">
-        <f>F23*Synthesis!$B$5</f>
+        <f>F23*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="G27" s="91"/>
       <c r="H27" s="58">
-        <f>(Synthesis!$B$8^11)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^11)*Synthesis!$C$4^5</f>
         <v>2.0247825848319995E-4</v>
       </c>
     </row>
@@ -34214,12 +34160,12 @@
         <v>5</v>
       </c>
       <c r="F28" s="58">
-        <f>F24*Synthesis!$B$5</f>
+        <f>F24*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="G28" s="91"/>
       <c r="H28" s="58">
-        <f>Synthesis!$B$5^5</f>
+        <f>Synthesis!$C$4^5</f>
         <v>1.0240000000000006E-2</v>
       </c>
     </row>
@@ -34234,12 +34180,12 @@
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="58">
-        <f>F25*Synthesis!$B$5</f>
+        <f>F25*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="G29" s="91"/>
       <c r="H29" s="58">
-        <f>Synthesis!$B$5^5</f>
+        <f>Synthesis!$C$4^5</f>
         <v>1.0240000000000006E-2</v>
       </c>
     </row>
@@ -34258,15 +34204,15 @@
         <v>5</v>
       </c>
       <c r="F30" s="58">
-        <f>F26*Synthesis!$B$5</f>
+        <f>F26*Synthesis!$C$4</f>
         <v>3.0720000000000015E-2</v>
       </c>
       <c r="G30" s="91">
-        <f>G26*Synthesis!$B$5</f>
+        <f>G26*Synthesis!$C$4</f>
         <v>2.0480000000000009E-2</v>
       </c>
       <c r="H30" s="58">
-        <f>(Synthesis!$B$8^12+Synthesis!$B$8)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^12+Synthesis!$C$7)*Synthesis!$C$4^5</f>
         <v>7.3097347809382438E-3</v>
       </c>
     </row>
@@ -34409,12 +34355,12 @@
         <v>328</v>
       </c>
       <c r="E8" s="30">
-        <f>Synthesis!B7</f>
+        <f>Synthesis!C6</f>
         <v>1.4</v>
       </c>
       <c r="F8" s="90"/>
       <c r="G8" s="30">
-        <f>Synthesis!$B$8+Synthesis!B7</f>
+        <f>Synthesis!$C$7+Synthesis!C6</f>
         <v>2.0999999999999996</v>
       </c>
     </row>
@@ -34449,7 +34395,7 @@
       </c>
       <c r="F10" s="90"/>
       <c r="G10" s="30">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -34463,12 +34409,12 @@
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
       <c r="E11" s="30">
-        <f>E7*Synthesis!$B$5</f>
+        <f>E7*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F11" s="90"/>
       <c r="G11" s="30">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -34482,12 +34428,12 @@
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
       <c r="E12" s="30">
-        <f>E8*Synthesis!$B$5</f>
+        <f>E8*Synthesis!$C$4</f>
         <v>0.55999999999999994</v>
       </c>
       <c r="F12" s="90"/>
       <c r="G12" s="30">
-        <f>(Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.27999999999999997</v>
       </c>
     </row>
@@ -34501,12 +34447,12 @@
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="30">
-        <f>E9*Synthesis!$B$5</f>
+        <f>E9*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F13" s="90"/>
       <c r="G13" s="30">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -34520,12 +34466,12 @@
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
       <c r="E14" s="30">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F14" s="90"/>
       <c r="G14" s="30">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -34539,12 +34485,12 @@
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
       <c r="E15" s="30">
-        <f>E11*Synthesis!$B$5</f>
+        <f>E11*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F15" s="90"/>
       <c r="G15" s="30">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -34558,12 +34504,12 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="30">
-        <f>E12*Synthesis!$B$5</f>
+        <f>E12*Synthesis!$C$4</f>
         <v>0.22399999999999998</v>
       </c>
       <c r="F16" s="90"/>
       <c r="G16" s="30">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -34577,7 +34523,7 @@
       <c r="E17" s="30"/>
       <c r="F17" s="90"/>
       <c r="G17" s="30">
-        <f>Synthesis!$B$8*Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$7*Synthesis!$C$4^2</f>
         <v>0.11200000000000002</v>
       </c>
     </row>
@@ -34595,7 +34541,7 @@
       </c>
       <c r="F18" s="90"/>
       <c r="G18" s="30">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -34731,7 +34677,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="58">
-        <f>Synthesis!$B$8+1</f>
+        <f>Synthesis!$C$7+1</f>
         <v>1.7</v>
       </c>
     </row>
@@ -34753,7 +34699,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="58">
-        <f>Synthesis!$B$8^2+Synthesis!$B$8</f>
+        <f>Synthesis!$C$7^2+Synthesis!$C$7</f>
         <v>1.19</v>
       </c>
     </row>
@@ -34792,7 +34738,7 @@
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="58">
-        <f>E6*Synthesis!$B$5</f>
+        <f>E6*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F10" s="91"/>
@@ -34829,12 +34775,12 @@
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="58">
-        <f>E10*Synthesis!$B$5</f>
+        <f>E10*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F12" s="91"/>
       <c r="G12" s="58">
-        <f>Synthesis!$B$8^2*Synthesis!$B$5</f>
+        <f>Synthesis!$C$7^2*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -34851,7 +34797,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="58"/>
       <c r="F13" s="91">
-        <f>F11*Synthesis!$B$5</f>
+        <f>F11*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G13" s="58"/>
@@ -34868,12 +34814,12 @@
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="58">
-        <f>E12*Synthesis!$B$5</f>
+        <f>E12*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="F14" s="91"/>
       <c r="G14" s="58">
-        <f>(Synthesis!$B$8^5)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^5)*Synthesis!$C$4^2</f>
         <v>2.6891199999999997E-2</v>
       </c>
     </row>
@@ -34890,7 +34836,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="58"/>
       <c r="F15" s="91">
-        <f>F13*Synthesis!$B$5</f>
+        <f>F13*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G15" s="58"/>
@@ -35045,7 +34991,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="58">
-        <f>Synthesis!$B$8+1</f>
+        <f>Synthesis!$C$7+1</f>
         <v>1.7</v>
       </c>
     </row>
@@ -35060,12 +35006,12 @@
         <v>1</v>
       </c>
       <c r="D8" s="58">
-        <f>D6*Synthesis!$B$5</f>
+        <f>D6*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="E8" s="91"/>
       <c r="F8" s="58">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -35080,15 +35026,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="58">
-        <f>D7*Synthesis!$B$5</f>
+        <f>D7*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="E9" s="91">
-        <f>E7*Synthesis!$B$5</f>
+        <f>E7*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="F9" s="58">
-        <f>(Synthesis!$B$8+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7+1)*Synthesis!$C$4</f>
         <v>0.68</v>
       </c>
     </row>
@@ -35103,12 +35049,12 @@
         <v>2</v>
       </c>
       <c r="D10" s="58">
-        <f>D8*Synthesis!$B$5</f>
+        <f>D8*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="E10" s="91"/>
       <c r="F10" s="58">
-        <f>Synthesis!$B$5^2</f>
+        <f>Synthesis!$C$4^2</f>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -35123,15 +35069,15 @@
         <v>2</v>
       </c>
       <c r="D11" s="58">
-        <f>D9*Synthesis!$B$5</f>
+        <f>D9*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="E11" s="91">
-        <f>E9*Synthesis!$B$5</f>
+        <f>E9*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="F11" s="58">
-        <f>(Synthesis!$B$8+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7+1)*Synthesis!$C$4^2</f>
         <v>0.27200000000000002</v>
       </c>
     </row>
@@ -35146,12 +35092,12 @@
         <v>3</v>
       </c>
       <c r="D12" s="58">
-        <f>D10*Synthesis!$B$5</f>
+        <f>D10*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="58">
-        <f>Synthesis!$B$5^3</f>
+        <f>Synthesis!$C$4^3</f>
         <v>6.4000000000000015E-2</v>
       </c>
     </row>
@@ -35166,15 +35112,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="58">
-        <f>D11*Synthesis!$B$5</f>
+        <f>D11*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="E13" s="91">
-        <f>E11*Synthesis!$B$5</f>
+        <f>E11*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="F13" s="58">
-        <f>(Synthesis!$B$8+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7+1)*Synthesis!$C$4^3</f>
         <v>0.10880000000000002</v>
       </c>
     </row>
@@ -35189,12 +35135,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="58">
-        <f>D12*Synthesis!$B$5</f>
+        <f>D12*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="58">
-        <f>Synthesis!$B$5^4</f>
+        <f>Synthesis!$C$4^4</f>
         <v>2.5600000000000012E-2</v>
       </c>
     </row>
@@ -35209,15 +35155,15 @@
         <v>4</v>
       </c>
       <c r="D15" s="58">
-        <f>D13*Synthesis!$B$5</f>
+        <f>D13*Synthesis!$C$4</f>
         <v>5.1200000000000016E-2</v>
       </c>
       <c r="E15" s="91">
-        <f>E13*Synthesis!$B$5</f>
+        <f>E13*Synthesis!$C$4</f>
         <v>5.1200000000000016E-2</v>
       </c>
       <c r="F15" s="58">
-        <f>(Synthesis!$B$8+1)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7+1)*Synthesis!$C$4^4</f>
         <v>4.3520000000000017E-2</v>
       </c>
     </row>
@@ -35266,12 +35212,12 @@
         <v>1</v>
       </c>
       <c r="D18" s="58">
-        <f>D16*Synthesis!$B$5</f>
+        <f>D16*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="E18" s="91"/>
       <c r="F18" s="58">
-        <f>Synthesis!$B$8*Synthesis!$B$5</f>
+        <f>Synthesis!$C$7*Synthesis!$C$4</f>
         <v>0.27999999999999997</v>
       </c>
     </row>
@@ -35287,7 +35233,7 @@
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="91">
-        <f>E17*Synthesis!$B$5</f>
+        <f>E17*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="F19" s="58"/>
@@ -35303,12 +35249,12 @@
         <v>2</v>
       </c>
       <c r="D20" s="58">
-        <f>D18*Synthesis!$B$5</f>
+        <f>D18*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="58">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4^2</f>
         <v>3.8415999999999999E-2</v>
       </c>
     </row>
@@ -35324,7 +35270,7 @@
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="91">
-        <f>E19*Synthesis!$B$5</f>
+        <f>E19*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F21" s="58"/>
@@ -35340,12 +35286,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="58">
-        <f>D20*Synthesis!$B$5</f>
+        <f>D20*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="58">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^3</f>
         <v>7.5295359999999981E-3</v>
       </c>
     </row>
@@ -35361,7 +35307,7 @@
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="91">
-        <f>E21*Synthesis!$B$5</f>
+        <f>E21*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="F23" s="58"/>
@@ -35377,12 +35323,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="58">
-        <f>D22*Synthesis!$B$5</f>
+        <f>D22*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="58">
-        <f>(Synthesis!$B$8^8)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^8)*Synthesis!$C$4^4</f>
         <v>1.4757890559999997E-3</v>
       </c>
     </row>
@@ -35398,7 +35344,7 @@
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="91">
-        <f>E23*Synthesis!$B$5</f>
+        <f>E23*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="F25" s="58"/>
@@ -35427,8 +35373,8 @@
   <sheetPr codeName="Feuil64"/>
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35562,10 +35508,10 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="121">
+      <c r="C8" s="115">
         <v>41.82</v>
       </c>
       <c r="D8" s="42">
@@ -35584,10 +35530,10 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="115">
         <v>40.78</v>
       </c>
       <c r="D9" s="42">
@@ -35606,10 +35552,10 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="121">
+      <c r="C10" s="115">
         <v>21.52</v>
       </c>
       <c r="D10" s="42">
@@ -35628,10 +35574,10 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="121">
+      <c r="C11" s="115">
         <v>34.869999999999997</v>
       </c>
       <c r="D11" s="42">
@@ -35650,10 +35596,10 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="121">
+      <c r="C12" s="115">
         <v>37.65</v>
       </c>
       <c r="D12" s="42">
@@ -35672,10 +35618,10 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="121">
+      <c r="C13" s="115">
         <v>36.979999999999997</v>
       </c>
       <c r="D13" s="42">
@@ -35686,18 +35632,18 @@
       </c>
       <c r="F13" s="80">
         <f>binToDec!E3</f>
-        <v>8.36</v>
+        <v>9.36</v>
       </c>
       <c r="G13" s="80">
         <f>binToDec!G3</f>
-        <v>5.7590000000000003</v>
+        <v>6.7590000000000003</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="121">
+      <c r="C14" s="115">
         <v>24.25</v>
       </c>
       <c r="D14" s="42">
@@ -35708,18 +35654,18 @@
       </c>
       <c r="F14" s="80">
         <f>crosSum!E3</f>
-        <v>5.5472000000000001</v>
+        <v>6.3591999999999995</v>
       </c>
       <c r="G14" s="80">
         <f>crosSum!G3</f>
-        <v>5.8557599999999992</v>
+        <v>6.6677599999999995</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="121">
+      <c r="C15" s="115">
         <v>21.25</v>
       </c>
       <c r="D15" s="42">
@@ -35730,18 +35676,18 @@
       </c>
       <c r="F15" s="80">
         <f>'n!'!D3</f>
-        <v>3.1840000000000002</v>
+        <v>3.9640000000000004</v>
       </c>
       <c r="G15" s="80">
         <f>'n!'!F3</f>
-        <v>3.4803999999999999</v>
+        <v>4.2604000000000006</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="121">
+      <c r="C16" s="115">
         <v>31.74</v>
       </c>
       <c r="D16" s="42">
@@ -35752,18 +35698,18 @@
       </c>
       <c r="F16" s="80">
         <f>fibonacci!D3</f>
-        <v>3.0495999999999999</v>
+        <v>4.4496000000000002</v>
       </c>
       <c r="G16" s="80">
         <f>fibonacci!F3</f>
-        <v>3.3540000000000001</v>
+        <v>4.7540000000000004</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="121">
+      <c r="C17" s="115">
         <v>28.54</v>
       </c>
       <c r="D17" s="42">
@@ -35774,11 +35720,11 @@
       </c>
       <c r="F17" s="80">
         <f>power!E3</f>
-        <v>5.7600000000000007</v>
+        <v>6.4600000000000009</v>
       </c>
       <c r="G17" s="80">
         <f>power!G3</f>
-        <v>5.1592400000000005</v>
+        <v>5.8592400000000007</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -35839,11 +35785,11 @@
       </c>
       <c r="F20" s="81">
         <f>PEARSON($C4:$C19,F4:F19)</f>
-        <v>0.67522506147427974</v>
+        <v>0.68430126449805984</v>
       </c>
       <c r="G20" s="81">
         <f>PEARSON($C4:$C19,G4:G19)</f>
-        <v>0.68223624511596881</v>
+        <v>0.68740594006032374</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -35903,25 +35849,28 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384EF8BC-B3FE-D347-BA43-5B066A763C3E}">
   <sheetPr codeName="Feuil65"/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="2:9" ht="19">
+      <c r="B1" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="50"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
@@ -35930,127 +35879,112 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="F3" s="101" t="s">
+    <row r="3" spans="2:9">
+      <c r="B3" s="101" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="F3" s="79" t="s">
         <v>482</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="I3" s="112"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="103" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="113" t="str">
-        <f>data!H3</f>
-        <v>diff_id</v>
-      </c>
-      <c r="I4" s="113" t="str">
-        <f>data!J3</f>
-        <v>reuse</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="80" t="s">
+      <c r="I3" s="101"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="80" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="80">
+      <c r="C4" s="80">
         <v>0.4</v>
       </c>
-      <c r="C5" s="119">
+      <c r="D4" s="113">
         <v>0.4</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F4" s="80" t="s">
         <v>483</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G4" s="42">
         <f>ROWS(siegmund2012!B31:B49)</f>
         <v>19</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H4" s="80">
         <f>siegmund2012!F50</f>
         <v>0.88388713486703019</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I4" s="80">
         <f>siegmund2012!G50</f>
         <v>0.93180506545250352</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="80" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="B6" s="80">
-        <v>0</v>
-      </c>
-      <c r="C6" s="119">
+      <c r="C5" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="113">
         <v>1.3</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F5" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G5" s="42">
         <f>ROWS(peitek2021!B4:B19)</f>
         <v>16</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H5" s="80">
         <f>peitek2021!F20</f>
-        <v>0.67522506147427974</v>
-      </c>
-      <c r="I6" s="80">
+        <v>0.68430126449805984</v>
+      </c>
+      <c r="I5" s="80">
         <f>peitek2021!G20</f>
-        <v>0.68223624511596881</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="80" t="s">
+        <v>0.68740594006032374</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="80" t="s">
         <v>478</v>
       </c>
-      <c r="B7" s="80">
+      <c r="C6" s="80">
         <v>1.4</v>
       </c>
-      <c r="C7" s="119">
+      <c r="D6" s="113">
         <v>1.3</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G6" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="H7" s="81">
-        <f>(H5*$G5+H6*$G6)/SUM($G5:$G6)</f>
-        <v>0.78849875845891571</v>
-      </c>
-      <c r="I7" s="81">
-        <f t="shared" ref="I7" si="0">(I5*$G5+I6*$G6)/SUM($G5:$G6)</f>
-        <v>0.81771646187008773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="80" t="s">
+      <c r="H6" s="81">
+        <f>(H4*$G4+H5*$G5)/SUM($G4:$G5)</f>
+        <v>0.79264787984121521</v>
+      </c>
+      <c r="I6" s="81">
+        <f t="shared" ref="I6" si="0">(I4*$G4+I5*$G5)/SUM($G4:$G5)</f>
+        <v>0.82007975098750718</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="80" t="s">
         <v>487</v>
       </c>
-      <c r="B8" s="80">
+      <c r="C7" s="80">
         <v>0.7</v>
       </c>
-      <c r="C8" s="119">
+      <c r="D7" s="113">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F3:F4"/>
+  <mergeCells count="3">
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36167,7 +36101,7 @@
       <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="103" t="s">
         <v>334</v>
       </c>
       <c r="B8" s="46" t="s">
@@ -36210,7 +36144,7 @@
         <v>#REF!</v>
       </c>
       <c r="H9" s="30">
-        <f>Synthesis!$B$8+Synthesis!$B$8+1</f>
+        <f>Synthesis!$C$7+Synthesis!$C$7+1</f>
         <v>2.4</v>
       </c>
     </row>
@@ -36231,12 +36165,12 @@
         <v>1</v>
       </c>
       <c r="H10" s="30">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="103" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -36248,15 +36182,15 @@
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="30">
-        <f>F8*Synthesis!$B$5</f>
+        <f>F8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="G11" s="30">
-        <f>G8*Synthesis!$B$5</f>
+        <f>G8*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H11" s="30">
-        <f>(Synthesis!$B$8^2+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2+1)*Synthesis!$C$4</f>
         <v>0.59599999999999997</v>
       </c>
     </row>
@@ -36275,15 +36209,15 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="30">
-        <f>F9*Synthesis!$B$5</f>
+        <f>F9*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="G12" s="30" t="e">
-        <f>G9*Synthesis!$B$5</f>
+        <f>G9*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="H12" s="30">
-        <f>(Synthesis!$B$8^3+Synthesis!$B$8+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+Synthesis!$C$7+1)*Synthesis!$C$4</f>
         <v>0.81720000000000015</v>
       </c>
     </row>
@@ -36298,20 +36232,20 @@
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="30">
-        <f>F10*Synthesis!$B$5</f>
+        <f>F10*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="G13" s="30">
-        <f>G10*Synthesis!$B$5</f>
+        <f>G10*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="H13" s="30">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="103" t="s">
         <v>334</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -36323,15 +36257,15 @@
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="30">
-        <f>F11*Synthesis!$B$5</f>
+        <f>F11*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="G14" s="30">
-        <f>G11*Synthesis!$B$5</f>
+        <f>G11*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="H14" s="30">
-        <f>(Synthesis!$B$8^4+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4+1)*Synthesis!$C$4^2</f>
         <v>0.19841600000000004</v>
       </c>
     </row>
@@ -36350,15 +36284,15 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="30">
-        <f>F12*Synthesis!$B$5</f>
+        <f>F12*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
       <c r="G15" s="30" t="e">
-        <f>G12*Synthesis!$B$5</f>
+        <f>G12*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="H15" s="30">
-        <f>(Synthesis!$B$8^5+Synthesis!$B$8+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^5+Synthesis!$C$7+1)*Synthesis!$C$4^2</f>
         <v>0.29889120000000002</v>
       </c>
     </row>
@@ -36373,15 +36307,15 @@
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="30">
-        <f>F13*Synthesis!$B$5</f>
+        <f>F13*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G16" s="30">
-        <f>G13*Synthesis!$B$5</f>
+        <f>G13*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="H16" s="30">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4^2</f>
         <v>7.8400000000000011E-2</v>
       </c>
     </row>
@@ -36398,15 +36332,15 @@
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="30">
-        <f>F14*Synthesis!$B$5</f>
+        <f>F14*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="G17" s="30">
-        <f>G14*Synthesis!$B$5</f>
+        <f>G14*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="H17" s="30">
-        <f>(Synthesis!$B$8^8 + 1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^8 + 1)*Synthesis!$C$4^3</f>
         <v>6.7689472640000012E-2</v>
       </c>
     </row>
@@ -36425,15 +36359,15 @@
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="30">
-        <f>F15*Synthesis!$B$5</f>
+        <f>F15*Synthesis!$C$4</f>
         <v>0.19200000000000006</v>
       </c>
       <c r="G18" s="30" t="e">
-        <f>G15*Synthesis!$B$5</f>
+        <f>G15*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="H18" s="30">
-        <f>(Synthesis!$B$8^9+Synthesis!$B$8+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^9+Synthesis!$C$7+1)*Synthesis!$C$4^3</f>
         <v>0.11138263084800001</v>
       </c>
     </row>
@@ -36448,15 +36382,15 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="30">
-        <f>F16*Synthesis!$B$5</f>
+        <f>F16*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="G19" s="30">
-        <f>G16*Synthesis!$B$5</f>
+        <f>G16*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="H19" s="30">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4^3</f>
         <v>3.1360000000000006E-2</v>
       </c>
     </row>
@@ -36622,7 +36556,7 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="104" t="s">
         <v>344</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -36645,7 +36579,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="105" t="s">
         <v>345</v>
       </c>
       <c r="B9" s="27"/>
@@ -36690,7 +36624,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="31">
-        <f>Synthesis!$B$8+1+1</f>
+        <f>Synthesis!$C$7+1+1</f>
         <v>2.7</v>
       </c>
     </row>
@@ -36718,7 +36652,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="31">
-        <f>Synthesis!$B$8^2+Synthesis!$B$8+Synthesis!$B$8+Synthesis!$B$8</f>
+        <f>Synthesis!$C$7^2+Synthesis!$C$7+Synthesis!$C$7+Synthesis!$C$7</f>
         <v>2.59</v>
       </c>
     </row>
@@ -36747,7 +36681,7 @@
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="104" t="s">
         <v>344</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -36760,20 +36694,20 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="31">
-        <f>G8*Synthesis!$B$5</f>
+        <f>G8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="H14" s="86">
-        <f>H8*Synthesis!$B$5</f>
+        <f>H8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I14" s="31">
-        <f>(Synthesis!$B$8^3+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^3+1)*Synthesis!$C$4</f>
         <v>0.53720000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="105" t="s">
         <v>345</v>
       </c>
       <c r="B15" s="27"/>
@@ -36786,15 +36720,15 @@
         <v>0</v>
       </c>
       <c r="G15" s="31">
-        <f>G9*Synthesis!$B$5</f>
+        <f>G9*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="H15" s="86">
-        <f>H9*Synthesis!$B$5</f>
+        <f>H9*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I15" s="31">
-        <f>(Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.19599999999999998</v>
       </c>
     </row>
@@ -36814,15 +36748,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="31">
-        <f>G10*Synthesis!$B$5</f>
+        <f>G10*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="H16" s="86">
-        <f>H10*Synthesis!$B$5</f>
+        <f>H10*Synthesis!$C$4</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="I16" s="31">
-        <f>(Synthesis!$B$8^4+1+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^4+1+1)*Synthesis!$C$4</f>
         <v>0.89604000000000006</v>
       </c>
     </row>
@@ -36844,15 +36778,15 @@
         <v>0</v>
       </c>
       <c r="G17" s="31">
-        <f>G11*Synthesis!$B$5</f>
+        <f>G11*Synthesis!$C$4</f>
         <v>1.6</v>
       </c>
       <c r="H17" s="86">
-        <f>H11*Synthesis!$B$5</f>
+        <f>H11*Synthesis!$C$4</f>
         <v>1.6</v>
       </c>
       <c r="I17" s="31">
-        <f>(Synthesis!$B$8^5+Synthesis!$B$8^3+Synthesis!$B$8+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^5+Synthesis!$C$7^3+Synthesis!$C$7+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.764428</v>
       </c>
     </row>
@@ -36881,7 +36815,7 @@
       <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="104" t="s">
         <v>344</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -36894,20 +36828,20 @@
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="31">
-        <f>G14*Synthesis!$B$5</f>
+        <f>G14*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="H20" s="86">
-        <f>H14*Synthesis!$B$5</f>
+        <f>H14*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I20" s="31">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^2</f>
         <v>1.8823839999999994E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="105" t="s">
         <v>345</v>
       </c>
       <c r="B21" s="27"/>
@@ -36920,15 +36854,15 @@
         <v>0</v>
       </c>
       <c r="G21" s="31">
-        <f>G15*Synthesis!$B$5</f>
+        <f>G15*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="H21" s="86">
-        <f>H15*Synthesis!$B$5</f>
+        <f>H15*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I21" s="31">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4^2</f>
         <v>3.8415999999999999E-2</v>
       </c>
     </row>
@@ -36948,15 +36882,15 @@
         <v>0</v>
       </c>
       <c r="G22" s="31">
-        <f>G16*Synthesis!$B$5</f>
+        <f>G16*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
       <c r="H22" s="86">
-        <f>H16*Synthesis!$B$5</f>
+        <f>H16*Synthesis!$C$4</f>
         <v>0.48000000000000009</v>
       </c>
       <c r="I22" s="31">
-        <f>(Synthesis!$B$8^7+1+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^7+1+1)*Synthesis!$C$4^2</f>
         <v>0.33317668800000005</v>
       </c>
     </row>
@@ -36978,15 +36912,15 @@
         <v>0</v>
       </c>
       <c r="G23" s="31">
-        <f>G17*Synthesis!$B$5</f>
+        <f>G17*Synthesis!$C$4</f>
         <v>0.64000000000000012</v>
       </c>
       <c r="H23" s="86">
-        <f>H17*Synthesis!$B$5</f>
+        <f>H17*Synthesis!$C$4</f>
         <v>0.64000000000000012</v>
       </c>
       <c r="I23" s="31">
-        <f>(Synthesis!$B$8^8+Synthesis!$B$8^5+Synthesis!$B$8+Synthesis!$B$8)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^8+Synthesis!$C$7^5+Synthesis!$C$7+Synthesis!$C$7)*Synthesis!$C$4^2</f>
         <v>0.26011488160000001</v>
       </c>
     </row>
@@ -37015,7 +36949,7 @@
       <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="104" t="s">
         <v>344</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -37028,20 +36962,20 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="31">
-        <f>G20*Synthesis!$B$5</f>
+        <f>G20*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="H26" s="86">
-        <f>H20*Synthesis!$B$5</f>
+        <f>H20*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="I26" s="31">
-        <f>(Synthesis!$B$8^9)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^9)*Synthesis!$C$4^3</f>
         <v>2.5826308479999986E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="105" t="s">
         <v>345</v>
       </c>
       <c r="B27" s="27"/>
@@ -37054,15 +36988,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="31">
-        <f>G21*Synthesis!$B$5</f>
+        <f>G21*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="H27" s="86">
-        <f>H21*Synthesis!$B$5</f>
+        <f>H21*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="I27" s="31">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^3</f>
         <v>7.5295359999999981E-3</v>
       </c>
     </row>
@@ -37082,15 +37016,15 @@
         <v>0</v>
       </c>
       <c r="G28" s="31">
-        <f>G22*Synthesis!$B$5</f>
+        <f>G22*Synthesis!$C$4</f>
         <v>0.19200000000000006</v>
       </c>
       <c r="H28" s="86">
-        <f>H22*Synthesis!$B$5</f>
+        <f>H22*Synthesis!$C$4</f>
         <v>0.19200000000000006</v>
       </c>
       <c r="I28" s="31">
-        <f>(Synthesis!$B$8^10+1+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^10+1+1)*Synthesis!$C$4^3</f>
         <v>0.12980784159360004</v>
       </c>
     </row>
@@ -37112,15 +37046,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="31">
-        <f>G23*Synthesis!$B$5</f>
+        <f>G23*Synthesis!$C$4</f>
         <v>0.25600000000000006</v>
       </c>
       <c r="H29" s="86">
-        <f>H23*Synthesis!$B$5</f>
+        <f>H23*Synthesis!$C$4</f>
         <v>0.25600000000000006</v>
       </c>
       <c r="I29" s="31">
-        <f>(Synthesis!$B$8^11+Synthesis!$B$8^7+Synthesis!$B$8+Synthesis!$B$8)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^11+Synthesis!$C$7^7+Synthesis!$C$7+Synthesis!$C$7)*Synthesis!$C$4^3</f>
         <v>9.6136164315520009E-2</v>
       </c>
     </row>
@@ -37157,7 +37091,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="31">
-        <f>Synthesis!$B$8^8+Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^8+Synthesis!$C$7^2</f>
         <v>0.54764800999999985</v>
       </c>
     </row>
@@ -37173,7 +37107,7 @@
       <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="105" t="s">
         <v>345</v>
       </c>
       <c r="B33" s="27"/>
@@ -37186,15 +37120,15 @@
         <v>1</v>
       </c>
       <c r="G33" s="31">
-        <f>G27*Synthesis!$B$5</f>
+        <f>G27*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="H33" s="86">
-        <f>H27*Synthesis!$B$5</f>
+        <f>H27*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="I33" s="31">
-        <f>(Synthesis!$B$8^9)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^9)*Synthesis!$C$4^4</f>
         <v>1.0330523391999997E-3</v>
       </c>
     </row>
@@ -37214,15 +37148,15 @@
         <v>1</v>
       </c>
       <c r="G34" s="31">
-        <f>G28*Synthesis!$B$5</f>
+        <f>G28*Synthesis!$C$4</f>
         <v>7.6800000000000035E-2</v>
       </c>
       <c r="H34" s="86">
-        <f>H28*Synthesis!$B$5</f>
+        <f>H28*Synthesis!$C$4</f>
         <v>7.6800000000000035E-2</v>
       </c>
       <c r="I34" s="31">
-        <f>(Synthesis!$B$8^12+Synthesis!$B$8^2+1)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^12+Synthesis!$C$7^2+1)*Synthesis!$C$4^4</f>
         <v>3.8498336952345613E-2</v>
       </c>
     </row>
@@ -37244,15 +37178,15 @@
         <v>1</v>
       </c>
       <c r="G35" s="31">
-        <f>G29*Synthesis!$B$5</f>
+        <f>G29*Synthesis!$C$4</f>
         <v>0.10240000000000003</v>
       </c>
       <c r="H35" s="86">
-        <f>H29*Synthesis!$B$5</f>
+        <f>H29*Synthesis!$C$4</f>
         <v>0.10240000000000003</v>
       </c>
       <c r="I35" s="31">
-        <f>(Synthesis!$B$8^13+Synthesis!$B$8^10+Synthesis!$B$8^3+Synthesis!$B$8)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^13+Synthesis!$C$7^10+Synthesis!$C$7^3+Synthesis!$C$7)*Synthesis!$C$4^4</f>
         <v>2.7671972504081932E-2</v>
       </c>
     </row>
@@ -37283,15 +37217,15 @@
         <v>1</v>
       </c>
       <c r="G37" s="31">
-        <f>G31*Synthesis!$B$5</f>
+        <f>G31*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="H37" s="86">
-        <f>H31*Synthesis!$B$5</f>
+        <f>H31*Synthesis!$C$4</f>
         <v>0.8</v>
       </c>
       <c r="I37" s="31">
-        <f>(Synthesis!$B$8^11+Synthesis!$B$8^2)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^11+Synthesis!$C$7^2)*Synthesis!$C$4</f>
         <v>0.20390930697199999</v>
       </c>
     </row>
@@ -37307,7 +37241,7 @@
       <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="105" t="s">
         <v>345</v>
       </c>
       <c r="B39" s="27"/>
@@ -37320,15 +37254,15 @@
         <v>2</v>
       </c>
       <c r="G39" s="31">
-        <f>G33*Synthesis!$B$5</f>
+        <f>G33*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="H39" s="86">
-        <f>H33*Synthesis!$B$5</f>
+        <f>H33*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="I39" s="31">
-        <f>(Synthesis!$B$8^12)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^12)*Synthesis!$C$4^5</f>
         <v>1.4173478093823993E-4</v>
       </c>
     </row>
@@ -37348,15 +37282,15 @@
         <v>2</v>
       </c>
       <c r="G40" s="31">
-        <f>G34*Synthesis!$B$5</f>
+        <f>G34*Synthesis!$C$4</f>
         <v>3.0720000000000015E-2</v>
       </c>
       <c r="H40" s="86">
-        <f>H34*Synthesis!$B$5</f>
+        <f>H34*Synthesis!$C$4</f>
         <v>3.0720000000000015E-2</v>
       </c>
       <c r="I40" s="31">
-        <f>(Synthesis!$B$8^14+Synthesis!$B$8^4+1)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^14+Synthesis!$C$7^4+1)*Synthesis!$C$4^5</f>
         <v>1.2768074042659745E-2</v>
       </c>
     </row>
@@ -37378,15 +37312,15 @@
         <v>2</v>
       </c>
       <c r="G41" s="31">
-        <f>G35*Synthesis!$B$5</f>
+        <f>G35*Synthesis!$C$4</f>
         <v>4.0960000000000017E-2</v>
       </c>
       <c r="H41" s="86">
-        <f>H35*Synthesis!$B$5</f>
+        <f>H35*Synthesis!$C$4</f>
         <v>4.0960000000000017E-2</v>
       </c>
       <c r="I41" s="31">
-        <f>(Synthesis!$B$8^13+Synthesis!$B$8^5+Synthesis!$B$8)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^13+Synthesis!$C$7^5+Synthesis!$C$7)*Synthesis!$C$4^5</f>
         <v>8.9882511466567727E-3</v>
       </c>
     </row>
@@ -37417,15 +37351,15 @@
         <v>2</v>
       </c>
       <c r="G43" s="31">
-        <f>G37*Synthesis!$B$5</f>
+        <f>G37*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="H43" s="86">
-        <f>H37*Synthesis!$B$5</f>
+        <f>H37*Synthesis!$C$4</f>
         <v>0.32000000000000006</v>
       </c>
       <c r="I43" s="31">
-        <f>(Synthesis!$B$8^14+Synthesis!$B$8^2)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^14+Synthesis!$C$7^2)*Synthesis!$C$4^2</f>
         <v>7.94851569165584E-2</v>
       </c>
     </row>
@@ -37441,7 +37375,7 @@
       <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="108" t="s">
+      <c r="A45" s="105" t="s">
         <v>345</v>
       </c>
       <c r="B45" s="27"/>
@@ -37454,15 +37388,15 @@
         <v>3</v>
       </c>
       <c r="G45" s="31">
-        <f>G39*Synthesis!$B$5</f>
+        <f>G39*Synthesis!$C$4</f>
         <v>4.0960000000000015E-3</v>
       </c>
       <c r="H45" s="86">
-        <f>H39*Synthesis!$B$5</f>
+        <f>H39*Synthesis!$C$4</f>
         <v>4.0960000000000015E-3</v>
       </c>
       <c r="I45" s="31">
-        <f>(Synthesis!$B$8^15)*Synthesis!$B$5^6</f>
+        <f>(Synthesis!$C$7^15)*Synthesis!$C$4^6</f>
         <v>1.9446011944726515E-5</v>
       </c>
     </row>
@@ -37482,15 +37416,15 @@
         <v>3</v>
       </c>
       <c r="G46" s="31">
-        <f>G40*Synthesis!$B$5</f>
+        <f>G40*Synthesis!$C$4</f>
         <v>1.2288000000000007E-2</v>
       </c>
       <c r="H46" s="86">
-        <f>H40*Synthesis!$B$5</f>
+        <f>H40*Synthesis!$C$4</f>
         <v>1.2288000000000007E-2</v>
       </c>
       <c r="I46" s="31">
-        <f>(Synthesis!$B$8^16+Synthesis!$B$8^6+1)*Synthesis!$B$5^6</f>
+        <f>(Synthesis!$C$7^16+Synthesis!$C$7^6+1)*Synthesis!$C$4^6</f>
         <v>4.5915025123613113E-3</v>
       </c>
     </row>
@@ -37512,15 +37446,15 @@
         <v>3</v>
       </c>
       <c r="G47" s="31">
-        <f>G41*Synthesis!$B$5</f>
+        <f>G41*Synthesis!$C$4</f>
         <v>1.6384000000000006E-2</v>
       </c>
       <c r="H47" s="86">
-        <f>H41*Synthesis!$B$5</f>
+        <f>H41*Synthesis!$C$4</f>
         <v>1.6384000000000006E-2</v>
       </c>
       <c r="I47" s="31">
-        <f>(Synthesis!$B$8^17+Synthesis!$B$8^17+Synthesis!$B$8^7+1)*Synthesis!$B$5^6</f>
+        <f>(Synthesis!$C$7^17+Synthesis!$C$7^17+Synthesis!$C$7^7+1)*Synthesis!$C$4^6</f>
         <v>4.4523803045058343E-3</v>
       </c>
     </row>
@@ -37551,15 +37485,15 @@
         <v>3</v>
       </c>
       <c r="G49" s="31">
-        <f>G43*Synthesis!$B$5</f>
+        <f>G43*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="H49" s="86">
-        <f>H43*Synthesis!$B$5</f>
+        <f>H43*Synthesis!$C$4</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="I49" s="31">
-        <f>(Synthesis!$B$8^18+Synthesis!$B$8^2)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^18+Synthesis!$C$7^2)*Synthesis!$C$4^3</f>
         <v>3.1464218470266272E-2</v>
       </c>
     </row>
@@ -37730,7 +37664,7 @@
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="104" t="s">
         <v>359</v>
       </c>
       <c r="B8" s="27" t="str">
@@ -37755,7 +37689,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B9" s="27"/>
@@ -37805,12 +37739,12 @@
         <v>#REF!</v>
       </c>
       <c r="J10" s="30">
-        <f>Synthesis!$B$8+Synthesis!$B$8+1+1</f>
+        <f>Synthesis!$C$7+Synthesis!$C$7+1+1</f>
         <v>3.4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B11" s="27"/>
@@ -37824,15 +37758,15 @@
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="30">
-        <f>H9*Synthesis!$B$5</f>
+        <f>H9*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I11" s="90">
-        <f>I9*Synthesis!$B$5</f>
+        <f>I9*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="J11" s="30">
-        <f>(Synthesis!$B$8^2+Synthesis!$B$8)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2+Synthesis!$C$7)*Synthesis!$C$4</f>
         <v>0.47599999999999998</v>
       </c>
     </row>
@@ -37856,20 +37790,20 @@
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="30">
-        <f>H10*Synthesis!$B$5</f>
+        <f>H10*Synthesis!$C$4</f>
         <v>1.6</v>
       </c>
       <c r="I12" s="90" t="e">
-        <f>I10*Synthesis!$B$5</f>
+        <f>I10*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="J12" s="30">
-        <f>(Synthesis!$B$8^2+Synthesis!$B$8^3+Synthesis!$B$8+1)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^2+Synthesis!$C$7^3+Synthesis!$C$7+1)*Synthesis!$C$4</f>
         <v>1.0132000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B13" s="27"/>
@@ -37883,15 +37817,15 @@
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="30">
-        <f>H11*Synthesis!$B$5</f>
+        <f>H11*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I13" s="90">
-        <f>I11*Synthesis!$B$5</f>
+        <f>I11*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="J13" s="30">
-        <f>(Synthesis!$B$8^4)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4)*Synthesis!$C$4^2</f>
         <v>3.8415999999999999E-2</v>
       </c>
     </row>
@@ -37915,20 +37849,20 @@
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="30">
-        <f>H12*Synthesis!$B$5</f>
+        <f>H12*Synthesis!$C$4</f>
         <v>0.64000000000000012</v>
       </c>
       <c r="I14" s="90" t="e">
-        <f>I12*Synthesis!$B$5</f>
+        <f>I12*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="J14" s="30">
-        <f>(Synthesis!$B$8^4+Synthesis!$B$8^5+Synthesis!$B$8^2+1)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^4+Synthesis!$C$7^5+Synthesis!$C$7^2+1)*Synthesis!$C$4^2</f>
         <v>0.30370720000000007</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B15" s="27"/>
@@ -37942,15 +37876,15 @@
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="30">
-        <f>H13*Synthesis!$B$5</f>
+        <f>H13*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="I15" s="90">
-        <f>I13*Synthesis!$B$5</f>
+        <f>I13*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="J15" s="30">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4^3</f>
         <v>7.5295359999999981E-3</v>
       </c>
     </row>
@@ -37974,20 +37908,20 @@
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="30">
-        <f>H14*Synthesis!$B$5</f>
+        <f>H14*Synthesis!$C$4</f>
         <v>0.25600000000000006</v>
       </c>
       <c r="I16" s="90" t="e">
-        <f>I14*Synthesis!$B$5</f>
+        <f>I14*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="J16" s="30">
-        <f>(Synthesis!$B$8^4+Synthesis!$B$8^7+Synthesis!$B$8^3+1)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^4+Synthesis!$C$7^7+Synthesis!$C$7^3+1)*Synthesis!$C$4^3</f>
         <v>0.10658907520000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B17" s="27"/>
@@ -38001,15 +37935,15 @@
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="30">
-        <f>H15*Synthesis!$B$5</f>
+        <f>H15*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="I17" s="90">
-        <f>I15*Synthesis!$B$5</f>
+        <f>I15*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="J17" s="30">
-        <f>(Synthesis!$B$8^8)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^8)*Synthesis!$C$4^4</f>
         <v>1.4757890559999997E-3</v>
       </c>
     </row>
@@ -38033,15 +37967,15 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="30">
-        <f>H16*Synthesis!$B$5</f>
+        <f>H16*Synthesis!$C$4</f>
         <v>0.10240000000000003</v>
       </c>
       <c r="I18" s="90" t="e">
-        <f>I16*Synthesis!$B$5</f>
+        <f>I16*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="J18" s="30">
-        <f>(Synthesis!$B$8^5+Synthesis!$B$8^9+Synthesis!$B$8^4+1)*Synthesis!$B$5^4</f>
+        <f>(Synthesis!$C$7^5+Synthesis!$C$7^9+Synthesis!$C$7^4+1)*Synthesis!$C$4^4</f>
         <v>3.7082204339200009E-2</v>
       </c>
     </row>
@@ -38058,7 +37992,7 @@
       <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="104" t="s">
         <v>359</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -38072,20 +38006,20 @@
       <c r="F20" s="27"/>
       <c r="G20" s="21"/>
       <c r="H20" s="30">
-        <f>H8*Synthesis!$B$5</f>
+        <f>H8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="I20" s="90">
-        <f>I8*Synthesis!$B$5</f>
+        <f>I8*Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
       <c r="J20" s="30">
-        <f>(Synthesis!$B$8^6)*Synthesis!$B$5</f>
+        <f>(Synthesis!$C$7^6)*Synthesis!$C$4</f>
         <v>4.7059599999999979E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B21" s="27"/>
@@ -38099,15 +38033,15 @@
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="30">
-        <f>H17*Synthesis!$B$5</f>
+        <f>H17*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="I21" s="90">
-        <f>I17*Synthesis!$B$5</f>
+        <f>I17*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="J21" s="30">
-        <f>(Synthesis!$B$8^10)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^10)*Synthesis!$C$4^5</f>
         <v>2.8925465497599994E-4</v>
       </c>
     </row>
@@ -38131,20 +38065,20 @@
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="30">
-        <f>H18*Synthesis!$B$5</f>
+        <f>H18*Synthesis!$C$4</f>
         <v>4.0960000000000017E-2</v>
       </c>
       <c r="I22" s="90" t="e">
-        <f>I18*Synthesis!$B$5</f>
+        <f>I18*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="J22" s="30">
-        <f>(Synthesis!$B$8^7+Synthesis!$B$8^11+1+1)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^7+Synthesis!$C$7^11+1+1)*Synthesis!$C$4^5</f>
         <v>2.1525786290483215E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B23" s="27"/>
@@ -38158,15 +38092,15 @@
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="30">
-        <f>H21*Synthesis!$B$5</f>
+        <f>H21*Synthesis!$C$4</f>
         <v>4.0960000000000015E-3</v>
       </c>
       <c r="I23" s="90">
-        <f>I21*Synthesis!$B$5</f>
+        <f>I21*Synthesis!$C$4</f>
         <v>4.0960000000000015E-3</v>
       </c>
       <c r="J23" s="30">
-        <f>(Synthesis!$B$8^8+Synthesis!$B$8^12+Synthesis!$B$8)*Synthesis!$B$5^6</f>
+        <f>(Synthesis!$C$7^8+Synthesis!$C$7^12+Synthesis!$C$7)*Synthesis!$C$4^6</f>
         <v>3.1600201613352975E-3</v>
       </c>
     </row>
@@ -38190,15 +38124,15 @@
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="30">
-        <f>H22*Synthesis!$B$5</f>
+        <f>H22*Synthesis!$C$4</f>
         <v>1.6384000000000006E-2</v>
       </c>
       <c r="I24" s="90" t="e">
-        <f>I22*Synthesis!$B$5</f>
+        <f>I22*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="J24" s="30">
-        <f>(Synthesis!$B$8^8+Synthesis!$B$8^13+Synthesis!$B$8+1)*Synthesis!$B$5^5</f>
+        <f>(Synthesis!$C$7^8+Synthesis!$C$7^13+Synthesis!$C$7+1)*Synthesis!$C$4^5</f>
         <v>1.809752996905678E-2</v>
       </c>
     </row>
@@ -38225,7 +38159,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B26" s="27"/>
@@ -38239,15 +38173,15 @@
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="30">
-        <f>H23*Synthesis!$B$5</f>
+        <f>H23*Synthesis!$C$4</f>
         <v>1.6384000000000008E-3</v>
       </c>
       <c r="I26" s="90">
-        <f>I23*Synthesis!$B$5</f>
+        <f>I23*Synthesis!$C$4</f>
         <v>1.6384000000000008E-3</v>
       </c>
       <c r="J26" s="30">
-        <f>(Synthesis!$B$8^14)*Synthesis!$B$8^7</f>
+        <f>(Synthesis!$C$7^14)*Synthesis!$C$7^7</f>
         <v>5.5854586408328303E-4</v>
       </c>
     </row>
@@ -38271,20 +38205,20 @@
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="30">
-        <f>H24*Synthesis!$B$5</f>
+        <f>H24*Synthesis!$C$4</f>
         <v>6.5536000000000032E-3</v>
       </c>
       <c r="I27" s="90" t="e">
-        <f>I24*Synthesis!$B$5</f>
+        <f>I24*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="J27" s="30">
-        <f>(Synthesis!$B$8^9+Synthesis!$B$8^15+Synthesis!$B$8^2+1)*Synthesis!$B$5^7</f>
+        <f>(Synthesis!$C$7^9+Synthesis!$C$7^15+Synthesis!$C$7^2+1)*Synthesis!$C$4^7</f>
         <v>2.5151097544866925E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B28" s="27"/>
@@ -38298,15 +38232,15 @@
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="30">
-        <f>H26*Synthesis!$B$5</f>
+        <f>H26*Synthesis!$C$4</f>
         <v>6.5536000000000034E-4</v>
       </c>
       <c r="I28" s="90">
-        <f>I26*Synthesis!$B$5</f>
+        <f>I26*Synthesis!$C$4</f>
         <v>6.5536000000000034E-4</v>
       </c>
       <c r="J28" s="30">
-        <f>(Synthesis!$B$8^15)*Synthesis!$B$8^8</f>
+        <f>(Synthesis!$C$7^15)*Synthesis!$C$7^8</f>
         <v>2.7368747340080868E-4</v>
       </c>
     </row>
@@ -38330,20 +38264,20 @@
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="30">
-        <f>H27*Synthesis!$B$5</f>
+        <f>H27*Synthesis!$C$4</f>
         <v>2.6214400000000014E-3</v>
       </c>
       <c r="I29" s="90" t="e">
-        <f>I27*Synthesis!$B$5</f>
+        <f>I27*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="J29" s="30">
-        <f>(Synthesis!$B$8^10+Synthesis!$B$8^16+Synthesis!$B$8^3+1)*Synthesis!$B$5^8</f>
+        <f>(Synthesis!$C$7^10+Synthesis!$C$7^16+Synthesis!$C$7^3+1)*Synthesis!$C$4^8</f>
         <v>9.0083873125627412E-4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B30" s="27"/>
@@ -38357,15 +38291,15 @@
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="30">
-        <f>H28*Synthesis!$B$5</f>
+        <f>H28*Synthesis!$C$4</f>
         <v>2.6214400000000012E-4</v>
       </c>
       <c r="I30" s="90">
-        <f>I28*Synthesis!$B$5</f>
+        <f>I28*Synthesis!$C$4</f>
         <v>2.6214400000000012E-4</v>
       </c>
       <c r="J30" s="30">
-        <f>(Synthesis!$B$8^16)*Synthesis!$B$8^9</f>
+        <f>(Synthesis!$C$7^16)*Synthesis!$C$7^9</f>
         <v>1.3410686196639623E-4</v>
       </c>
     </row>
@@ -38389,15 +38323,15 @@
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="30">
-        <f>H29*Synthesis!$B$5</f>
+        <f>H29*Synthesis!$C$4</f>
         <v>1.0485760000000005E-3</v>
       </c>
       <c r="I31" s="90" t="e">
-        <f>I29*Synthesis!$B$5</f>
+        <f>I29*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
       <c r="J31" s="30">
-        <f>(Synthesis!$B$8^11+Synthesis!$B$8^17+Synthesis!$B$8^4+1)*Synthesis!$B$5^9</f>
+        <f>(Synthesis!$C$7^11+Synthesis!$C$7^17+Synthesis!$C$7^4+1)*Synthesis!$C$4^9</f>
         <v>3.3087804475175682E-4</v>
       </c>
     </row>
@@ -38414,7 +38348,7 @@
       <c r="J32" s="30"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="104" t="s">
         <v>359</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -38428,20 +38362,20 @@
       <c r="F33" s="27"/>
       <c r="G33" s="21"/>
       <c r="H33" s="30">
-        <f>H20*Synthesis!$B$5</f>
+        <f>H20*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="I33" s="90">
-        <f>I20*Synthesis!$B$5</f>
+        <f>I20*Synthesis!$C$4</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="J33" s="30">
-        <f>(Synthesis!$B$8^12)*Synthesis!$B$5^2</f>
+        <f>(Synthesis!$C$7^12)*Synthesis!$C$4^2</f>
         <v>2.2146059521599981E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B34" s="27"/>
@@ -38455,14 +38389,14 @@
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="30">
-        <f>H30*Synthesis!$B$5</f>
+        <f>H30*Synthesis!$C$4</f>
         <v>1.0485760000000006E-4</v>
       </c>
       <c r="I34" s="90">
-        <f>I30*Synthesis!$B$5</f>
+        <f>I30*Synthesis!$C$4</f>
         <v>1.0485760000000006E-4</v>
       </c>
-      <c r="J34" s="109">
+      <c r="J34" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38486,19 +38420,19 @@
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="30">
-        <f>H31*Synthesis!$B$5</f>
+        <f>H31*Synthesis!$C$4</f>
         <v>4.1943040000000023E-4</v>
       </c>
       <c r="I35" s="90" t="e">
-        <f>I31*Synthesis!$B$5</f>
+        <f>I31*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J35" s="109">
+      <c r="J35" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B36" s="27"/>
@@ -38512,14 +38446,14 @@
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="30">
-        <f>H34*Synthesis!$B$5</f>
+        <f>H34*Synthesis!$C$4</f>
         <v>4.1943040000000025E-5</v>
       </c>
       <c r="I36" s="90">
-        <f>I34*Synthesis!$B$5</f>
+        <f>I34*Synthesis!$C$4</f>
         <v>4.1943040000000025E-5</v>
       </c>
-      <c r="J36" s="109">
+      <c r="J36" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38543,19 +38477,19 @@
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="30">
-        <f>H35*Synthesis!$B$5</f>
+        <f>H35*Synthesis!$C$4</f>
         <v>1.677721600000001E-4</v>
       </c>
       <c r="I37" s="90" t="e">
-        <f>I35*Synthesis!$B$5</f>
+        <f>I35*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J37" s="109">
+      <c r="J37" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B38" s="27"/>
@@ -38569,14 +38503,14 @@
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="30">
-        <f>H36*Synthesis!$B$5</f>
+        <f>H36*Synthesis!$C$4</f>
         <v>1.677721600000001E-5</v>
       </c>
       <c r="I38" s="90">
-        <f>I36*Synthesis!$B$5</f>
+        <f>I36*Synthesis!$C$4</f>
         <v>1.677721600000001E-5</v>
       </c>
-      <c r="J38" s="109">
+      <c r="J38" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38600,19 +38534,19 @@
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="30">
-        <f>H37*Synthesis!$B$5</f>
+        <f>H37*Synthesis!$C$4</f>
         <v>6.7108864000000039E-5</v>
       </c>
       <c r="I39" s="90" t="e">
-        <f>I37*Synthesis!$B$5</f>
+        <f>I37*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J39" s="109">
+      <c r="J39" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B40" s="27"/>
@@ -38626,14 +38560,14 @@
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="30">
-        <f>H38*Synthesis!$B$5</f>
+        <f>H38*Synthesis!$C$4</f>
         <v>6.7108864000000044E-6</v>
       </c>
       <c r="I40" s="90">
-        <f>I38*Synthesis!$B$5</f>
+        <f>I38*Synthesis!$C$4</f>
         <v>6.7108864000000044E-6</v>
       </c>
-      <c r="J40" s="109">
+      <c r="J40" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38657,19 +38591,19 @@
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="30">
-        <f>H39*Synthesis!$B$5</f>
+        <f>H39*Synthesis!$C$4</f>
         <v>2.6843545600000018E-5</v>
       </c>
       <c r="I41" s="90" t="e">
-        <f>I39*Synthesis!$B$5</f>
+        <f>I39*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J41" s="109">
+      <c r="J41" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B42" s="27"/>
@@ -38683,14 +38617,14 @@
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="30">
-        <f>H40*Synthesis!$B$5</f>
+        <f>H40*Synthesis!$C$4</f>
         <v>2.6843545600000021E-6</v>
       </c>
       <c r="I42" s="90">
-        <f>I40*Synthesis!$B$5</f>
+        <f>I40*Synthesis!$C$4</f>
         <v>2.6843545600000021E-6</v>
       </c>
-      <c r="J42" s="109">
+      <c r="J42" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38714,14 +38648,14 @@
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="30">
-        <f>H41*Synthesis!$B$5</f>
+        <f>H41*Synthesis!$C$4</f>
         <v>1.0737418240000008E-5</v>
       </c>
       <c r="I43" s="90" t="e">
-        <f>I41*Synthesis!$B$5</f>
+        <f>I41*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J43" s="109">
+      <c r="J43" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38738,7 +38672,7 @@
       <c r="J44" s="30"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="107" t="s">
+      <c r="A45" s="104" t="s">
         <v>359</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -38752,20 +38686,20 @@
       <c r="F45" s="27"/>
       <c r="G45" s="21"/>
       <c r="H45" s="30">
-        <f>H33*Synthesis!$B$5</f>
+        <f>H33*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="I45" s="90">
-        <f>I33*Synthesis!$B$5</f>
+        <f>I33*Synthesis!$C$4</f>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="J45" s="30">
-        <f>(Synthesis!$B$8^18)*Synthesis!$B$5^3</f>
+        <f>(Synthesis!$C$7^18)*Synthesis!$C$4^3</f>
         <v>1.0421847026626862E-4</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B46" s="27"/>
@@ -38779,14 +38713,14 @@
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="30">
-        <f>H42*Synthesis!$B$5</f>
+        <f>H42*Synthesis!$C$4</f>
         <v>1.0737418240000009E-6</v>
       </c>
       <c r="I46" s="90">
-        <f>I42*Synthesis!$B$5</f>
+        <f>I42*Synthesis!$C$4</f>
         <v>1.0737418240000009E-6</v>
       </c>
-      <c r="J46" s="109">
+      <c r="J46" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38810,19 +38744,19 @@
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="30">
-        <f>H43*Synthesis!$B$5</f>
+        <f>H43*Synthesis!$C$4</f>
         <v>4.2949672960000037E-6</v>
       </c>
       <c r="I47" s="90" t="e">
-        <f>I43*Synthesis!$B$5</f>
+        <f>I43*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J47" s="109">
+      <c r="J47" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B48" s="27"/>
@@ -38836,14 +38770,14 @@
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="30">
-        <f>H46*Synthesis!$B$5</f>
+        <f>H46*Synthesis!$C$4</f>
         <v>4.2949672960000041E-7</v>
       </c>
       <c r="I48" s="90">
-        <f>I46*Synthesis!$B$5</f>
+        <f>I46*Synthesis!$C$4</f>
         <v>4.2949672960000041E-7</v>
       </c>
-      <c r="J48" s="109">
+      <c r="J48" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38867,19 +38801,19 @@
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="30">
-        <f>H47*Synthesis!$B$5</f>
+        <f>H47*Synthesis!$C$4</f>
         <v>1.7179869184000017E-6</v>
       </c>
       <c r="I49" s="90" t="e">
-        <f>I47*Synthesis!$B$5</f>
+        <f>I47*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J49" s="109">
+      <c r="J49" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="108" t="s">
+      <c r="A50" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B50" s="27"/>
@@ -38893,14 +38827,14 @@
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="30">
-        <f>H48*Synthesis!$B$5</f>
+        <f>H48*Synthesis!$C$4</f>
         <v>1.7179869184000017E-7</v>
       </c>
       <c r="I50" s="90">
-        <f>I48*Synthesis!$B$5</f>
+        <f>I48*Synthesis!$C$4</f>
         <v>1.7179869184000017E-7</v>
       </c>
-      <c r="J50" s="109">
+      <c r="J50" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38924,19 +38858,19 @@
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="30">
-        <f>H49*Synthesis!$B$5</f>
+        <f>H49*Synthesis!$C$4</f>
         <v>6.8719476736000068E-7</v>
       </c>
       <c r="I51" s="90" t="e">
-        <f>I49*Synthesis!$B$5</f>
+        <f>I49*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J51" s="109">
+      <c r="J51" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B52" s="27"/>
@@ -38950,14 +38884,14 @@
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="30">
-        <f>H50*Synthesis!$B$5</f>
+        <f>H50*Synthesis!$C$4</f>
         <v>6.8719476736000071E-8</v>
       </c>
       <c r="I52" s="90">
-        <f>I50*Synthesis!$B$5</f>
+        <f>I50*Synthesis!$C$4</f>
         <v>6.8719476736000071E-8</v>
       </c>
-      <c r="J52" s="109">
+      <c r="J52" s="106">
         <v>0</v>
       </c>
     </row>
@@ -38981,19 +38915,19 @@
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="30">
-        <f>H51*Synthesis!$B$5</f>
+        <f>H51*Synthesis!$C$4</f>
         <v>2.7487790694400028E-7</v>
       </c>
       <c r="I53" s="90" t="e">
-        <f>I51*Synthesis!$B$5</f>
+        <f>I51*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J53" s="109">
+      <c r="J53" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B54" s="27"/>
@@ -39007,14 +38941,14 @@
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="30">
-        <f>H52*Synthesis!$B$5</f>
+        <f>H52*Synthesis!$C$4</f>
         <v>2.7487790694400029E-8</v>
       </c>
       <c r="I54" s="90">
-        <f>I52*Synthesis!$B$5</f>
+        <f>I52*Synthesis!$C$4</f>
         <v>2.7487790694400029E-8</v>
       </c>
-      <c r="J54" s="109">
+      <c r="J54" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39038,14 +38972,14 @@
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="30">
-        <f>H53*Synthesis!$B$5</f>
+        <f>H53*Synthesis!$C$4</f>
         <v>1.0995116277760012E-7</v>
       </c>
       <c r="I55" s="90" t="e">
-        <f>I53*Synthesis!$B$5</f>
+        <f>I53*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J55" s="109">
+      <c r="J55" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39059,10 +38993,10 @@
       <c r="G56" s="21"/>
       <c r="H56" s="30"/>
       <c r="I56" s="90"/>
-      <c r="J56" s="109"/>
+      <c r="J56" s="106"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="107" t="s">
+      <c r="A57" s="104" t="s">
         <v>359</v>
       </c>
       <c r="B57" s="27"/>
@@ -39074,19 +39008,19 @@
       <c r="F57" s="27"/>
       <c r="G57" s="21"/>
       <c r="H57" s="30">
-        <f>H45*Synthesis!$B$5</f>
+        <f>H45*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
       <c r="I57" s="90">
-        <f>I45*Synthesis!$B$5</f>
+        <f>I45*Synthesis!$C$4</f>
         <v>2.5600000000000008E-2</v>
       </c>
-      <c r="J57" s="109">
+      <c r="J57" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B58" s="27"/>
@@ -39100,14 +39034,14 @@
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="30">
-        <f>H54*Synthesis!$B$5</f>
+        <f>H54*Synthesis!$C$4</f>
         <v>1.0995116277760013E-8</v>
       </c>
       <c r="I58" s="90">
-        <f>I54*Synthesis!$B$5</f>
+        <f>I54*Synthesis!$C$4</f>
         <v>1.0995116277760013E-8</v>
       </c>
-      <c r="J58" s="109">
+      <c r="J58" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39131,19 +39065,19 @@
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="30">
-        <f>H55*Synthesis!$B$5</f>
+        <f>H55*Synthesis!$C$4</f>
         <v>4.3980465111040051E-8</v>
       </c>
       <c r="I59" s="90" t="e">
-        <f>I55*Synthesis!$B$5</f>
+        <f>I55*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J59" s="109">
+      <c r="J59" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B60" s="27"/>
@@ -39157,14 +39091,14 @@
       </c>
       <c r="G60" s="21"/>
       <c r="H60" s="30">
-        <f>H58*Synthesis!$B$5</f>
+        <f>H58*Synthesis!$C$4</f>
         <v>4.3980465111040054E-9</v>
       </c>
       <c r="I60" s="90">
-        <f>I58*Synthesis!$B$5</f>
+        <f>I58*Synthesis!$C$4</f>
         <v>4.3980465111040054E-9</v>
       </c>
-      <c r="J60" s="109">
+      <c r="J60" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39188,14 +39122,14 @@
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="30">
-        <f>H59*Synthesis!$B$5</f>
+        <f>H59*Synthesis!$C$4</f>
         <v>1.7592186044416022E-8</v>
       </c>
       <c r="I61" s="90" t="e">
-        <f>I59*Synthesis!$B$5</f>
+        <f>I59*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J61" s="109">
+      <c r="J61" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39220,12 +39154,12 @@
         <v>0.5</v>
       </c>
       <c r="J62" s="58">
-        <f>Synthesis!$B$5</f>
+        <f>Synthesis!$C$4</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B63" s="27"/>
@@ -39239,14 +39173,14 @@
       </c>
       <c r="G63" s="21"/>
       <c r="H63" s="30">
-        <f>H60*Synthesis!$B$5</f>
+        <f>H60*Synthesis!$C$4</f>
         <v>1.7592186044416022E-9</v>
       </c>
       <c r="I63" s="90">
-        <f>I60*Synthesis!$B$5</f>
+        <f>I60*Synthesis!$C$4</f>
         <v>1.7592186044416022E-9</v>
       </c>
-      <c r="J63" s="109">
+      <c r="J63" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39270,19 +39204,19 @@
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="30">
-        <f>H61*Synthesis!$B$5</f>
+        <f>H61*Synthesis!$C$4</f>
         <v>7.0368744177664086E-9</v>
       </c>
       <c r="I64" s="90" t="e">
-        <f>I61*Synthesis!$B$5</f>
+        <f>I61*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J64" s="109">
+      <c r="J64" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B65" s="27"/>
@@ -39296,14 +39230,14 @@
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="30">
-        <f>H63*Synthesis!$B$5</f>
+        <f>H63*Synthesis!$C$4</f>
         <v>7.036874417766409E-10</v>
       </c>
       <c r="I65" s="90">
-        <f>I63*Synthesis!$B$5</f>
+        <f>I63*Synthesis!$C$4</f>
         <v>7.036874417766409E-10</v>
       </c>
-      <c r="J65" s="109">
+      <c r="J65" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39327,19 +39261,19 @@
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="30">
-        <f>H64*Synthesis!$B$5</f>
+        <f>H64*Synthesis!$C$4</f>
         <v>2.8147497671065636E-9</v>
       </c>
       <c r="I66" s="90" t="e">
-        <f>I64*Synthesis!$B$5</f>
+        <f>I64*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J66" s="109">
+      <c r="J66" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="108" t="s">
+      <c r="A67" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B67" s="27"/>
@@ -39353,14 +39287,14 @@
       </c>
       <c r="G67" s="21"/>
       <c r="H67" s="30">
-        <f>H65*Synthesis!$B$5</f>
+        <f>H65*Synthesis!$C$4</f>
         <v>2.8147497671065639E-10</v>
       </c>
       <c r="I67" s="90">
-        <f>I65*Synthesis!$B$5</f>
+        <f>I65*Synthesis!$C$4</f>
         <v>2.8147497671065639E-10</v>
       </c>
-      <c r="J67" s="109">
+      <c r="J67" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39384,14 +39318,14 @@
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="30">
-        <f>H66*Synthesis!$B$5</f>
+        <f>H66*Synthesis!$C$4</f>
         <v>1.1258999068426256E-9</v>
       </c>
       <c r="I68" s="90" t="e">
-        <f>I66*Synthesis!$B$5</f>
+        <f>I66*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J68" s="109">
+      <c r="J68" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39405,10 +39339,10 @@
       <c r="G69" s="21"/>
       <c r="H69" s="30"/>
       <c r="I69" s="90"/>
-      <c r="J69" s="109"/>
+      <c r="J69" s="106"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="107" t="s">
+      <c r="A70" s="104" t="s">
         <v>359</v>
       </c>
       <c r="B70" s="27"/>
@@ -39420,19 +39354,19 @@
       <c r="F70" s="27"/>
       <c r="G70" s="21"/>
       <c r="H70" s="30">
-        <f>H57*Synthesis!$B$5</f>
+        <f>H57*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
       <c r="I70" s="90">
-        <f>I57*Synthesis!$B$5</f>
+        <f>I57*Synthesis!$C$4</f>
         <v>1.0240000000000004E-2</v>
       </c>
-      <c r="J70" s="109">
+      <c r="J70" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="108" t="s">
+      <c r="A71" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B71" s="27"/>
@@ -39446,14 +39380,14 @@
       </c>
       <c r="G71" s="21"/>
       <c r="H71" s="30">
-        <f>H67*Synthesis!$B$5</f>
+        <f>H67*Synthesis!$C$4</f>
         <v>1.1258999068426256E-10</v>
       </c>
       <c r="I71" s="90">
-        <f>I67*Synthesis!$B$5</f>
+        <f>I67*Synthesis!$C$4</f>
         <v>1.1258999068426256E-10</v>
       </c>
-      <c r="J71" s="109">
+      <c r="J71" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39477,19 +39411,19 @@
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="30">
-        <f>H68*Synthesis!$B$5</f>
+        <f>H68*Synthesis!$C$4</f>
         <v>4.5035996273705024E-10</v>
       </c>
       <c r="I72" s="90" t="e">
-        <f>I68*Synthesis!$B$5</f>
+        <f>I68*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J72" s="109">
+      <c r="J72" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B73" s="27"/>
@@ -39503,14 +39437,14 @@
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="30">
-        <f>H71*Synthesis!$B$5</f>
+        <f>H71*Synthesis!$C$4</f>
         <v>4.5035996273705026E-11</v>
       </c>
       <c r="I73" s="90">
-        <f>I71*Synthesis!$B$5</f>
+        <f>I71*Synthesis!$C$4</f>
         <v>4.5035996273705026E-11</v>
       </c>
-      <c r="J73" s="109">
+      <c r="J73" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39534,19 +39468,19 @@
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="30">
-        <f>H72*Synthesis!$B$5</f>
+        <f>H72*Synthesis!$C$4</f>
         <v>1.8014398509482011E-10</v>
       </c>
       <c r="I74" s="90" t="e">
-        <f>I72*Synthesis!$B$5</f>
+        <f>I72*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J74" s="109">
+      <c r="J74" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B75" s="27"/>
@@ -39560,14 +39494,14 @@
       </c>
       <c r="G75" s="21"/>
       <c r="H75" s="30">
-        <f>H73*Synthesis!$B$5</f>
+        <f>H73*Synthesis!$C$4</f>
         <v>1.8014398509482011E-11</v>
       </c>
       <c r="I75" s="90">
-        <f>I73*Synthesis!$B$5</f>
+        <f>I73*Synthesis!$C$4</f>
         <v>1.8014398509482011E-11</v>
       </c>
-      <c r="J75" s="109">
+      <c r="J75" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39591,19 +39525,19 @@
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="30">
-        <f>H74*Synthesis!$B$5</f>
+        <f>H74*Synthesis!$C$4</f>
         <v>7.2057594037928042E-11</v>
       </c>
       <c r="I76" s="90" t="e">
-        <f>I74*Synthesis!$B$5</f>
+        <f>I74*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J76" s="109">
+      <c r="J76" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="108" t="s">
+      <c r="A77" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B77" s="27"/>
@@ -39617,14 +39551,14 @@
       </c>
       <c r="G77" s="21"/>
       <c r="H77" s="30">
-        <f>H75*Synthesis!$B$5</f>
+        <f>H75*Synthesis!$C$4</f>
         <v>7.2057594037928047E-12</v>
       </c>
       <c r="I77" s="90">
-        <f>I75*Synthesis!$B$5</f>
+        <f>I75*Synthesis!$C$4</f>
         <v>7.2057594037928047E-12</v>
       </c>
-      <c r="J77" s="109">
+      <c r="J77" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39648,19 +39582,19 @@
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="30">
-        <f>H76*Synthesis!$B$5</f>
+        <f>H76*Synthesis!$C$4</f>
         <v>2.8823037615171219E-11</v>
       </c>
       <c r="I78" s="90" t="e">
-        <f>I76*Synthesis!$B$5</f>
+        <f>I76*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J78" s="109">
+      <c r="J78" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="108" t="s">
+      <c r="A79" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B79" s="27"/>
@@ -39674,14 +39608,14 @@
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="30">
-        <f>H77*Synthesis!$B$5</f>
+        <f>H77*Synthesis!$C$4</f>
         <v>2.8823037615171221E-12</v>
       </c>
       <c r="I79" s="90">
-        <f>I77*Synthesis!$B$5</f>
+        <f>I77*Synthesis!$C$4</f>
         <v>2.8823037615171221E-12</v>
       </c>
-      <c r="J79" s="109">
+      <c r="J79" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39705,14 +39639,14 @@
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="30">
-        <f>H78*Synthesis!$B$5</f>
+        <f>H78*Synthesis!$C$4</f>
         <v>1.1529215046068488E-11</v>
       </c>
       <c r="I80" s="90" t="e">
-        <f>I78*Synthesis!$B$5</f>
+        <f>I78*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J80" s="109">
+      <c r="J80" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39726,10 +39660,10 @@
       <c r="G81" s="21"/>
       <c r="H81" s="30"/>
       <c r="I81" s="90"/>
-      <c r="J81" s="109"/>
+      <c r="J81" s="106"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="107" t="s">
+      <c r="A82" s="104" t="s">
         <v>359</v>
       </c>
       <c r="B82" s="27"/>
@@ -39741,19 +39675,19 @@
       <c r="F82" s="27"/>
       <c r="G82" s="21"/>
       <c r="H82" s="30">
-        <f>H70*Synthesis!$B$5</f>
+        <f>H70*Synthesis!$C$4</f>
         <v>4.0960000000000015E-3</v>
       </c>
       <c r="I82" s="90">
-        <f>I70*Synthesis!$B$5</f>
+        <f>I70*Synthesis!$C$4</f>
         <v>4.0960000000000015E-3</v>
       </c>
-      <c r="J82" s="109">
+      <c r="J82" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B83" s="27"/>
@@ -39767,14 +39701,14 @@
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="30">
-        <f>H79*Synthesis!$B$5</f>
+        <f>H79*Synthesis!$C$4</f>
         <v>1.1529215046068489E-12</v>
       </c>
       <c r="I83" s="90">
-        <f>I79*Synthesis!$B$5</f>
+        <f>I79*Synthesis!$C$4</f>
         <v>1.1529215046068489E-12</v>
       </c>
-      <c r="J83" s="109">
+      <c r="J83" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39798,19 +39732,19 @@
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="30">
-        <f>H80*Synthesis!$B$5</f>
+        <f>H80*Synthesis!$C$4</f>
         <v>4.6116860184273956E-12</v>
       </c>
       <c r="I84" s="90" t="e">
-        <f>I80*Synthesis!$B$5</f>
+        <f>I80*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J84" s="109">
+      <c r="J84" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="108" t="s">
+      <c r="A85" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B85" s="27"/>
@@ -39824,14 +39758,14 @@
       </c>
       <c r="G85" s="21"/>
       <c r="H85" s="30">
-        <f>H83*Synthesis!$B$5</f>
+        <f>H83*Synthesis!$C$4</f>
         <v>4.6116860184273954E-13</v>
       </c>
       <c r="I85" s="90">
-        <f>I83*Synthesis!$B$5</f>
+        <f>I83*Synthesis!$C$4</f>
         <v>4.6116860184273954E-13</v>
       </c>
-      <c r="J85" s="109">
+      <c r="J85" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39855,19 +39789,19 @@
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="30">
-        <f>H84*Synthesis!$B$5</f>
+        <f>H84*Synthesis!$C$4</f>
         <v>1.8446744073709581E-12</v>
       </c>
       <c r="I86" s="90" t="e">
-        <f>I84*Synthesis!$B$5</f>
+        <f>I84*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J86" s="109">
+      <c r="J86" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="108" t="s">
+      <c r="A87" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B87" s="27"/>
@@ -39881,14 +39815,14 @@
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="30">
-        <f>H85*Synthesis!$B$5</f>
+        <f>H85*Synthesis!$C$4</f>
         <v>1.8446744073709583E-13</v>
       </c>
       <c r="I87" s="90">
-        <f>I85*Synthesis!$B$5</f>
+        <f>I85*Synthesis!$C$4</f>
         <v>1.8446744073709583E-13</v>
       </c>
-      <c r="J87" s="109">
+      <c r="J87" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39912,19 +39846,19 @@
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="30">
-        <f>H86*Synthesis!$B$5</f>
+        <f>H86*Synthesis!$C$4</f>
         <v>7.3786976294838332E-13</v>
       </c>
       <c r="I88" s="90" t="e">
-        <f>I86*Synthesis!$B$5</f>
+        <f>I86*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J88" s="109">
+      <c r="J88" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="108" t="s">
+      <c r="A89" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B89" s="27"/>
@@ -39938,14 +39872,14 @@
       </c>
       <c r="G89" s="21"/>
       <c r="H89" s="30">
-        <f>H87*Synthesis!$B$5</f>
+        <f>H87*Synthesis!$C$4</f>
         <v>7.3786976294838337E-14</v>
       </c>
       <c r="I89" s="90">
-        <f>I87*Synthesis!$B$5</f>
+        <f>I87*Synthesis!$C$4</f>
         <v>7.3786976294838337E-14</v>
       </c>
-      <c r="J89" s="109">
+      <c r="J89" s="106">
         <v>0</v>
       </c>
     </row>
@@ -39969,19 +39903,19 @@
       </c>
       <c r="G90" s="21"/>
       <c r="H90" s="30">
-        <f>H88*Synthesis!$B$5</f>
+        <f>H88*Synthesis!$C$4</f>
         <v>2.9514790517935335E-13</v>
       </c>
       <c r="I90" s="90" t="e">
-        <f>I88*Synthesis!$B$5</f>
+        <f>I88*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J90" s="109">
+      <c r="J90" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B91" s="27"/>
@@ -39995,14 +39929,14 @@
       </c>
       <c r="G91" s="21"/>
       <c r="H91" s="30">
-        <f>H89*Synthesis!$B$5</f>
+        <f>H89*Synthesis!$C$4</f>
         <v>2.9514790517935337E-14</v>
       </c>
       <c r="I91" s="90">
-        <f>I89*Synthesis!$B$5</f>
+        <f>I89*Synthesis!$C$4</f>
         <v>2.9514790517935337E-14</v>
       </c>
-      <c r="J91" s="109">
+      <c r="J91" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40026,14 +39960,14 @@
       </c>
       <c r="G92" s="21"/>
       <c r="H92" s="30">
-        <f>H90*Synthesis!$B$5</f>
+        <f>H90*Synthesis!$C$4</f>
         <v>1.1805916207174135E-13</v>
       </c>
       <c r="I92" s="90" t="e">
-        <f>I90*Synthesis!$B$5</f>
+        <f>I90*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J92" s="109">
+      <c r="J92" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40050,15 +39984,15 @@
       <c r="F93" s="27"/>
       <c r="G93" s="21"/>
       <c r="H93" s="30">
-        <f>H62*Synthesis!$B$5</f>
+        <f>H62*Synthesis!$C$4</f>
         <v>0.2</v>
       </c>
       <c r="I93" s="90">
-        <f>I62*Synthesis!$B$5</f>
+        <f>I62*Synthesis!$C$4</f>
         <v>0.2</v>
       </c>
       <c r="J93" s="58">
-        <f>Synthesis!$B$8^2</f>
+        <f>Synthesis!$C$7^2</f>
         <v>0.48999999999999994</v>
       </c>
     </row>
@@ -40072,10 +40006,10 @@
       <c r="G94" s="21"/>
       <c r="H94" s="30"/>
       <c r="I94" s="90"/>
-      <c r="J94" s="109"/>
+      <c r="J94" s="106"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="107" t="s">
+      <c r="A95" s="104" t="s">
         <v>359</v>
       </c>
       <c r="B95" s="27"/>
@@ -40087,19 +40021,19 @@
       <c r="F95" s="27"/>
       <c r="G95" s="21"/>
       <c r="H95" s="30">
-        <f>H82*Synthesis!$B$5</f>
+        <f>H82*Synthesis!$C$4</f>
         <v>1.6384000000000008E-3</v>
       </c>
       <c r="I95" s="90">
-        <f>I82*Synthesis!$B$5</f>
+        <f>I82*Synthesis!$C$4</f>
         <v>1.6384000000000008E-3</v>
       </c>
-      <c r="J95" s="109">
+      <c r="J95" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="108" t="s">
+      <c r="A96" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B96" s="27"/>
@@ -40113,14 +40047,14 @@
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="30">
-        <f>H91*Synthesis!$B$5</f>
+        <f>H91*Synthesis!$C$4</f>
         <v>1.1805916207174135E-14</v>
       </c>
       <c r="I96" s="90">
-        <f>I91*Synthesis!$B$5</f>
+        <f>I91*Synthesis!$C$4</f>
         <v>1.1805916207174135E-14</v>
       </c>
-      <c r="J96" s="109">
+      <c r="J96" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40144,19 +40078,19 @@
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="30">
-        <f>H92*Synthesis!$B$5</f>
+        <f>H92*Synthesis!$C$4</f>
         <v>4.7223664828696541E-14</v>
       </c>
       <c r="I97" s="90" t="e">
-        <f>I92*Synthesis!$B$5</f>
+        <f>I92*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J97" s="109">
+      <c r="J97" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="108" t="s">
+      <c r="A98" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B98" s="27"/>
@@ -40170,14 +40104,14 @@
       </c>
       <c r="G98" s="21"/>
       <c r="H98" s="30">
-        <f>H96*Synthesis!$B$5</f>
+        <f>H96*Synthesis!$C$4</f>
         <v>4.7223664828696544E-15</v>
       </c>
       <c r="I98" s="90">
-        <f>I96*Synthesis!$B$5</f>
+        <f>I96*Synthesis!$C$4</f>
         <v>4.7223664828696544E-15</v>
       </c>
-      <c r="J98" s="109">
+      <c r="J98" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40201,19 +40135,19 @@
       </c>
       <c r="G99" s="21"/>
       <c r="H99" s="30">
-        <f>H97*Synthesis!$B$5</f>
+        <f>H97*Synthesis!$C$4</f>
         <v>1.8889465931478618E-14</v>
       </c>
       <c r="I99" s="90" t="e">
-        <f>I97*Synthesis!$B$5</f>
+        <f>I97*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J99" s="109">
+      <c r="J99" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="108" t="s">
+      <c r="A100" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B100" s="27"/>
@@ -40227,14 +40161,14 @@
       </c>
       <c r="G100" s="21"/>
       <c r="H100" s="30">
-        <f>H98*Synthesis!$B$5</f>
+        <f>H98*Synthesis!$C$4</f>
         <v>1.8889465931478618E-15</v>
       </c>
       <c r="I100" s="90">
-        <f>I98*Synthesis!$B$5</f>
+        <f>I98*Synthesis!$C$4</f>
         <v>1.8889465931478618E-15</v>
       </c>
-      <c r="J100" s="109">
+      <c r="J100" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40258,19 +40192,19 @@
       </c>
       <c r="G101" s="21"/>
       <c r="H101" s="30">
-        <f>H99*Synthesis!$B$5</f>
+        <f>H99*Synthesis!$C$4</f>
         <v>7.555786372591447E-15</v>
       </c>
       <c r="I101" s="90" t="e">
-        <f>I99*Synthesis!$B$5</f>
+        <f>I99*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J101" s="109">
+      <c r="J101" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B102" s="27"/>
@@ -40284,14 +40218,14 @@
       </c>
       <c r="G102" s="21"/>
       <c r="H102" s="30">
-        <f>H100*Synthesis!$B$5</f>
+        <f>H100*Synthesis!$C$4</f>
         <v>7.5557863725914478E-16</v>
       </c>
       <c r="I102" s="90">
-        <f>I100*Synthesis!$B$5</f>
+        <f>I100*Synthesis!$C$4</f>
         <v>7.5557863725914478E-16</v>
       </c>
-      <c r="J102" s="109">
+      <c r="J102" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40315,19 +40249,19 @@
       </c>
       <c r="G103" s="21"/>
       <c r="H103" s="30">
-        <f>H101*Synthesis!$B$5</f>
+        <f>H101*Synthesis!$C$4</f>
         <v>3.0223145490365791E-15</v>
       </c>
       <c r="I103" s="90" t="e">
-        <f>I101*Synthesis!$B$5</f>
+        <f>I101*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J103" s="109">
+      <c r="J103" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="108" t="s">
+      <c r="A104" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B104" s="27"/>
@@ -40341,14 +40275,14 @@
       </c>
       <c r="G104" s="21"/>
       <c r="H104" s="30">
-        <f>H102*Synthesis!$B$5</f>
+        <f>H102*Synthesis!$C$4</f>
         <v>3.0223145490365791E-16</v>
       </c>
       <c r="I104" s="90">
-        <f>I102*Synthesis!$B$5</f>
+        <f>I102*Synthesis!$C$4</f>
         <v>3.0223145490365791E-16</v>
       </c>
-      <c r="J104" s="109">
+      <c r="J104" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40372,14 +40306,14 @@
       </c>
       <c r="G105" s="21"/>
       <c r="H105" s="30">
-        <f>H103*Synthesis!$B$5</f>
+        <f>H103*Synthesis!$C$4</f>
         <v>1.2089258196146317E-15</v>
       </c>
       <c r="I105" s="90" t="e">
-        <f>I103*Synthesis!$B$5</f>
+        <f>I103*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J105" s="109">
+      <c r="J105" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40393,10 +40327,10 @@
       <c r="G106" s="21"/>
       <c r="H106" s="30"/>
       <c r="I106" s="90"/>
-      <c r="J106" s="109"/>
+      <c r="J106" s="106"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="107" t="s">
+      <c r="A107" s="104" t="s">
         <v>359</v>
       </c>
       <c r="B107" s="27"/>
@@ -40408,19 +40342,19 @@
       <c r="F107" s="27"/>
       <c r="G107" s="21"/>
       <c r="H107" s="30">
-        <f>H95*Synthesis!$B$5</f>
+        <f>H95*Synthesis!$C$4</f>
         <v>6.5536000000000034E-4</v>
       </c>
       <c r="I107" s="90">
-        <f>I95*Synthesis!$B$5</f>
+        <f>I95*Synthesis!$C$4</f>
         <v>6.5536000000000034E-4</v>
       </c>
-      <c r="J107" s="109">
+      <c r="J107" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="108" t="s">
+      <c r="A108" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B108" s="27"/>
@@ -40434,14 +40368,14 @@
       </c>
       <c r="G108" s="21"/>
       <c r="H108" s="30">
-        <f>H104*Synthesis!$B$5</f>
+        <f>H104*Synthesis!$C$4</f>
         <v>1.2089258196146318E-16</v>
       </c>
       <c r="I108" s="90">
-        <f>I104*Synthesis!$B$5</f>
+        <f>I104*Synthesis!$C$4</f>
         <v>1.2089258196146318E-16</v>
       </c>
-      <c r="J108" s="109">
+      <c r="J108" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40465,19 +40399,19 @@
       </c>
       <c r="G109" s="21"/>
       <c r="H109" s="30">
-        <f>H105*Synthesis!$B$5</f>
+        <f>H105*Synthesis!$C$4</f>
         <v>4.8357032784585272E-16</v>
       </c>
       <c r="I109" s="90" t="e">
-        <f>I105*Synthesis!$B$5</f>
+        <f>I105*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J109" s="109">
+      <c r="J109" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="108" t="s">
+      <c r="A110" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B110" s="27"/>
@@ -40491,14 +40425,14 @@
       </c>
       <c r="G110" s="21"/>
       <c r="H110" s="30">
-        <f>H108*Synthesis!$B$5</f>
+        <f>H108*Synthesis!$C$4</f>
         <v>4.8357032784585272E-17</v>
       </c>
       <c r="I110" s="90">
-        <f>I108*Synthesis!$B$5</f>
+        <f>I108*Synthesis!$C$4</f>
         <v>4.8357032784585272E-17</v>
       </c>
-      <c r="J110" s="109">
+      <c r="J110" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40522,19 +40456,19 @@
       </c>
       <c r="G111" s="21"/>
       <c r="H111" s="30">
-        <f>H109*Synthesis!$B$5</f>
+        <f>H109*Synthesis!$C$4</f>
         <v>1.9342813113834109E-16</v>
       </c>
       <c r="I111" s="90" t="e">
-        <f>I109*Synthesis!$B$5</f>
+        <f>I109*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J111" s="109">
+      <c r="J111" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="108" t="s">
+      <c r="A112" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B112" s="27"/>
@@ -40548,14 +40482,14 @@
       </c>
       <c r="G112" s="21"/>
       <c r="H112" s="30">
-        <f>H110*Synthesis!$B$5</f>
+        <f>H110*Synthesis!$C$4</f>
         <v>1.9342813113834111E-17</v>
       </c>
       <c r="I112" s="90">
-        <f>I110*Synthesis!$B$5</f>
+        <f>I110*Synthesis!$C$4</f>
         <v>1.9342813113834111E-17</v>
       </c>
-      <c r="J112" s="109">
+      <c r="J112" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40579,19 +40513,19 @@
       </c>
       <c r="G113" s="21"/>
       <c r="H113" s="30">
-        <f>H111*Synthesis!$B$5</f>
+        <f>H111*Synthesis!$C$4</f>
         <v>7.7371252455336443E-17</v>
       </c>
       <c r="I113" s="90" t="e">
-        <f>I111*Synthesis!$B$5</f>
+        <f>I111*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J113" s="109">
+      <c r="J113" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="108" t="s">
+      <c r="A114" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B114" s="27"/>
@@ -40605,14 +40539,14 @@
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="30">
-        <f>H112*Synthesis!$B$5</f>
+        <f>H112*Synthesis!$C$4</f>
         <v>7.7371252455336443E-18</v>
       </c>
       <c r="I114" s="90">
-        <f>I112*Synthesis!$B$5</f>
+        <f>I112*Synthesis!$C$4</f>
         <v>7.7371252455336443E-18</v>
       </c>
-      <c r="J114" s="109">
+      <c r="J114" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40636,19 +40570,19 @@
       </c>
       <c r="G115" s="21"/>
       <c r="H115" s="30">
-        <f>H113*Synthesis!$B$5</f>
+        <f>H113*Synthesis!$C$4</f>
         <v>3.0948500982134577E-17</v>
       </c>
       <c r="I115" s="90" t="e">
-        <f>I113*Synthesis!$B$5</f>
+        <f>I113*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J115" s="109">
+      <c r="J115" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="108" t="s">
+      <c r="A116" s="105" t="s">
         <v>360</v>
       </c>
       <c r="B116" s="27"/>
@@ -40662,14 +40596,14 @@
       </c>
       <c r="G116" s="21"/>
       <c r="H116" s="30">
-        <f>H114*Synthesis!$B$5</f>
+        <f>H114*Synthesis!$C$4</f>
         <v>3.0948500982134579E-18</v>
       </c>
       <c r="I116" s="90">
-        <f>I114*Synthesis!$B$5</f>
+        <f>I114*Synthesis!$C$4</f>
         <v>3.0948500982134579E-18</v>
       </c>
-      <c r="J116" s="109">
+      <c r="J116" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40693,14 +40627,14 @@
       </c>
       <c r="G117" s="21"/>
       <c r="H117" s="30">
-        <f>H115*Synthesis!$B$5</f>
+        <f>H115*Synthesis!$C$4</f>
         <v>1.2379400392853831E-17</v>
       </c>
       <c r="I117" s="90" t="e">
-        <f>I115*Synthesis!$B$5</f>
+        <f>I115*Synthesis!$C$4</f>
         <v>#REF!</v>
       </c>
-      <c r="J117" s="109">
+      <c r="J117" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40714,7 +40648,7 @@
       <c r="G118" s="21"/>
       <c r="H118" s="30"/>
       <c r="I118" s="90"/>
-      <c r="J118" s="109">
+      <c r="J118" s="106">
         <v>0</v>
       </c>
     </row>
@@ -40730,7 +40664,7 @@
       <c r="G119" s="21"/>
       <c r="H119" s="30"/>
       <c r="I119" s="90"/>
-      <c r="J119" s="109">
+      <c r="J119" s="106">
         <v>0</v>
       </c>
     </row>

--- a/dataset-cpx.xlsx
+++ b/dataset-cpx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/Documents/these/studies/cpx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1069429-2E78-C344-97BC-11D7FFFEFC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A5CBF6-416E-F543-9D1E-75E5B083B173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{E3999CCB-9ED0-3445-84E9-42CD1661CA3C}"/>
+    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{E3999CCB-9ED0-3445-84E9-42CD1661CA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil37!$B$7:$C$42</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">siegmund2012!$C$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">siegmund2012!$C$4:$C$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">siegmund2012!$G$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">siegmund2012!$G$4:$G$22</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">siegmund2012!$C$3</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">siegmund2012!$C$4:$C$22</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">siegmund2012!$G$3</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">siegmund2012!$G$4:$G$22</definedName>
     <definedName name="xdata1" hidden="1">#REF!</definedName>
     <definedName name="xdata2" hidden="1">#REF!</definedName>
     <definedName name="xdata3" hidden="1">#REF!</definedName>
@@ -149,8 +157,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="509">
   <si>
     <t>snippet_id</t>
   </si>
@@ -6187,6 +6217,9 @@
   </si>
   <si>
     <t>dyn2</t>
+  </si>
+  <si>
+    <t>Linear regression line</t>
   </si>
 </sst>
 </file>
@@ -6363,7 +6396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6421,6 +6454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6555,7 +6594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6775,6 +6814,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7508,6 +7553,1014 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>dyn2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>siegmund2012!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dyn2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>siegmund2012!$G$4:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.8948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7837939390651911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3121798400000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.704923999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7900520000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6073685280000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8864000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1806567180919743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0659999999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8332000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4130162525952006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6915907722453642</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4580000000000011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1128912</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7813413250560011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>siegmund2012!$C$4:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>68.014414634146334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.26741463414632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.64156097560979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211.48453658536584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.510951219512179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.048609756097534</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.82602439024393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.420853658536572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.585804878048783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.473780487804873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.81002439024391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.425292682926823</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.394707317073163</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.50239024390244</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.988414634146352</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>145.23982926829271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.621829268292686</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.939219512195123</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.500707317073157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92CD-5241-A85C-4FD114D62F15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1828947583"/>
+        <c:axId val="1518830015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1828947583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1518830015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1518830015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828947583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peitek2021!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dyn 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-847A-994B-A457-CD471C709299}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-847A-994B-A457-CD471C709299}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-847A-994B-A457-CD471C709299}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-847A-994B-A457-CD471C709299}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-847A-994B-A457-CD471C709299}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-847A-994B-A457-CD471C709299}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>peitek2021!$C$4:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>peitek2021!$F$4:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>11.744000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.183487999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.699563093333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2889600000000012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3591999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4496000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.368000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-847A-994B-A457-CD471C709299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="572206560"/>
+        <c:axId val="572188096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="572206560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572188096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="572188096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572206560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:overlay val="0"/>
@@ -7913,7 +8966,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8331,7 +9384,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8985,7 +10038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{217A56BC-66ED-8E46-A962-686851683D40}" type="CELLRANGE">
+                    <a:fld id="{2F39DA6A-E70F-004D-A8E4-455A9706DC17}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9018,7 +10071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29F726E1-919A-CC40-A8CE-839BC5B9E7DB}" type="CELLRANGE">
+                    <a:fld id="{51348929-3CE8-904D-8782-246BF01051EB}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9051,7 +10104,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F4BDB46-738C-864A-8D31-7983B663811E}" type="CELLRANGE">
+                    <a:fld id="{812BA8D4-10F9-2246-8E72-BC438B869F21}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9084,7 +10137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19B902FD-A5C0-0340-B7A5-386CC680DB09}" type="CELLRANGE">
+                    <a:fld id="{F0F3FBDB-20E5-CE41-9CD9-9F6DA2B6A509}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9117,7 +10170,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51F2BA61-F0AD-E846-9023-351540B12AA9}" type="CELLRANGE">
+                    <a:fld id="{9FBD59BC-295E-6A45-A49E-7BFDB16F6541}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9150,7 +10203,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF8EE59F-DF8B-814F-AB88-C272EADF37B9}" type="CELLRANGE">
+                    <a:fld id="{C7E10F74-FF33-5F4E-A291-CBF4B32EFF9B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9183,7 +10236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D881C090-EF1E-3243-BC3E-1D190F82F211}" type="CELLRANGE">
+                    <a:fld id="{3DE4E1CA-077C-C740-A9D1-D4630E9A6A2B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9216,7 +10269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD2D226D-7BF0-BF4F-AFCF-38DE8E5A6BFD}" type="CELLRANGE">
+                    <a:fld id="{3E324EC8-9509-9142-A4DF-178DE429EA5A}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9249,7 +10302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{272DEF72-8819-2042-9526-DD0904C1FE84}" type="CELLRANGE">
+                    <a:fld id="{3A1387D7-EFB1-054E-AACF-929E55FC7FBD}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9282,7 +10335,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11E39833-98EA-6F41-A150-0A38C61ECA75}" type="CELLRANGE">
+                    <a:fld id="{847C2912-4AE9-2B4A-8612-651823491E89}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9315,7 +10368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E36AA6C-BD00-F14A-B325-6767E2835DC8}" type="CELLRANGE">
+                    <a:fld id="{A1824833-361C-0043-950A-3A2A1D29199D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9348,7 +10401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77BC205A-7F17-3B40-926B-7375F6B8D13D}" type="CELLRANGE">
+                    <a:fld id="{E6A36DEE-156F-3C46-8796-44474D28D323}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9381,7 +10434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96865374-F17C-0F48-B4EB-988F91AF19B4}" type="CELLRANGE">
+                    <a:fld id="{6279345F-23FB-EC4F-AB0B-E32FA94A3D88}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9414,7 +10467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51B6B16A-3980-764F-A805-08C618A6A68F}" type="CELLRANGE">
+                    <a:fld id="{3084130C-DCF6-F246-B0CC-B0BE97F0A1C5}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9447,7 +10500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D47D70F-D2CE-9F4B-ABEF-3CEE95BB2C63}" type="CELLRANGE">
+                    <a:fld id="{F1842C9B-B8B9-3747-A93C-1FD3834DDB66}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9480,7 +10533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CE404CA-C2CF-A44B-BA5B-0B2866BFF3EA}" type="CELLRANGE">
+                    <a:fld id="{4DD2E44E-D086-E042-9596-A11826EB5F63}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9513,7 +10566,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E00FFDCD-2067-8647-8D41-8B9BF9E22CA9}" type="CELLRANGE">
+                    <a:fld id="{99165BB0-3594-4840-828C-49DA02FD464F}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9546,7 +10599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C458C524-0560-E34E-BA43-171667EA6075}" type="CELLRANGE">
+                    <a:fld id="{C697E4E9-7030-E847-9A41-B68DA8656610}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9579,7 +10632,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4814A77-C47D-664D-B168-B8898DCD4180}" type="CELLRANGE">
+                    <a:fld id="{44DCBF68-1548-F04E-B0E7-EB1A600AFDC0}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9612,7 +10665,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DBF22F93-FD5E-104B-B3DA-E128B61A0B3B}" type="CELLRANGE">
+                    <a:fld id="{4A0650A8-834E-2543-AA9A-8673BB3F5FC1}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9645,7 +10698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A303A353-FCC0-944C-A58A-A0DB8F39775B}" type="CELLRANGE">
+                    <a:fld id="{93F49A16-9BFA-6547-B498-DA637D6C51CB}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9678,7 +10731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F400C187-677C-944B-8ABB-8DFF20743D62}" type="CELLRANGE">
+                    <a:fld id="{E9385C19-D00E-5C46-A844-228595570F8C}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9711,7 +10764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DD04408-4654-A741-A2CD-F54FA8B8307B}" type="CELLRANGE">
+                    <a:fld id="{54E06FA0-E2D3-5C4D-AEBD-0F6C3D52159E}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -12892,8 +13945,34 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>sonarqube</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12934,17 +14013,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>peitek2021!$F$3</c:f>
+              <c:f>siegmund2012!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dyn 1</c:v>
+                  <c:v>sonarqube</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -12965,150 +14044,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-847A-994B-A457-CD471C709299}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-847A-994B-A457-CD471C709299}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:ln w="12700">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-847A-994B-A457-CD471C709299}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-847A-994B-A457-CD471C709299}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-847A-994B-A457-CD471C709299}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000018-847A-994B-A457-CD471C709299}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -13123,131 +14058,134 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>peitek2021!$C$4:$C$19</c:f>
+              <c:f>siegmund2012!$D$4:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>41.24</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.33</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.95</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.869999999999997</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.82</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.78</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.52</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.869999999999997</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.65</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.979999999999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.74</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.83</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.05</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>peitek2021!$F$4:$F$19</c:f>
+              <c:f>siegmund2012!$C$4:$C$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>11.744000000000002</c:v>
+                  <c:v>68.014414634146334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.183487999999997</c:v>
+                  <c:v>100.26741463414632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.699563093333332</c:v>
+                  <c:v>154.64156097560979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>211.48453658536584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.360000000000001</c:v>
+                  <c:v>70.510951219512179</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.160000000000004</c:v>
+                  <c:v>66.048609756097534</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>104.82602439024393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8000000000000007</c:v>
+                  <c:v>65.420853658536572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2889600000000012</c:v>
+                  <c:v>42.585804878048783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.36</c:v>
+                  <c:v>65.473780487804873</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3591999999999995</c:v>
+                  <c:v>59.81002439024391</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9640000000000004</c:v>
+                  <c:v>37.425292682926823</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4496000000000002</c:v>
+                  <c:v>48.394707317073163</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.4600000000000009</c:v>
+                  <c:v>20.50239024390244</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.368000000000004</c:v>
+                  <c:v>99.988414634146352</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>145.23982926829271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.621829268292686</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.939219512195123</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.500707317073157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13255,7 +14193,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-847A-994B-A457-CD471C709299}"/>
+              <c16:uniqueId val="{00000000-92CD-5241-A85C-4FD114D62F15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13267,17 +14205,79 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="572206560"/>
-        <c:axId val="572188096"/>
+        <c:axId val="1828947583"/>
+        <c:axId val="1518830015"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="572206560"/>
+        <c:axId val="1828947583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1518830015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1518830015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -13329,69 +14329,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572188096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="572188096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="572206560"/>
+        <c:crossAx val="1828947583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13406,6 +14344,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13561,6 +14500,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15456,6 +16475,1038 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20399,6 +22450,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89370</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>492242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>545630</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4127499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F70887-67EA-EE4E-8696-6E6B17E51B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>492242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>204612</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4139259</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12568C6-CA78-7846-B537-178B755DA014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20852,6 +22975,578 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A7" dT="2021-07-11T11:22:41.13" personId="{A4C9A5BD-8491-454E-A1E9-D85386424885}" id="{6AC9C0CF-436C-2D4D-8C21-20009B6E65B2}">
@@ -33042,10 +35737,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B752191-782E-EA48-B322-664FAB9CF9B3}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="B1:H53"/>
+  <dimension ref="B1:AH53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33058,10 +35753,12 @@
     <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="4.1640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19">
+    <row r="1" spans="2:34" ht="19">
       <c r="B1" s="106" t="s">
         <v>474</v>
       </c>
@@ -33071,7 +35768,14 @@
       <c r="F1" s="106"/>
       <c r="G1" s="106"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="2" spans="2:34">
+      <c r="T2" s="121" t="s">
+        <v>508</v>
+      </c>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+    </row>
+    <row r="3" spans="2:34">
       <c r="B3" s="72" t="s">
         <v>502</v>
       </c>
@@ -33093,8 +35797,55 @@
         <v>dyn2</v>
       </c>
       <c r="H3" s="99"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="T3" s="1" t="str">
+        <f>D3</f>
+        <v>sonarqube</v>
+      </c>
+      <c r="U3" s="1" cm="1">
+        <f t="array" ref="U3:V3">LINEST(D4:D22,C4:C22)</f>
+        <v>2.4558162269338261E-2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.68727428091925669</v>
+      </c>
+      <c r="X3" s="14" t="str">
+        <f>D3</f>
+        <v>sonarqube</v>
+      </c>
+      <c r="Y3" s="14" t="str">
+        <f>E3</f>
+        <v>genese_cpx</v>
+      </c>
+      <c r="Z3" s="14" t="str">
+        <f>F3</f>
+        <v>dyn1</v>
+      </c>
+      <c r="AA3" s="14" t="str">
+        <f>G3</f>
+        <v>dyn2</v>
+      </c>
+      <c r="AC3" s="14" t="str">
+        <f>D3</f>
+        <v>sonarqube</v>
+      </c>
+      <c r="AD3" s="14" t="str">
+        <f>E3</f>
+        <v>genese_cpx</v>
+      </c>
+      <c r="AE3" s="14" t="str">
+        <f>F3</f>
+        <v>dyn1</v>
+      </c>
+      <c r="AF3" s="14" t="str">
+        <f>G3</f>
+        <v>dyn2</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>STDEV(X4:X22)</f>
+        <v>25.675427112967437</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34">
       <c r="B4" s="37">
         <v>1</v>
       </c>
@@ -33116,8 +35867,51 @@
         <v>4.8948</v>
       </c>
       <c r="H4" s="99"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="T4" s="1" t="str">
+        <f>E3</f>
+        <v>genese_cpx</v>
+      </c>
+      <c r="U4" s="1" cm="1">
+        <f t="array" ref="U4:V4">LINEST(E4:E22,C4:C22)</f>
+        <v>5.5463678990432835E-2</v>
+      </c>
+      <c r="V4" s="1">
+        <v>6.7027076730524611</v>
+      </c>
+      <c r="X4" s="1">
+        <f>$D4*$U$10+$V$10</f>
+        <v>61.416918832752614</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>E4*$U$11+$V$11</f>
+        <v>58.202273239029132</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>F4*$U$12+$V$12</f>
+        <v>51.752996067965306</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>G4*$U$13+$V$13</f>
+        <v>58.230202971233552</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>ABS($C4-X4)</f>
+        <v>6.5974958013937197</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" ref="AD4:AF19" si="0">ABS($C4-Y4)</f>
+        <v>9.8121413951172016</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" si="0"/>
+        <v>16.261418566181028</v>
+      </c>
+      <c r="AF4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7842116629127815</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34">
       <c r="B5" s="37">
         <v>2</v>
       </c>
@@ -33139,8 +35933,51 @@
         <v>7.7837939390651911</v>
       </c>
       <c r="H5" s="99"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="T5" s="1" t="str">
+        <f>F3</f>
+        <v>dyn1</v>
+      </c>
+      <c r="U5" s="1" cm="1">
+        <f t="array" ref="U5:V5">LINEST(F4:F22,C4:C22)</f>
+        <v>7.6128649226312323E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1.4159069751836109</v>
+      </c>
+      <c r="X5" s="1">
+        <f>$D5*$U$10+$V$10</f>
+        <v>112.1775137456446</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>E5*$U$11+$V$11</f>
+        <v>121.17951911274326</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>F5*$U$12+$V$12</f>
+        <v>113.07798598541521</v>
+      </c>
+      <c r="AA5" s="1">
+        <f>G5*$U$13+$V$13</f>
+        <v>114.54182119618963</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" ref="AC5:AC22" si="1">ABS($C5-X5)</f>
+        <v>11.910099111498283</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="0"/>
+        <v>20.912104478596945</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="0"/>
+        <v>12.810571351268891</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="0"/>
+        <v>14.27440656204331</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34">
       <c r="B6" s="37">
         <v>4</v>
       </c>
@@ -33162,8 +35999,51 @@
         <v>9.3121798400000007</v>
       </c>
       <c r="H6" s="99"/>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="T6" s="1" t="str">
+        <f>G3</f>
+        <v>dyn2</v>
+      </c>
+      <c r="U6" s="1" cm="1">
+        <f t="array" ref="U6:V6">LINEST(G4:G22,C4:C22)</f>
+        <v>4.4544978836098509E-2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2.4714422904012738</v>
+      </c>
+      <c r="X6" s="1">
+        <f>$D6*$U$10+$V$10</f>
+        <v>137.55781120209062</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>E6*$U$11+$V$11</f>
+        <v>106.13185859424519</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>F6*$U$12+$V$12</f>
+        <v>162.09344766569455</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>G6*$U$13+$V$13</f>
+        <v>144.33277443775143</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="1"/>
+        <v>17.083749773519173</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="0"/>
+        <v>48.509702381364605</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4518866900847627</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="0"/>
+        <v>10.308786537858367</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34">
       <c r="B7" s="37">
         <v>5</v>
       </c>
@@ -33185,8 +36065,40 @@
         <v>11.704923999999998</v>
       </c>
       <c r="H7" s="99"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="X7" s="1">
+        <f>$D7*$U$10+$V$10</f>
+        <v>112.1775137456446</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>E7*$U$11+$V$11</f>
+        <v>100.00133023485711</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>F7*$U$12+$V$12</f>
+        <v>189.67856056512687</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>G7*$U$13+$V$13</f>
+        <v>190.97160390220904</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="1"/>
+        <v>99.307022839721242</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="0"/>
+        <v>111.48320635050874</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>21.805976020238973</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="0"/>
+        <v>20.512932683156805</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34">
       <c r="B8" s="37">
         <v>6</v>
       </c>
@@ -33208,8 +36120,40 @@
         <v>4.7900520000000002</v>
       </c>
       <c r="H8" s="99"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="X8" s="1">
+        <f>$D8*$U$10+$V$10</f>
+        <v>61.416918832752614</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>E8*$U$11+$V$11</f>
+        <v>59.87423551886225</v>
+      </c>
+      <c r="Z8" s="1">
+        <f>F8*$U$12+$V$12</f>
+        <v>53.723361275067617</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>G8*$U$13+$V$13</f>
+        <v>56.18847858196871</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0940323867595652</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="0"/>
+        <v>10.63671570064993</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="0"/>
+        <v>16.787589944444562</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="0"/>
+        <v>14.32247263754347</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34">
       <c r="B9" s="37">
         <v>7</v>
       </c>
@@ -33231,8 +36175,45 @@
         <v>6.6073685280000003</v>
       </c>
       <c r="H9" s="99"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="T9" s="121" t="s">
+        <v>508</v>
+      </c>
+      <c r="U9" s="121"/>
+      <c r="V9" s="121"/>
+      <c r="X9" s="1">
+        <f>$D9*$U$10+$V$10</f>
+        <v>86.797216289198616</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>E9*$U$11+$V$11</f>
+        <v>73.249933757527202</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>F9*$U$12+$V$12</f>
+        <v>98.54916973664514</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>G9*$U$13+$V$13</f>
+        <v>91.611202435710055</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="1"/>
+        <v>20.748606533101082</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2013240014296684</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="0"/>
+        <v>32.500559980547607</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="0"/>
+        <v>25.562592679612521</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34">
       <c r="B10" s="103">
         <v>8</v>
       </c>
@@ -33254,8 +36235,51 @@
         <v>6.8864000000000001</v>
       </c>
       <c r="H10" s="99"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="T10" s="1" t="str">
+        <f>T3</f>
+        <v>sonarqube</v>
+      </c>
+      <c r="U10" s="1" cm="1">
+        <f t="array" ref="U10:V10">LINEST(C4:C22,D4:D22)</f>
+        <v>12.690148728222999</v>
+      </c>
+      <c r="V10" s="1">
+        <v>48.726770104529614</v>
+      </c>
+      <c r="X10" s="1">
+        <f>$D10*$U$10+$V$10</f>
+        <v>61.416918832752614</v>
+      </c>
+      <c r="Y10" s="1">
+        <f>E10*$U$11+$V$11</f>
+        <v>61.546197798695374</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>F10*$U$12+$V$12</f>
+        <v>90.175117606460319</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>G10*$U$13+$V$13</f>
+        <v>97.050020950191168</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" si="1"/>
+        <v>43.409105557491316</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" si="0"/>
+        <v>43.279826591548556</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="0"/>
+        <v>14.650906783783611</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7760034400527616</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34">
       <c r="B11" s="103">
         <v>9</v>
       </c>
@@ -33277,8 +36301,51 @@
         <v>5.1806567180919743</v>
       </c>
       <c r="H11" s="99"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="T11" s="1" t="str">
+        <f t="shared" ref="T11:T13" si="2">T4</f>
+        <v>genese_cpx</v>
+      </c>
+      <c r="U11" s="1" cm="1">
+        <f t="array" ref="U11:V11">LINEST(C4:C22,E4:E22)</f>
+        <v>5.5732075994437276</v>
+      </c>
+      <c r="V11" s="1">
+        <v>20.304461562811788</v>
+      </c>
+      <c r="X11" s="1">
+        <f>$D11*$U$10+$V$10</f>
+        <v>86.797216289198616</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>E11*$U$11+$V$11</f>
+        <v>69.906009197860968</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>F11*$U$12+$V$12</f>
+        <v>78.96262041061054</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>G11*$U$13+$V$13</f>
+        <v>63.802057643051512</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="1"/>
+        <v>21.376362630662044</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4851555393243956</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="0"/>
+        <v>13.541766752073968</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.61879601548506</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34">
       <c r="B12" s="103">
         <v>10</v>
       </c>
@@ -33300,8 +36367,51 @@
         <v>6.0659999999999989</v>
       </c>
       <c r="H12" s="99"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="T12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dyn1</v>
+      </c>
+      <c r="U12" s="1" cm="1">
+        <f t="array" ref="U12:V12">LINEST(C4:C22,F4:F22)</f>
+        <v>10.262318786991187</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3.7253441448465452</v>
+      </c>
+      <c r="X12" s="1">
+        <f>$D12*$U$10+$V$10</f>
+        <v>124.8676624738676</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>E12*$U$11+$V$11</f>
+        <v>113.37702847352205</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>F12*$U$12+$V$12</f>
+        <v>96.086213227767232</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>G12*$U$13+$V$13</f>
+        <v>81.058969197862965</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="1"/>
+        <v>82.281857595818821</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="0"/>
+        <v>70.791223595473269</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="0"/>
+        <v>53.500408349718448</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="0"/>
+        <v>38.473164319814181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34">
       <c r="B13" s="103">
         <v>11</v>
       </c>
@@ -33323,8 +36433,51 @@
         <v>4.976</v>
       </c>
       <c r="H13" s="99"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="T13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dyn2</v>
+      </c>
+      <c r="U13" s="1" cm="1">
+        <f t="array" ref="U13:V13">LINEST(C4:C22,G4:G22)</f>
+        <v>19.491774442135785</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-37.178134568132691</v>
+      </c>
+      <c r="X13" s="1">
+        <f>$D13*$U$10+$V$10</f>
+        <v>61.416918832752614</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>E13*$U$11+$V$11</f>
+        <v>61.546197798695374</v>
+      </c>
+      <c r="Z13" s="1">
+        <f>F13*$U$12+$V$12</f>
+        <v>71.456648138988385</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>G13*$U$13+$V$13</f>
+        <v>59.812935055934972</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0568616550522592</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9275826891094994</v>
+      </c>
+      <c r="AE13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9828676511835113</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6608454318699017</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34">
       <c r="B14" s="103">
         <v>12</v>
       </c>
@@ -33346,8 +36499,40 @@
         <v>4.8332000000000006</v>
       </c>
       <c r="H14" s="99"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="X14" s="1">
+        <f>$D14*$U$10+$V$10</f>
+        <v>86.797216289198616</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>E14*$U$11+$V$11</f>
+        <v>98.329367955023969</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>F14*$U$12+$V$12</f>
+        <v>61.194329351997197</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>G14*$U$13+$V$13</f>
+        <v>57.029509665597999</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="1"/>
+        <v>26.987191898954705</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="0"/>
+        <v>38.519343564780058</v>
+      </c>
+      <c r="AE14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.384304961753287</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7805147246459114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34">
       <c r="B15" s="103">
         <v>13</v>
       </c>
@@ -33369,8 +36554,40 @@
         <v>3</v>
       </c>
       <c r="H15" s="99"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="X15" s="1">
+        <f>$D15*$U$10+$V$10</f>
+        <v>48.726770104529614</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>E15*$U$11+$V$11</f>
+        <v>53.743707159474155</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>F15*$U$12+$V$12</f>
+        <v>34.512300505820107</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>G15*$U$13+$V$13</f>
+        <v>21.297188758274665</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="1"/>
+        <v>11.30147742160279</v>
+      </c>
+      <c r="AD15" s="1">
+        <f t="shared" si="0"/>
+        <v>16.318414476547332</v>
+      </c>
+      <c r="AE15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.912992177106716</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="0"/>
+        <v>16.128103924652159</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34">
       <c r="B16" s="103">
         <v>14</v>
       </c>
@@ -33392,8 +36609,40 @@
         <v>5.4130162525952006</v>
       </c>
       <c r="H16" s="99"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="X16" s="1">
+        <f>$D16*$U$10+$V$10</f>
+        <v>61.416918832752614</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>E16*$U$11+$V$11</f>
+        <v>73.249933757527202</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>F16*$U$12+$V$12</f>
+        <v>54.511507357908535</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>G16*$U$13+$V$13</f>
+        <v>68.331157279068066</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="1"/>
+        <v>13.022211515679452</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="0"/>
+        <v>24.85522644045404</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" si="0"/>
+        <v>6.116800040835372</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="0"/>
+        <v>19.936449961994903</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32">
       <c r="B17" s="103">
         <v>16</v>
       </c>
@@ -33415,8 +36664,40 @@
         <v>2</v>
       </c>
       <c r="H17" s="99"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="X17" s="1">
+        <f>$D17*$U$10+$V$10</f>
+        <v>48.726770104529614</v>
+      </c>
+      <c r="Y17" s="1">
+        <f>E17*$U$11+$V$11</f>
+        <v>51.514424119696656</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>F17*$U$12+$V$12</f>
+        <v>24.24998171882892</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>G17*$U$13+$V$13</f>
+        <v>1.8054143161388794</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="1"/>
+        <v>28.224379860627174</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="0"/>
+        <v>31.012033875794216</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7475914749264803</v>
+      </c>
+      <c r="AF17" s="1">
+        <f t="shared" si="0"/>
+        <v>18.69697592776356</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32">
       <c r="B18" s="103">
         <v>17</v>
       </c>
@@ -33438,8 +36719,40 @@
         <v>7.1000000000000005</v>
       </c>
       <c r="H18" s="99"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="X18" s="1">
+        <f>$D18*$U$10+$V$10</f>
+        <v>99.48736501742161</v>
+      </c>
+      <c r="Y18" s="1">
+        <f>E18*$U$11+$V$11</f>
+        <v>110.59042467380016</v>
+      </c>
+      <c r="Z18" s="1">
+        <f>F18*$U$12+$V$12</f>
+        <v>65.299256866793669</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>G18*$U$13+$V$13</f>
+        <v>101.21346397103139</v>
+      </c>
+      <c r="AC18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50104961672474246</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" si="0"/>
+        <v>10.602010039653806</v>
+      </c>
+      <c r="AE18" s="1">
+        <f t="shared" si="0"/>
+        <v>34.689157767352683</v>
+      </c>
+      <c r="AF18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2250493368850357</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32">
       <c r="B19" s="103">
         <v>19</v>
       </c>
@@ -33461,8 +36774,40 @@
         <v>8.6915907722453642</v>
       </c>
       <c r="H19" s="99"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="X19" s="1">
+        <f>$D19*$U$10+$V$10</f>
+        <v>86.797216289198616</v>
+      </c>
+      <c r="Y19" s="1">
+        <f>E19*$U$11+$V$11</f>
+        <v>139.0137834309632</v>
+      </c>
+      <c r="Z19" s="1">
+        <f>F19*$U$12+$V$12</f>
+        <v>116.08542007985569</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>G19*$U$13+$V$13</f>
+        <v>132.23639230782274</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="1"/>
+        <v>58.442612979094093</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="0"/>
+        <v>6.226045837329508</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="0"/>
+        <v>29.154409188437015</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="0"/>
+        <v>13.003436960469969</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32">
       <c r="B20" s="103">
         <v>20</v>
       </c>
@@ -33484,8 +36829,40 @@
         <v>6.4580000000000011</v>
       </c>
       <c r="H20" s="99"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="X20" s="1">
+        <f>$D20*$U$10+$V$10</f>
+        <v>99.48736501742161</v>
+      </c>
+      <c r="Y20" s="1">
+        <f>E20*$U$11+$V$11</f>
+        <v>74.921896037360312</v>
+      </c>
+      <c r="Z20" s="1">
+        <f>F20*$U$12+$V$12</f>
+        <v>81.144277073908071</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>G20*$U$13+$V$13</f>
+        <v>88.699744779180236</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="1"/>
+        <v>18.865535749128924</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" ref="AD20:AD22" si="3">ABS($C20-Y20)</f>
+        <v>5.6999332309323734</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" ref="AE20:AE22" si="4">ABS($C20-Z20)</f>
+        <v>0.52244780561538562</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" ref="AF20:AF22" si="5">ABS($C20-AA20)</f>
+        <v>8.07791551088755</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32">
       <c r="B21" s="103">
         <v>21</v>
       </c>
@@ -33507,8 +36884,40 @@
         <v>6.1128912</v>
       </c>
       <c r="H21" s="102"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="X21" s="1">
+        <f>$D21*$U$10+$V$10</f>
+        <v>74.107067560975608</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>E21*$U$11+$V$11</f>
+        <v>85.510990476303391</v>
+      </c>
+      <c r="Z21" s="1">
+        <f>F21*$U$12+$V$12</f>
+        <v>71.702943789876173</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>G21*$U$13+$V$13</f>
+        <v>81.972961891584063</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="1"/>
+        <v>15.832151951219515</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4282290358917322</v>
+      </c>
+      <c r="AE21" s="1">
+        <f t="shared" si="4"/>
+        <v>18.23627572231895</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="5"/>
+        <v>7.96625762061106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32">
       <c r="B22" s="37">
         <v>23</v>
       </c>
@@ -33530,8 +36939,40 @@
         <v>5.7813413250560011</v>
       </c>
       <c r="H22" s="102"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="X22" s="1">
+        <f>$D22*$U$10+$V$10</f>
+        <v>74.107067560975608</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>E22*$U$11+$V$11</f>
+        <v>73.807254517471563</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>F22*$U$12+$V$12</f>
+        <v>71.440228428929203</v>
+      </c>
+      <c r="AA22" s="1">
+        <f>G22*$U$13+$V$13</f>
+        <v>75.510466512857306</v>
+      </c>
+      <c r="AC22" s="1">
+        <f t="shared" si="1"/>
+        <v>19.606360243902451</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="3"/>
+        <v>19.306547200398406</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="4"/>
+        <v>16.939521111856045</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="5"/>
+        <v>21.009759195784149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32">
       <c r="C23" s="74" t="s">
         <v>326</v>
       </c>
@@ -33552,8 +36993,24 @@
         <v>0.93180506545250352</v>
       </c>
       <c r="H23" s="99"/>
-    </row>
-    <row r="24" spans="2:8" hidden="1">
+      <c r="AC23" s="122">
+        <f>AVERAGE(AC4:AC22)</f>
+        <v>26.770956059050064</v>
+      </c>
+      <c r="AD23" s="122">
+        <f>AVERAGE(AD4:AD22)</f>
+        <v>25.68456665394233</v>
+      </c>
+      <c r="AE23" s="122">
+        <f t="shared" ref="AE23:AF23" si="6">AVERAGE(AE4:AE22)</f>
+        <v>16.263023807354067</v>
+      </c>
+      <c r="AF23" s="122">
+        <f t="shared" si="6"/>
+        <v>13.532561849160183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" hidden="1">
       <c r="C24" s="74" t="s">
         <v>327</v>
       </c>
@@ -33565,8 +37022,8 @@
       <c r="G24" s="74"/>
       <c r="H24" s="99"/>
     </row>
-    <row r="25" spans="2:8" ht="350" customHeight="1"/>
-    <row r="26" spans="2:8">
+    <row r="25" spans="2:32" ht="350" customHeight="1"/>
+    <row r="26" spans="2:32">
       <c r="B26" s="107" t="s">
         <v>505</v>
       </c>
@@ -33574,7 +37031,7 @@
       <c r="D26" s="107"/>
       <c r="E26" s="107"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:32">
       <c r="B28" s="72" t="s">
         <v>49</v>
       </c>
@@ -33588,7 +37045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:32">
       <c r="B29" s="73">
         <v>1</v>
       </c>
@@ -33602,7 +37059,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:32">
       <c r="B30" s="73">
         <v>2</v>
       </c>
@@ -33616,7 +37073,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:32">
       <c r="B31" s="73">
         <v>3</v>
       </c>
@@ -33630,7 +37087,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:32">
       <c r="B32" s="73">
         <v>4</v>
       </c>
@@ -33935,9 +37392,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T9:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -36049,7 +39508,7 @@
   <sheetPr codeName="Feuil64"/>
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:G19"/>
     </sheetView>
   </sheetViews>

--- a/dataset-cpx.xlsx
+++ b/dataset-cpx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/Documents/these/studies/cpx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A5CBF6-416E-F543-9D1E-75E5B083B173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC44FB9-3002-5B46-BE09-2720134F6BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{E3999CCB-9ED0-3445-84E9-42CD1661CA3C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="4" xr2:uid="{E3999CCB-9ED0-3445-84E9-42CD1661CA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,22 @@
     <sheet name="siegmund2012" sheetId="27" r:id="rId4"/>
     <sheet name="peitek2021" sheetId="71" r:id="rId5"/>
     <sheet name="Synthesis" sheetId="82" r:id="rId6"/>
-    <sheet name="ArrAvg" sheetId="65" state="hidden" r:id="rId7"/>
-    <sheet name="CountSubstr" sheetId="66" state="hidden" r:id="rId8"/>
-    <sheet name="CountVwls" sheetId="67" state="hidden" r:id="rId9"/>
-    <sheet name="DumbSort" sheetId="68" state="hidden" r:id="rId10"/>
-    <sheet name="GrCoDiv" sheetId="69" state="hidden" r:id="rId11"/>
-    <sheet name="hIndex" sheetId="70" state="hidden" r:id="rId12"/>
-    <sheet name="isHur" sheetId="72" state="hidden" r:id="rId13"/>
-    <sheet name="isPalind" sheetId="73" state="hidden" r:id="rId14"/>
-    <sheet name="lgthLastWd" sheetId="74" state="hidden" r:id="rId15"/>
-    <sheet name="binToDec" sheetId="75" state="hidden" r:id="rId16"/>
-    <sheet name="crosSum" sheetId="76" state="hidden" r:id="rId17"/>
-    <sheet name="n!" sheetId="77" state="hidden" r:id="rId18"/>
-    <sheet name="fibonacci" sheetId="78" state="hidden" r:id="rId19"/>
-    <sheet name="power" sheetId="79" state="hidden" r:id="rId20"/>
-    <sheet name="sqrt" sheetId="80" state="hidden" r:id="rId21"/>
-    <sheet name="yesNo" sheetId="81" state="hidden" r:id="rId22"/>
+    <sheet name="ArrAvg" sheetId="65" r:id="rId7"/>
+    <sheet name="CountSubstr" sheetId="66" r:id="rId8"/>
+    <sheet name="CountVwls" sheetId="67" r:id="rId9"/>
+    <sheet name="DumbSort" sheetId="68" r:id="rId10"/>
+    <sheet name="GrCoDiv" sheetId="69" r:id="rId11"/>
+    <sheet name="hIndex" sheetId="70" r:id="rId12"/>
+    <sheet name="isHur" sheetId="72" r:id="rId13"/>
+    <sheet name="isPalind" sheetId="73" r:id="rId14"/>
+    <sheet name="lgthLastWd" sheetId="74" r:id="rId15"/>
+    <sheet name="binToDec" sheetId="75" r:id="rId16"/>
+    <sheet name="crosSum" sheetId="76" r:id="rId17"/>
+    <sheet name="n!" sheetId="77" r:id="rId18"/>
+    <sheet name="fibonacci" sheetId="78" r:id="rId19"/>
+    <sheet name="power" sheetId="79" r:id="rId20"/>
+    <sheet name="sqrt" sheetId="80" r:id="rId21"/>
+    <sheet name="yesNo" sheetId="81" r:id="rId22"/>
     <sheet name="1" sheetId="3" r:id="rId23"/>
     <sheet name="2" sheetId="4" r:id="rId24"/>
     <sheet name="3" sheetId="23" r:id="rId25"/>
@@ -61,14 +61,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil37!$B$7:$C$42</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">siegmund2012!$C$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">siegmund2012!$C$4:$C$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">siegmund2012!$G$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">siegmund2012!$G$4:$G$22</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">siegmund2012!$C$3</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">siegmund2012!$C$4:$C$22</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">siegmund2012!$G$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">siegmund2012!$G$4:$G$22</definedName>
     <definedName name="xdata1" hidden="1">#REF!</definedName>
     <definedName name="xdata2" hidden="1">#REF!</definedName>
     <definedName name="xdata3" hidden="1">#REF!</definedName>
@@ -158,7 +150,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -180,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="513">
   <si>
     <t>snippet_id</t>
   </si>
@@ -6219,7 +6211,19 @@
     <t>dyn2</t>
   </si>
   <si>
-    <t>Linear regression line</t>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Linear regression line / metric</t>
+  </si>
+  <si>
+    <t>Linear regression line / time</t>
+  </si>
+  <si>
+    <t>Forecasted values</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -6396,7 +6400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6463,8 +6467,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -6590,11 +6600,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6769,6 +6803,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6814,10 +6854,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10038,7 +10090,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F39DA6A-E70F-004D-A8E4-455A9706DC17}" type="CELLRANGE">
+                    <a:fld id="{716EA338-3C1F-244E-9D51-C4FE0674D0ED}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10071,7 +10123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51348929-3CE8-904D-8782-246BF01051EB}" type="CELLRANGE">
+                    <a:fld id="{A89309CF-6FC5-AC4C-9E2E-FA1C3DF438A5}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10104,7 +10156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{812BA8D4-10F9-2246-8E72-BC438B869F21}" type="CELLRANGE">
+                    <a:fld id="{EEF37AA2-5B25-5D43-AF81-00A49C933ECA}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10137,7 +10189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0F3FBDB-20E5-CE41-9CD9-9F6DA2B6A509}" type="CELLRANGE">
+                    <a:fld id="{59F77E5C-D7F7-9A43-8BB7-E26CF2C3A096}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10170,7 +10222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FBD59BC-295E-6A45-A49E-7BFDB16F6541}" type="CELLRANGE">
+                    <a:fld id="{FA9E53E0-1275-FB4A-989B-9E716A5E2C44}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10203,7 +10255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7E10F74-FF33-5F4E-A291-CBF4B32EFF9B}" type="CELLRANGE">
+                    <a:fld id="{C717A692-843D-7741-BD7A-FE10C58E523D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10236,7 +10288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DE4E1CA-077C-C740-A9D1-D4630E9A6A2B}" type="CELLRANGE">
+                    <a:fld id="{150A85E3-7563-074E-8D9F-B0F19A944249}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10269,7 +10321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E324EC8-9509-9142-A4DF-178DE429EA5A}" type="CELLRANGE">
+                    <a:fld id="{0640945A-ABFB-7D44-86B1-7F3A6F1EB3C0}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10302,7 +10354,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A1387D7-EFB1-054E-AACF-929E55FC7FBD}" type="CELLRANGE">
+                    <a:fld id="{3698AF80-6535-D24A-9597-D52D38946EA7}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10335,7 +10387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{847C2912-4AE9-2B4A-8612-651823491E89}" type="CELLRANGE">
+                    <a:fld id="{79E07AE9-D24A-F141-9DDB-B509FF55543A}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10368,7 +10420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1824833-361C-0043-950A-3A2A1D29199D}" type="CELLRANGE">
+                    <a:fld id="{30E752C9-4F93-C448-ADB4-0A4B7EA88890}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10401,7 +10453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6A36DEE-156F-3C46-8796-44474D28D323}" type="CELLRANGE">
+                    <a:fld id="{D00D42D9-51F8-7E43-9329-29A38E2C0414}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10434,7 +10486,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6279345F-23FB-EC4F-AB0B-E32FA94A3D88}" type="CELLRANGE">
+                    <a:fld id="{D0A7A321-56F6-8D4F-87CA-A8FF48CF9074}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10467,7 +10519,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3084130C-DCF6-F246-B0CC-B0BE97F0A1C5}" type="CELLRANGE">
+                    <a:fld id="{1737EA59-78B8-2F4E-906F-B6BE8A95EFF5}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10500,7 +10552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1842C9B-B8B9-3747-A93C-1FD3834DDB66}" type="CELLRANGE">
+                    <a:fld id="{B6F109F0-25FF-4145-88D1-AC600ABC5512}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10533,7 +10585,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DD2E44E-D086-E042-9596-A11826EB5F63}" type="CELLRANGE">
+                    <a:fld id="{BAA2942A-5DF6-7840-B8F4-9599242F271C}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10566,7 +10618,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99165BB0-3594-4840-828C-49DA02FD464F}" type="CELLRANGE">
+                    <a:fld id="{DBC37C18-EC5A-224D-953D-7211BDCC346F}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10599,7 +10651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C697E4E9-7030-E847-9A41-B68DA8656610}" type="CELLRANGE">
+                    <a:fld id="{EBA822DF-BAC8-B54B-9A5D-5D219C0C5448}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10632,7 +10684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44DCBF68-1548-F04E-B0E7-EB1A600AFDC0}" type="CELLRANGE">
+                    <a:fld id="{4FED90A4-D7A3-AD45-B36C-BA066BFDA48E}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10665,7 +10717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A0650A8-834E-2543-AA9A-8673BB3F5FC1}" type="CELLRANGE">
+                    <a:fld id="{271AA26E-BD2A-CB4D-8D79-AE1F2BFB55E9}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10698,7 +10750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93F49A16-9BFA-6547-B498-DA637D6C51CB}" type="CELLRANGE">
+                    <a:fld id="{62E5FAF4-5638-454A-9361-30DD38464D45}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10731,7 +10783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9385C19-D00E-5C46-A844-228595570F8C}" type="CELLRANGE">
+                    <a:fld id="{0C0A1082-9DCA-6E42-A349-405022DC45BA}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10764,7 +10816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54E06FA0-E2D3-5C4D-AEBD-0F6C3D52159E}" type="CELLRANGE">
+                    <a:fld id="{2E494FA3-0F9C-FE4F-8159-A77B639F5CBD}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -11742,7 +11794,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>siegmund2012!$E$28</c:f>
+              <c:f>siegmund2012!$E$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11804,7 +11856,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>siegmund2012!$C$29:$C$51</c:f>
+              <c:f>siegmund2012!$C$30:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="23"/>
@@ -11882,7 +11934,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>siegmund2012!$E$29:$E$51</c:f>
+              <c:f>siegmund2012!$E$30:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -13544,7 +13596,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>siegmund2012!$D$28</c:f>
+              <c:f>siegmund2012!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13591,7 +13643,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>siegmund2012!$C$29:$C$51</c:f>
+              <c:f>siegmund2012!$C$30:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="23"/>
@@ -13669,7 +13721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>siegmund2012!$D$29:$D$51</c:f>
+              <c:f>siegmund2012!$D$30:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -22274,13 +22326,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>336313</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>11759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>740832</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>47037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -22316,8 +22368,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>776111</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11760</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>188148</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22346,13 +22398,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>399815</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>30339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>799630</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>3974630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -22382,13 +22434,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>154046</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>33631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>364537</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>3998148</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -22418,13 +22470,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142287</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>10112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>281046</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>23518</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -22454,13 +22506,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>89370</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>492242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>545630</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>4127499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -22489,15 +22541,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>492242</xdr:rowOff>
+      <xdr:colOff>606778</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>504001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>204612</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4139259</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>239889</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4151018</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23592,16 +23644,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="19">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="14"/>
@@ -25092,16 +25144,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="3" spans="1:10">
       <c r="H3" s="29">
@@ -25607,14 +25659,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="3" spans="1:8">
       <c r="F3" s="26">
@@ -25977,15 +26029,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="31"/>
@@ -26469,12 +26521,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="26">
@@ -26646,15 +26698,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="76"/>
@@ -26922,15 +26974,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
     </row>
     <row r="3" spans="1:9">
       <c r="G3" s="26">
@@ -27763,13 +27815,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="29">
@@ -28030,13 +28082,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="76"/>
@@ -28329,12 +28381,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="29">
@@ -28564,12 +28616,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="29">
@@ -29150,13 +29202,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="29">
@@ -29429,13 +29481,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="29">
@@ -29980,10 +30032,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" s="26">
@@ -30139,7 +30191,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30149,12 +30201,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
     </row>
     <row r="2" spans="1:7" ht="19">
       <c r="A2" s="20"/>
@@ -30446,14 +30498,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="3" spans="1:8">
       <c r="G3" s="42">
@@ -30994,14 +31046,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="2" spans="1:9" ht="19">
       <c r="A2" s="53"/>
@@ -31614,14 +31666,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="3" spans="1:9">
       <c r="G3" s="42">
@@ -32118,13 +32170,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1">
       <c r="A2" s="57"/>
@@ -32411,13 +32463,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1"/>
     <row r="3" spans="1:7" s="10" customFormat="1">
@@ -33402,13 +33454,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="75"/>
@@ -33688,14 +33740,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1"/>
     <row r="3" spans="1:8" s="10" customFormat="1">
@@ -34205,13 +34257,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="41">
@@ -34390,14 +34442,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1">
       <c r="A2" s="11"/>
@@ -34618,14 +34670,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1">
       <c r="A2" s="13"/>
@@ -34840,13 +34892,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13"/>
@@ -35024,13 +35076,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="42">
@@ -35378,13 +35430,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="42">
@@ -35507,15 +35559,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
     </row>
     <row r="3" spans="1:9">
       <c r="G3" s="42">
@@ -35737,10 +35789,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B752191-782E-EA48-B322-664FAB9CF9B3}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="B1:AH53"/>
+  <dimension ref="B1:AG54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView topLeftCell="M1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35755,27 +35807,41 @@
     <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="18" width="10.83203125" style="1"/>
     <col min="19" max="19" width="4.1640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="20" max="27" width="10.83203125" style="1"/>
+    <col min="28" max="28" width="3.6640625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="19">
-      <c r="B1" s="106" t="s">
+    <row r="1" spans="2:33" ht="19">
+      <c r="B1" s="108" t="s">
         <v>474</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-    </row>
-    <row r="2" spans="2:34">
-      <c r="T2" s="121" t="s">
-        <v>508</v>
-      </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-    </row>
-    <row r="3" spans="2:34">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+    </row>
+    <row r="2" spans="2:33">
+      <c r="T2" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="X2" s="124" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="126"/>
+      <c r="AD2" s="116" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+    </row>
+    <row r="3" spans="2:33">
       <c r="B3" s="72" t="s">
         <v>502</v>
       </c>
@@ -35797,55 +35863,52 @@
         <v>dyn2</v>
       </c>
       <c r="H3" s="99"/>
-      <c r="T3" s="1" t="str">
+      <c r="T3" s="73" t="str">
         <f>D3</f>
         <v>sonarqube</v>
       </c>
-      <c r="U3" s="1" cm="1">
+      <c r="U3" s="73" cm="1">
         <f t="array" ref="U3:V3">LINEST(D4:D22,C4:C22)</f>
         <v>2.4558162269338261E-2</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="73">
         <v>0.68727428091925669</v>
       </c>
-      <c r="X3" s="14" t="str">
+      <c r="X3" s="106" t="str">
         <f>D3</f>
         <v>sonarqube</v>
       </c>
-      <c r="Y3" s="14" t="str">
+      <c r="Y3" s="106" t="str">
         <f>E3</f>
         <v>genese_cpx</v>
       </c>
-      <c r="Z3" s="14" t="str">
+      <c r="Z3" s="106" t="str">
         <f>F3</f>
         <v>dyn1</v>
       </c>
-      <c r="AA3" s="14" t="str">
+      <c r="AA3" s="106" t="str">
         <f>G3</f>
         <v>dyn2</v>
       </c>
-      <c r="AC3" s="14" t="str">
+      <c r="AB3" s="107"/>
+      <c r="AD3" s="106" t="str">
         <f>D3</f>
         <v>sonarqube</v>
       </c>
-      <c r="AD3" s="14" t="str">
+      <c r="AE3" s="106" t="str">
         <f>E3</f>
         <v>genese_cpx</v>
       </c>
-      <c r="AE3" s="14" t="str">
+      <c r="AF3" s="106" t="str">
         <f>F3</f>
         <v>dyn1</v>
       </c>
-      <c r="AF3" s="14" t="str">
+      <c r="AG3" s="106" t="str">
         <f>G3</f>
         <v>dyn2</v>
       </c>
-      <c r="AH3" s="1">
-        <f>STDEV(X4:X22)</f>
-        <v>25.675427112967437</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34">
+    </row>
+    <row r="4" spans="2:33">
       <c r="B4" s="37">
         <v>1</v>
       </c>
@@ -35867,51 +35930,51 @@
         <v>4.8948</v>
       </c>
       <c r="H4" s="99"/>
-      <c r="T4" s="1" t="str">
+      <c r="T4" s="73" t="str">
         <f>E3</f>
         <v>genese_cpx</v>
       </c>
-      <c r="U4" s="1" cm="1">
+      <c r="U4" s="73" cm="1">
         <f t="array" ref="U4:V4">LINEST(E4:E22,C4:C22)</f>
         <v>5.5463678990432835E-2</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="73">
         <v>6.7027076730524611</v>
       </c>
-      <c r="X4" s="1">
-        <f>$D4*$U$10+$V$10</f>
+      <c r="X4" s="73">
+        <f t="shared" ref="X4:X22" si="0">$D4*$U$10+$V$10</f>
         <v>61.416918832752614</v>
       </c>
-      <c r="Y4" s="1">
-        <f>E4*$U$11+$V$11</f>
+      <c r="Y4" s="73">
+        <f t="shared" ref="Y4:Y22" si="1">E4*$U$11+$V$11</f>
         <v>58.202273239029132</v>
       </c>
-      <c r="Z4" s="1">
-        <f>F4*$U$12+$V$12</f>
+      <c r="Z4" s="73">
+        <f t="shared" ref="Z4:Z22" si="2">F4*$U$12+$V$12</f>
         <v>51.752996067965306</v>
       </c>
-      <c r="AA4" s="1">
-        <f>G4*$U$13+$V$13</f>
+      <c r="AA4" s="73">
+        <f t="shared" ref="AA4:AA22" si="3">G4*$U$13+$V$13</f>
         <v>58.230202971233552</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="73">
         <f>ABS($C4-X4)</f>
         <v>6.5974958013937197</v>
       </c>
-      <c r="AD4" s="1">
-        <f t="shared" ref="AD4:AF19" si="0">ABS($C4-Y4)</f>
+      <c r="AE4" s="73">
+        <f>ABS($C4-Y4)</f>
         <v>9.8121413951172016</v>
       </c>
-      <c r="AE4" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF4" s="73">
+        <f>ABS($C4-Z4)</f>
         <v>16.261418566181028</v>
       </c>
-      <c r="AF4" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG4" s="73">
+        <f>ABS($C4-AA4)</f>
         <v>9.7842116629127815</v>
       </c>
     </row>
-    <row r="5" spans="2:34">
+    <row r="5" spans="2:33">
       <c r="B5" s="37">
         <v>2</v>
       </c>
@@ -35933,51 +35996,51 @@
         <v>7.7837939390651911</v>
       </c>
       <c r="H5" s="99"/>
-      <c r="T5" s="1" t="str">
+      <c r="T5" s="73" t="str">
         <f>F3</f>
         <v>dyn1</v>
       </c>
-      <c r="U5" s="1" cm="1">
+      <c r="U5" s="73" cm="1">
         <f t="array" ref="U5:V5">LINEST(F4:F22,C4:C22)</f>
         <v>7.6128649226312323E-2</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="73">
         <v>1.4159069751836109</v>
       </c>
-      <c r="X5" s="1">
-        <f>$D5*$U$10+$V$10</f>
+      <c r="X5" s="73">
+        <f t="shared" si="0"/>
         <v>112.1775137456446</v>
       </c>
-      <c r="Y5" s="1">
-        <f>E5*$U$11+$V$11</f>
+      <c r="Y5" s="73">
+        <f t="shared" si="1"/>
         <v>121.17951911274326</v>
       </c>
-      <c r="Z5" s="1">
-        <f>F5*$U$12+$V$12</f>
+      <c r="Z5" s="73">
+        <f t="shared" si="2"/>
         <v>113.07798598541521</v>
       </c>
-      <c r="AA5" s="1">
-        <f>G5*$U$13+$V$13</f>
+      <c r="AA5" s="73">
+        <f t="shared" si="3"/>
         <v>114.54182119618963</v>
       </c>
-      <c r="AC5" s="1">
-        <f t="shared" ref="AC5:AC22" si="1">ABS($C5-X5)</f>
+      <c r="AD5" s="73">
+        <f t="shared" ref="AD5:AD22" si="4">ABS($C5-X5)</f>
         <v>11.910099111498283</v>
       </c>
-      <c r="AD5" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE5" s="73">
+        <f>ABS($C5-Y5)</f>
         <v>20.912104478596945</v>
       </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF5" s="73">
+        <f>ABS($C5-Z5)</f>
         <v>12.810571351268891</v>
       </c>
-      <c r="AF5" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG5" s="73">
+        <f>ABS($C5-AA5)</f>
         <v>14.27440656204331</v>
       </c>
     </row>
-    <row r="6" spans="2:34">
+    <row r="6" spans="2:33">
       <c r="B6" s="37">
         <v>4</v>
       </c>
@@ -35999,51 +36062,51 @@
         <v>9.3121798400000007</v>
       </c>
       <c r="H6" s="99"/>
-      <c r="T6" s="1" t="str">
+      <c r="T6" s="73" t="str">
         <f>G3</f>
         <v>dyn2</v>
       </c>
-      <c r="U6" s="1" cm="1">
+      <c r="U6" s="73" cm="1">
         <f t="array" ref="U6:V6">LINEST(G4:G22,C4:C22)</f>
         <v>4.4544978836098509E-2</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="73">
         <v>2.4714422904012738</v>
       </c>
-      <c r="X6" s="1">
-        <f>$D6*$U$10+$V$10</f>
+      <c r="X6" s="73">
+        <f t="shared" si="0"/>
         <v>137.55781120209062</v>
       </c>
-      <c r="Y6" s="1">
-        <f>E6*$U$11+$V$11</f>
+      <c r="Y6" s="73">
+        <f t="shared" si="1"/>
         <v>106.13185859424519</v>
       </c>
-      <c r="Z6" s="1">
-        <f>F6*$U$12+$V$12</f>
+      <c r="Z6" s="73">
+        <f t="shared" si="2"/>
         <v>162.09344766569455</v>
       </c>
-      <c r="AA6" s="1">
-        <f>G6*$U$13+$V$13</f>
+      <c r="AA6" s="73">
+        <f t="shared" si="3"/>
         <v>144.33277443775143</v>
       </c>
-      <c r="AC6" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD6" s="73">
+        <f t="shared" si="4"/>
         <v>17.083749773519173</v>
       </c>
-      <c r="AD6" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE6" s="73">
+        <f>ABS($C6-Y6)</f>
         <v>48.509702381364605</v>
       </c>
-      <c r="AE6" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF6" s="73">
+        <f>ABS($C6-Z6)</f>
         <v>7.4518866900847627</v>
       </c>
-      <c r="AF6" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG6" s="73">
+        <f>ABS($C6-AA6)</f>
         <v>10.308786537858367</v>
       </c>
     </row>
-    <row r="7" spans="2:34">
+    <row r="7" spans="2:33">
       <c r="B7" s="37">
         <v>5</v>
       </c>
@@ -36065,40 +36128,40 @@
         <v>11.704923999999998</v>
       </c>
       <c r="H7" s="99"/>
-      <c r="X7" s="1">
-        <f>$D7*$U$10+$V$10</f>
+      <c r="X7" s="73">
+        <f t="shared" si="0"/>
         <v>112.1775137456446</v>
       </c>
-      <c r="Y7" s="1">
-        <f>E7*$U$11+$V$11</f>
+      <c r="Y7" s="73">
+        <f t="shared" si="1"/>
         <v>100.00133023485711</v>
       </c>
-      <c r="Z7" s="1">
-        <f>F7*$U$12+$V$12</f>
+      <c r="Z7" s="73">
+        <f t="shared" si="2"/>
         <v>189.67856056512687</v>
       </c>
-      <c r="AA7" s="1">
-        <f>G7*$U$13+$V$13</f>
+      <c r="AA7" s="73">
+        <f t="shared" si="3"/>
         <v>190.97160390220904</v>
       </c>
-      <c r="AC7" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD7" s="73">
+        <f t="shared" si="4"/>
         <v>99.307022839721242</v>
       </c>
-      <c r="AD7" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE7" s="73">
+        <f>ABS($C7-Y7)</f>
         <v>111.48320635050874</v>
       </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF7" s="73">
+        <f>ABS($C7-Z7)</f>
         <v>21.805976020238973</v>
       </c>
-      <c r="AF7" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG7" s="73">
+        <f>ABS($C7-AA7)</f>
         <v>20.512932683156805</v>
       </c>
     </row>
-    <row r="8" spans="2:34">
+    <row r="8" spans="2:33">
       <c r="B8" s="37">
         <v>6</v>
       </c>
@@ -36120,40 +36183,40 @@
         <v>4.7900520000000002</v>
       </c>
       <c r="H8" s="99"/>
-      <c r="X8" s="1">
-        <f>$D8*$U$10+$V$10</f>
+      <c r="X8" s="73">
+        <f t="shared" si="0"/>
         <v>61.416918832752614</v>
       </c>
-      <c r="Y8" s="1">
-        <f>E8*$U$11+$V$11</f>
+      <c r="Y8" s="73">
+        <f t="shared" si="1"/>
         <v>59.87423551886225</v>
       </c>
-      <c r="Z8" s="1">
-        <f>F8*$U$12+$V$12</f>
+      <c r="Z8" s="73">
+        <f t="shared" si="2"/>
         <v>53.723361275067617</v>
       </c>
-      <c r="AA8" s="1">
-        <f>G8*$U$13+$V$13</f>
+      <c r="AA8" s="73">
+        <f t="shared" si="3"/>
         <v>56.18847858196871</v>
       </c>
-      <c r="AC8" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD8" s="73">
+        <f t="shared" si="4"/>
         <v>9.0940323867595652</v>
       </c>
-      <c r="AD8" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE8" s="73">
+        <f>ABS($C8-Y8)</f>
         <v>10.63671570064993</v>
       </c>
-      <c r="AE8" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF8" s="73">
+        <f>ABS($C8-Z8)</f>
         <v>16.787589944444562</v>
       </c>
-      <c r="AF8" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG8" s="73">
+        <f>ABS($C8-AA8)</f>
         <v>14.32247263754347</v>
       </c>
     </row>
-    <row r="9" spans="2:34">
+    <row r="9" spans="2:33">
       <c r="B9" s="37">
         <v>7</v>
       </c>
@@ -36175,45 +36238,45 @@
         <v>6.6073685280000003</v>
       </c>
       <c r="H9" s="99"/>
-      <c r="T9" s="121" t="s">
-        <v>508</v>
-      </c>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="X9" s="1">
-        <f>$D9*$U$10+$V$10</f>
+      <c r="T9" s="116" t="s">
+        <v>510</v>
+      </c>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="X9" s="73">
+        <f t="shared" si="0"/>
         <v>86.797216289198616</v>
       </c>
-      <c r="Y9" s="1">
-        <f>E9*$U$11+$V$11</f>
+      <c r="Y9" s="73">
+        <f t="shared" si="1"/>
         <v>73.249933757527202</v>
       </c>
-      <c r="Z9" s="1">
-        <f>F9*$U$12+$V$12</f>
+      <c r="Z9" s="73">
+        <f t="shared" si="2"/>
         <v>98.54916973664514</v>
       </c>
-      <c r="AA9" s="1">
-        <f>G9*$U$13+$V$13</f>
+      <c r="AA9" s="73">
+        <f t="shared" si="3"/>
         <v>91.611202435710055</v>
       </c>
-      <c r="AC9" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD9" s="73">
+        <f t="shared" si="4"/>
         <v>20.748606533101082</v>
       </c>
-      <c r="AD9" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE9" s="73">
+        <f>ABS($C9-Y9)</f>
         <v>7.2013240014296684</v>
       </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF9" s="73">
+        <f>ABS($C9-Z9)</f>
         <v>32.500559980547607</v>
       </c>
-      <c r="AF9" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG9" s="73">
+        <f>ABS($C9-AA9)</f>
         <v>25.562592679612521</v>
       </c>
     </row>
-    <row r="10" spans="2:34">
+    <row r="10" spans="2:33">
       <c r="B10" s="103">
         <v>8</v>
       </c>
@@ -36235,51 +36298,51 @@
         <v>6.8864000000000001</v>
       </c>
       <c r="H10" s="99"/>
-      <c r="T10" s="1" t="str">
+      <c r="T10" s="73" t="str">
         <f>T3</f>
         <v>sonarqube</v>
       </c>
-      <c r="U10" s="1" cm="1">
+      <c r="U10" s="73" cm="1">
         <f t="array" ref="U10:V10">LINEST(C4:C22,D4:D22)</f>
         <v>12.690148728222999</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="73">
         <v>48.726770104529614</v>
       </c>
-      <c r="X10" s="1">
-        <f>$D10*$U$10+$V$10</f>
+      <c r="X10" s="73">
+        <f t="shared" si="0"/>
         <v>61.416918832752614</v>
       </c>
-      <c r="Y10" s="1">
-        <f>E10*$U$11+$V$11</f>
+      <c r="Y10" s="73">
+        <f t="shared" si="1"/>
         <v>61.546197798695374</v>
       </c>
-      <c r="Z10" s="1">
-        <f>F10*$U$12+$V$12</f>
+      <c r="Z10" s="73">
+        <f t="shared" si="2"/>
         <v>90.175117606460319</v>
       </c>
-      <c r="AA10" s="1">
-        <f>G10*$U$13+$V$13</f>
+      <c r="AA10" s="73">
+        <f t="shared" si="3"/>
         <v>97.050020950191168</v>
       </c>
-      <c r="AC10" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD10" s="73">
+        <f t="shared" si="4"/>
         <v>43.409105557491316</v>
       </c>
-      <c r="AD10" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE10" s="73">
+        <f>ABS($C10-Y10)</f>
         <v>43.279826591548556</v>
       </c>
-      <c r="AE10" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF10" s="73">
+        <f>ABS($C10-Z10)</f>
         <v>14.650906783783611</v>
       </c>
-      <c r="AF10" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG10" s="73">
+        <f>ABS($C10-AA10)</f>
         <v>7.7760034400527616</v>
       </c>
     </row>
-    <row r="11" spans="2:34">
+    <row r="11" spans="2:33">
       <c r="B11" s="103">
         <v>9</v>
       </c>
@@ -36301,51 +36364,51 @@
         <v>5.1806567180919743</v>
       </c>
       <c r="H11" s="99"/>
-      <c r="T11" s="1" t="str">
-        <f t="shared" ref="T11:T13" si="2">T4</f>
+      <c r="T11" s="73" t="str">
+        <f t="shared" ref="T11:T13" si="5">T4</f>
         <v>genese_cpx</v>
       </c>
-      <c r="U11" s="1" cm="1">
+      <c r="U11" s="73" cm="1">
         <f t="array" ref="U11:V11">LINEST(C4:C22,E4:E22)</f>
         <v>5.5732075994437276</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="73">
         <v>20.304461562811788</v>
       </c>
-      <c r="X11" s="1">
-        <f>$D11*$U$10+$V$10</f>
+      <c r="X11" s="73">
+        <f t="shared" si="0"/>
         <v>86.797216289198616</v>
       </c>
-      <c r="Y11" s="1">
-        <f>E11*$U$11+$V$11</f>
+      <c r="Y11" s="73">
+        <f t="shared" si="1"/>
         <v>69.906009197860968</v>
       </c>
-      <c r="Z11" s="1">
-        <f>F11*$U$12+$V$12</f>
+      <c r="Z11" s="73">
+        <f t="shared" si="2"/>
         <v>78.96262041061054</v>
       </c>
-      <c r="AA11" s="1">
-        <f>G11*$U$13+$V$13</f>
+      <c r="AA11" s="73">
+        <f t="shared" si="3"/>
         <v>63.802057643051512</v>
       </c>
-      <c r="AC11" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD11" s="73">
+        <f t="shared" si="4"/>
         <v>21.376362630662044</v>
       </c>
-      <c r="AD11" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE11" s="73">
+        <f>ABS($C11-Y11)</f>
         <v>4.4851555393243956</v>
       </c>
-      <c r="AE11" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF11" s="73">
+        <f>ABS($C11-Z11)</f>
         <v>13.541766752073968</v>
       </c>
-      <c r="AF11" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG11" s="73">
+        <f>ABS($C11-AA11)</f>
         <v>1.61879601548506</v>
       </c>
     </row>
-    <row r="12" spans="2:34">
+    <row r="12" spans="2:33">
       <c r="B12" s="103">
         <v>10</v>
       </c>
@@ -36367,51 +36430,51 @@
         <v>6.0659999999999989</v>
       </c>
       <c r="H12" s="99"/>
-      <c r="T12" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="T12" s="73" t="str">
+        <f t="shared" si="5"/>
         <v>dyn1</v>
       </c>
-      <c r="U12" s="1" cm="1">
+      <c r="U12" s="73" cm="1">
         <f t="array" ref="U12:V12">LINEST(C4:C22,F4:F22)</f>
         <v>10.262318786991187</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="73">
         <v>3.7253441448465452</v>
       </c>
-      <c r="X12" s="1">
-        <f>$D12*$U$10+$V$10</f>
+      <c r="X12" s="73">
+        <f t="shared" si="0"/>
         <v>124.8676624738676</v>
       </c>
-      <c r="Y12" s="1">
-        <f>E12*$U$11+$V$11</f>
+      <c r="Y12" s="73">
+        <f t="shared" si="1"/>
         <v>113.37702847352205</v>
       </c>
-      <c r="Z12" s="1">
-        <f>F12*$U$12+$V$12</f>
+      <c r="Z12" s="73">
+        <f t="shared" si="2"/>
         <v>96.086213227767232</v>
       </c>
-      <c r="AA12" s="1">
-        <f>G12*$U$13+$V$13</f>
+      <c r="AA12" s="73">
+        <f t="shared" si="3"/>
         <v>81.058969197862965</v>
       </c>
-      <c r="AC12" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD12" s="73">
+        <f t="shared" si="4"/>
         <v>82.281857595818821</v>
       </c>
-      <c r="AD12" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE12" s="73">
+        <f>ABS($C12-Y12)</f>
         <v>70.791223595473269</v>
       </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF12" s="73">
+        <f>ABS($C12-Z12)</f>
         <v>53.500408349718448</v>
       </c>
-      <c r="AF12" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG12" s="73">
+        <f>ABS($C12-AA12)</f>
         <v>38.473164319814181</v>
       </c>
     </row>
-    <row r="13" spans="2:34">
+    <row r="13" spans="2:33">
       <c r="B13" s="103">
         <v>11</v>
       </c>
@@ -36433,51 +36496,51 @@
         <v>4.976</v>
       </c>
       <c r="H13" s="99"/>
-      <c r="T13" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="T13" s="73" t="str">
+        <f t="shared" si="5"/>
         <v>dyn2</v>
       </c>
-      <c r="U13" s="1" cm="1">
+      <c r="U13" s="73" cm="1">
         <f t="array" ref="U13:V13">LINEST(C4:C22,G4:G22)</f>
         <v>19.491774442135785</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="73">
         <v>-37.178134568132691</v>
       </c>
-      <c r="X13" s="1">
-        <f>$D13*$U$10+$V$10</f>
+      <c r="X13" s="73">
+        <f t="shared" si="0"/>
         <v>61.416918832752614</v>
       </c>
-      <c r="Y13" s="1">
-        <f>E13*$U$11+$V$11</f>
+      <c r="Y13" s="73">
+        <f t="shared" si="1"/>
         <v>61.546197798695374</v>
       </c>
-      <c r="Z13" s="1">
-        <f>F13*$U$12+$V$12</f>
+      <c r="Z13" s="73">
+        <f t="shared" si="2"/>
         <v>71.456648138988385</v>
       </c>
-      <c r="AA13" s="1">
-        <f>G13*$U$13+$V$13</f>
+      <c r="AA13" s="73">
+        <f t="shared" si="3"/>
         <v>59.812935055934972</v>
       </c>
-      <c r="AC13" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD13" s="73">
+        <f t="shared" si="4"/>
         <v>4.0568616550522592</v>
       </c>
-      <c r="AD13" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE13" s="73">
+        <f>ABS($C13-Y13)</f>
         <v>3.9275826891094994</v>
       </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF13" s="73">
+        <f>ABS($C13-Z13)</f>
         <v>5.9828676511835113</v>
       </c>
-      <c r="AF13" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG13" s="73">
+        <f>ABS($C13-AA13)</f>
         <v>5.6608454318699017</v>
       </c>
     </row>
-    <row r="14" spans="2:34">
+    <row r="14" spans="2:33">
       <c r="B14" s="103">
         <v>12</v>
       </c>
@@ -36499,40 +36562,40 @@
         <v>4.8332000000000006</v>
       </c>
       <c r="H14" s="99"/>
-      <c r="X14" s="1">
-        <f>$D14*$U$10+$V$10</f>
+      <c r="X14" s="73">
+        <f t="shared" si="0"/>
         <v>86.797216289198616</v>
       </c>
-      <c r="Y14" s="1">
-        <f>E14*$U$11+$V$11</f>
+      <c r="Y14" s="73">
+        <f t="shared" si="1"/>
         <v>98.329367955023969</v>
       </c>
-      <c r="Z14" s="1">
-        <f>F14*$U$12+$V$12</f>
+      <c r="Z14" s="73">
+        <f t="shared" si="2"/>
         <v>61.194329351997197</v>
       </c>
-      <c r="AA14" s="1">
-        <f>G14*$U$13+$V$13</f>
+      <c r="AA14" s="73">
+        <f t="shared" si="3"/>
         <v>57.029509665597999</v>
       </c>
-      <c r="AC14" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD14" s="73">
+        <f t="shared" si="4"/>
         <v>26.987191898954705</v>
       </c>
-      <c r="AD14" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE14" s="73">
+        <f>ABS($C14-Y14)</f>
         <v>38.519343564780058</v>
       </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF14" s="73">
+        <f>ABS($C14-Z14)</f>
         <v>1.384304961753287</v>
       </c>
-      <c r="AF14" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG14" s="73">
+        <f>ABS($C14-AA14)</f>
         <v>2.7805147246459114</v>
       </c>
     </row>
-    <row r="15" spans="2:34">
+    <row r="15" spans="2:33">
       <c r="B15" s="103">
         <v>13</v>
       </c>
@@ -36554,40 +36617,40 @@
         <v>3</v>
       </c>
       <c r="H15" s="99"/>
-      <c r="X15" s="1">
-        <f>$D15*$U$10+$V$10</f>
+      <c r="X15" s="73">
+        <f t="shared" si="0"/>
         <v>48.726770104529614</v>
       </c>
-      <c r="Y15" s="1">
-        <f>E15*$U$11+$V$11</f>
+      <c r="Y15" s="73">
+        <f t="shared" si="1"/>
         <v>53.743707159474155</v>
       </c>
-      <c r="Z15" s="1">
-        <f>F15*$U$12+$V$12</f>
+      <c r="Z15" s="73">
+        <f t="shared" si="2"/>
         <v>34.512300505820107</v>
       </c>
-      <c r="AA15" s="1">
-        <f>G15*$U$13+$V$13</f>
+      <c r="AA15" s="73">
+        <f t="shared" si="3"/>
         <v>21.297188758274665</v>
       </c>
-      <c r="AC15" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD15" s="73">
+        <f t="shared" si="4"/>
         <v>11.30147742160279</v>
       </c>
-      <c r="AD15" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE15" s="73">
+        <f>ABS($C15-Y15)</f>
         <v>16.318414476547332</v>
       </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF15" s="73">
+        <f>ABS($C15-Z15)</f>
         <v>2.912992177106716</v>
       </c>
-      <c r="AF15" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG15" s="73">
+        <f>ABS($C15-AA15)</f>
         <v>16.128103924652159</v>
       </c>
     </row>
-    <row r="16" spans="2:34">
+    <row r="16" spans="2:33">
       <c r="B16" s="103">
         <v>14</v>
       </c>
@@ -36609,40 +36672,40 @@
         <v>5.4130162525952006</v>
       </c>
       <c r="H16" s="99"/>
-      <c r="X16" s="1">
-        <f>$D16*$U$10+$V$10</f>
+      <c r="X16" s="73">
+        <f t="shared" si="0"/>
         <v>61.416918832752614</v>
       </c>
-      <c r="Y16" s="1">
-        <f>E16*$U$11+$V$11</f>
+      <c r="Y16" s="73">
+        <f t="shared" si="1"/>
         <v>73.249933757527202</v>
       </c>
-      <c r="Z16" s="1">
-        <f>F16*$U$12+$V$12</f>
+      <c r="Z16" s="73">
+        <f t="shared" si="2"/>
         <v>54.511507357908535</v>
       </c>
-      <c r="AA16" s="1">
-        <f>G16*$U$13+$V$13</f>
+      <c r="AA16" s="73">
+        <f t="shared" si="3"/>
         <v>68.331157279068066</v>
       </c>
-      <c r="AC16" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD16" s="73">
+        <f t="shared" si="4"/>
         <v>13.022211515679452</v>
       </c>
-      <c r="AD16" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE16" s="73">
+        <f>ABS($C16-Y16)</f>
         <v>24.85522644045404</v>
       </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF16" s="73">
+        <f>ABS($C16-Z16)</f>
         <v>6.116800040835372</v>
       </c>
-      <c r="AF16" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG16" s="73">
+        <f>ABS($C16-AA16)</f>
         <v>19.936449961994903</v>
       </c>
     </row>
-    <row r="17" spans="2:32">
+    <row r="17" spans="2:33">
       <c r="B17" s="103">
         <v>16</v>
       </c>
@@ -36664,40 +36727,40 @@
         <v>2</v>
       </c>
       <c r="H17" s="99"/>
-      <c r="X17" s="1">
-        <f>$D17*$U$10+$V$10</f>
+      <c r="X17" s="73">
+        <f t="shared" si="0"/>
         <v>48.726770104529614</v>
       </c>
-      <c r="Y17" s="1">
-        <f>E17*$U$11+$V$11</f>
+      <c r="Y17" s="73">
+        <f t="shared" si="1"/>
         <v>51.514424119696656</v>
       </c>
-      <c r="Z17" s="1">
-        <f>F17*$U$12+$V$12</f>
+      <c r="Z17" s="73">
+        <f t="shared" si="2"/>
         <v>24.24998171882892</v>
       </c>
-      <c r="AA17" s="1">
-        <f>G17*$U$13+$V$13</f>
+      <c r="AA17" s="73">
+        <f t="shared" si="3"/>
         <v>1.8054143161388794</v>
       </c>
-      <c r="AC17" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD17" s="73">
+        <f t="shared" si="4"/>
         <v>28.224379860627174</v>
       </c>
-      <c r="AD17" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE17" s="73">
+        <f>ABS($C17-Y17)</f>
         <v>31.012033875794216</v>
       </c>
-      <c r="AE17" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF17" s="73">
+        <f>ABS($C17-Z17)</f>
         <v>3.7475914749264803</v>
       </c>
-      <c r="AF17" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG17" s="73">
+        <f>ABS($C17-AA17)</f>
         <v>18.69697592776356</v>
       </c>
     </row>
-    <row r="18" spans="2:32">
+    <row r="18" spans="2:33">
       <c r="B18" s="103">
         <v>17</v>
       </c>
@@ -36719,40 +36782,40 @@
         <v>7.1000000000000005</v>
       </c>
       <c r="H18" s="99"/>
-      <c r="X18" s="1">
-        <f>$D18*$U$10+$V$10</f>
+      <c r="X18" s="73">
+        <f t="shared" si="0"/>
         <v>99.48736501742161</v>
       </c>
-      <c r="Y18" s="1">
-        <f>E18*$U$11+$V$11</f>
+      <c r="Y18" s="73">
+        <f t="shared" si="1"/>
         <v>110.59042467380016</v>
       </c>
-      <c r="Z18" s="1">
-        <f>F18*$U$12+$V$12</f>
+      <c r="Z18" s="73">
+        <f t="shared" si="2"/>
         <v>65.299256866793669</v>
       </c>
-      <c r="AA18" s="1">
-        <f>G18*$U$13+$V$13</f>
+      <c r="AA18" s="73">
+        <f t="shared" si="3"/>
         <v>101.21346397103139</v>
       </c>
-      <c r="AC18" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD18" s="73">
+        <f t="shared" si="4"/>
         <v>0.50104961672474246</v>
       </c>
-      <c r="AD18" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE18" s="73">
+        <f>ABS($C18-Y18)</f>
         <v>10.602010039653806</v>
       </c>
-      <c r="AE18" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF18" s="73">
+        <f>ABS($C18-Z18)</f>
         <v>34.689157767352683</v>
       </c>
-      <c r="AF18" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG18" s="73">
+        <f>ABS($C18-AA18)</f>
         <v>1.2250493368850357</v>
       </c>
     </row>
-    <row r="19" spans="2:32">
+    <row r="19" spans="2:33">
       <c r="B19" s="103">
         <v>19</v>
       </c>
@@ -36774,40 +36837,40 @@
         <v>8.6915907722453642</v>
       </c>
       <c r="H19" s="99"/>
-      <c r="X19" s="1">
-        <f>$D19*$U$10+$V$10</f>
+      <c r="X19" s="73">
+        <f t="shared" si="0"/>
         <v>86.797216289198616</v>
       </c>
-      <c r="Y19" s="1">
-        <f>E19*$U$11+$V$11</f>
+      <c r="Y19" s="73">
+        <f t="shared" si="1"/>
         <v>139.0137834309632</v>
       </c>
-      <c r="Z19" s="1">
-        <f>F19*$U$12+$V$12</f>
+      <c r="Z19" s="73">
+        <f t="shared" si="2"/>
         <v>116.08542007985569</v>
       </c>
-      <c r="AA19" s="1">
-        <f>G19*$U$13+$V$13</f>
+      <c r="AA19" s="73">
+        <f t="shared" si="3"/>
         <v>132.23639230782274</v>
       </c>
-      <c r="AC19" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD19" s="73">
+        <f t="shared" si="4"/>
         <v>58.442612979094093</v>
       </c>
-      <c r="AD19" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE19" s="73">
+        <f>ABS($C19-Y19)</f>
         <v>6.226045837329508</v>
       </c>
-      <c r="AE19" s="1">
-        <f t="shared" si="0"/>
+      <c r="AF19" s="73">
+        <f>ABS($C19-Z19)</f>
         <v>29.154409188437015</v>
       </c>
-      <c r="AF19" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG19" s="73">
+        <f>ABS($C19-AA19)</f>
         <v>13.003436960469969</v>
       </c>
     </row>
-    <row r="20" spans="2:32">
+    <row r="20" spans="2:33">
       <c r="B20" s="103">
         <v>20</v>
       </c>
@@ -36829,40 +36892,40 @@
         <v>6.4580000000000011</v>
       </c>
       <c r="H20" s="99"/>
-      <c r="X20" s="1">
-        <f>$D20*$U$10+$V$10</f>
+      <c r="X20" s="73">
+        <f t="shared" si="0"/>
         <v>99.48736501742161</v>
       </c>
-      <c r="Y20" s="1">
-        <f>E20*$U$11+$V$11</f>
+      <c r="Y20" s="73">
+        <f t="shared" si="1"/>
         <v>74.921896037360312</v>
       </c>
-      <c r="Z20" s="1">
-        <f>F20*$U$12+$V$12</f>
+      <c r="Z20" s="73">
+        <f t="shared" si="2"/>
         <v>81.144277073908071</v>
       </c>
-      <c r="AA20" s="1">
-        <f>G20*$U$13+$V$13</f>
+      <c r="AA20" s="73">
+        <f t="shared" si="3"/>
         <v>88.699744779180236</v>
       </c>
-      <c r="AC20" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD20" s="73">
+        <f t="shared" si="4"/>
         <v>18.865535749128924</v>
       </c>
-      <c r="AD20" s="1">
-        <f t="shared" ref="AD20:AD22" si="3">ABS($C20-Y20)</f>
+      <c r="AE20" s="73">
+        <f t="shared" ref="AE20:AE22" si="6">ABS($C20-Y20)</f>
         <v>5.6999332309323734</v>
       </c>
-      <c r="AE20" s="1">
-        <f t="shared" ref="AE20:AE22" si="4">ABS($C20-Z20)</f>
+      <c r="AF20" s="73">
+        <f t="shared" ref="AF20:AF22" si="7">ABS($C20-Z20)</f>
         <v>0.52244780561538562</v>
       </c>
-      <c r="AF20" s="1">
-        <f t="shared" ref="AF20:AF22" si="5">ABS($C20-AA20)</f>
+      <c r="AG20" s="73">
+        <f t="shared" ref="AG20:AG22" si="8">ABS($C20-AA20)</f>
         <v>8.07791551088755</v>
       </c>
     </row>
-    <row r="21" spans="2:32">
+    <row r="21" spans="2:33">
       <c r="B21" s="103">
         <v>21</v>
       </c>
@@ -36884,40 +36947,40 @@
         <v>6.1128912</v>
       </c>
       <c r="H21" s="102"/>
-      <c r="X21" s="1">
-        <f>$D21*$U$10+$V$10</f>
+      <c r="X21" s="73">
+        <f t="shared" si="0"/>
         <v>74.107067560975608</v>
       </c>
-      <c r="Y21" s="1">
-        <f>E21*$U$11+$V$11</f>
+      <c r="Y21" s="73">
+        <f t="shared" si="1"/>
         <v>85.510990476303391</v>
       </c>
-      <c r="Z21" s="1">
-        <f>F21*$U$12+$V$12</f>
+      <c r="Z21" s="73">
+        <f t="shared" si="2"/>
         <v>71.702943789876173</v>
       </c>
-      <c r="AA21" s="1">
-        <f>G21*$U$13+$V$13</f>
+      <c r="AA21" s="73">
+        <f t="shared" si="3"/>
         <v>81.972961891584063</v>
       </c>
-      <c r="AC21" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD21" s="73">
+        <f t="shared" si="4"/>
         <v>15.832151951219515</v>
       </c>
-      <c r="AD21" s="1">
-        <f t="shared" si="3"/>
+      <c r="AE21" s="73">
+        <f t="shared" si="6"/>
         <v>4.4282290358917322</v>
       </c>
-      <c r="AE21" s="1">
-        <f t="shared" si="4"/>
+      <c r="AF21" s="73">
+        <f t="shared" si="7"/>
         <v>18.23627572231895</v>
       </c>
-      <c r="AF21" s="1">
-        <f t="shared" si="5"/>
+      <c r="AG21" s="73">
+        <f t="shared" si="8"/>
         <v>7.96625762061106</v>
       </c>
     </row>
-    <row r="22" spans="2:32">
+    <row r="22" spans="2:33">
       <c r="B22" s="37">
         <v>23</v>
       </c>
@@ -36939,40 +37002,40 @@
         <v>5.7813413250560011</v>
       </c>
       <c r="H22" s="102"/>
-      <c r="X22" s="1">
-        <f>$D22*$U$10+$V$10</f>
+      <c r="X22" s="73">
+        <f t="shared" si="0"/>
         <v>74.107067560975608</v>
       </c>
-      <c r="Y22" s="1">
-        <f>E22*$U$11+$V$11</f>
+      <c r="Y22" s="73">
+        <f t="shared" si="1"/>
         <v>73.807254517471563</v>
       </c>
-      <c r="Z22" s="1">
-        <f>F22*$U$12+$V$12</f>
+      <c r="Z22" s="73">
+        <f t="shared" si="2"/>
         <v>71.440228428929203</v>
       </c>
-      <c r="AA22" s="1">
-        <f>G22*$U$13+$V$13</f>
+      <c r="AA22" s="73">
+        <f t="shared" si="3"/>
         <v>75.510466512857306</v>
       </c>
-      <c r="AC22" s="1">
-        <f t="shared" si="1"/>
+      <c r="AD22" s="73">
+        <f t="shared" si="4"/>
         <v>19.606360243902451</v>
       </c>
-      <c r="AD22" s="1">
-        <f t="shared" si="3"/>
+      <c r="AE22" s="73">
+        <f t="shared" si="6"/>
         <v>19.306547200398406</v>
       </c>
-      <c r="AE22" s="1">
-        <f t="shared" si="4"/>
+      <c r="AF22" s="73">
+        <f t="shared" si="7"/>
         <v>16.939521111856045</v>
       </c>
-      <c r="AF22" s="1">
-        <f t="shared" si="5"/>
+      <c r="AG22" s="73">
+        <f t="shared" si="8"/>
         <v>21.009759195784149</v>
       </c>
     </row>
-    <row r="23" spans="2:32">
+    <row r="23" spans="2:33">
       <c r="C23" s="74" t="s">
         <v>326</v>
       </c>
@@ -36993,24 +37056,27 @@
         <v>0.93180506545250352</v>
       </c>
       <c r="H23" s="99"/>
-      <c r="AC23" s="122">
-        <f>AVERAGE(AC4:AC22)</f>
+      <c r="AC23" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="AD23" s="127">
+        <f>AVERAGE(AD4:AD22)</f>
         <v>26.770956059050064</v>
       </c>
-      <c r="AD23" s="122">
-        <f>AVERAGE(AD4:AD22)</f>
+      <c r="AE23" s="127">
+        <f>AVERAGE(AE4:AE22)</f>
         <v>25.68456665394233</v>
       </c>
-      <c r="AE23" s="122">
-        <f t="shared" ref="AE23:AF23" si="6">AVERAGE(AE4:AE22)</f>
+      <c r="AF23" s="127">
+        <f t="shared" ref="AF23:AG23" si="9">AVERAGE(AF4:AF22)</f>
         <v>16.263023807354067</v>
       </c>
-      <c r="AF23" s="122">
-        <f t="shared" si="6"/>
+      <c r="AG23" s="127">
+        <f t="shared" si="9"/>
         <v>13.532561849160183</v>
       </c>
     </row>
-    <row r="24" spans="2:32" hidden="1">
+    <row r="24" spans="2:33" hidden="1">
       <c r="C24" s="74" t="s">
         <v>327</v>
       </c>
@@ -37021,382 +37087,416 @@
       </c>
       <c r="G24" s="74"/>
       <c r="H24" s="99"/>
-    </row>
-    <row r="25" spans="2:32" ht="350" customHeight="1"/>
-    <row r="26" spans="2:32">
-      <c r="B26" s="107" t="s">
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+    </row>
+    <row r="25" spans="2:33">
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="99"/>
+      <c r="AC25" s="128" t="s">
+        <v>508</v>
+      </c>
+      <c r="AD25" s="128">
+        <f>STDEV(AD4:AD22)</f>
+        <v>26.449508599507176</v>
+      </c>
+      <c r="AE25" s="128">
+        <f t="shared" ref="AE25:AG25" si="10">STDEV(AE4:AE22)</f>
+        <v>27.660337593421776</v>
+      </c>
+      <c r="AF25" s="128">
+        <f t="shared" si="10"/>
+        <v>13.547304105814254</v>
+      </c>
+      <c r="AG25" s="128">
+        <f t="shared" si="10"/>
+        <v>9.2392948821241667</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" ht="350" customHeight="1"/>
+    <row r="27" spans="2:33">
+      <c r="B27" s="109" t="s">
         <v>505</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-    </row>
-    <row r="28" spans="2:32">
-      <c r="B28" s="72" t="s">
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+    </row>
+    <row r="29" spans="2:33">
+      <c r="B29" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C29" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D29" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E29" s="72" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:32">
-      <c r="B29" s="73">
+    <row r="30" spans="2:33">
+      <c r="B30" s="73">
         <v>1</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C30" s="36">
         <v>68.014414634146334</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D30" s="37">
         <v>1</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E30" s="37">
         <v>6.8</v>
       </c>
     </row>
-    <row r="30" spans="2:32">
-      <c r="B30" s="73">
+    <row r="31" spans="2:33">
+      <c r="B31" s="73">
         <v>2</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C31" s="36">
         <v>100.26741463414632</v>
-      </c>
-      <c r="D30" s="37">
-        <v>5</v>
-      </c>
-      <c r="E30" s="37">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:32">
-      <c r="B31" s="73">
-        <v>3</v>
-      </c>
-      <c r="C31" s="36">
-        <v>132.46873170731703</v>
       </c>
       <c r="D31" s="37">
         <v>5</v>
       </c>
       <c r="E31" s="37">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33">
+      <c r="B32" s="73">
+        <v>3</v>
+      </c>
+      <c r="C32" s="36">
+        <v>132.46873170731703</v>
+      </c>
+      <c r="D32" s="37">
+        <v>5</v>
+      </c>
+      <c r="E32" s="37">
         <v>12.8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:32">
-      <c r="B32" s="73">
-        <v>4</v>
-      </c>
-      <c r="C32" s="36">
-        <v>154.64156097560979</v>
-      </c>
-      <c r="D32" s="37">
-        <v>7</v>
-      </c>
-      <c r="E32" s="37">
-        <v>15.4</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="36">
-        <v>211.48453658536584</v>
+        <v>154.64156097560979</v>
       </c>
       <c r="D33" s="37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E33" s="37">
-        <v>14.3</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="36">
-        <v>70.510951219512179</v>
+        <v>211.48453658536584</v>
       </c>
       <c r="D34" s="37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34" s="37">
-        <v>7.1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="36">
-        <v>66.048609756097534</v>
+        <v>70.510951219512179</v>
       </c>
       <c r="D35" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="37">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="36">
-        <v>104.82602439024393</v>
+        <v>66.048609756097534</v>
       </c>
       <c r="D36" s="37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" s="37">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="36">
-        <v>65.420853658536572</v>
+        <v>104.82602439024393</v>
       </c>
       <c r="D37" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="37">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="36">
-        <v>42.585804878048783</v>
+        <v>65.420853658536572</v>
       </c>
       <c r="D38" s="37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E38" s="37">
-        <v>16.7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="36">
-        <v>65.473780487804873</v>
+        <v>42.585804878048783</v>
       </c>
       <c r="D39" s="37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E39" s="37">
-        <v>7.4</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="36">
-        <v>59.81002439024391</v>
+        <v>65.473780487804873</v>
       </c>
       <c r="D40" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="37">
-        <v>14</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="36">
-        <v>37.425292682926823</v>
+        <v>59.81002439024391</v>
       </c>
       <c r="D41" s="37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="37">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="73">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="36">
-        <v>48.394707317073163</v>
+        <v>37.425292682926823</v>
       </c>
       <c r="D42" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="37">
-        <v>9.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="36">
-        <v>355.30917073170724</v>
+        <v>48.394707317073163</v>
       </c>
       <c r="D43" s="37">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E43" s="37">
-        <v>29.7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="36">
-        <v>20.50239024390244</v>
+        <v>355.30917073170724</v>
       </c>
       <c r="D44" s="37">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E44" s="37">
-        <v>5.6</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="36">
-        <v>99.988414634146352</v>
+        <v>20.50239024390244</v>
       </c>
       <c r="D45" s="37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" s="37">
-        <v>16.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="73">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="36">
-        <v>132.07892682926831</v>
+        <v>99.988414634146352</v>
       </c>
       <c r="D46" s="37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E46" s="37">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="36">
-        <v>145.23982926829271</v>
+        <v>132.07892682926831</v>
       </c>
       <c r="D47" s="37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E47" s="37">
-        <v>21.3</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="73">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" s="36">
-        <v>80.621829268292686</v>
+        <v>145.23982926829271</v>
       </c>
       <c r="D48" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="37">
-        <v>9.8000000000000007</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="73">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="36">
-        <v>89.939219512195123</v>
+        <v>80.621829268292686</v>
       </c>
       <c r="D49" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="37">
-        <v>11.7</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="73">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="36">
-        <v>86.29456097560977</v>
+        <v>89.939219512195123</v>
       </c>
       <c r="D50" s="37">
         <v>2</v>
       </c>
       <c r="E50" s="37">
-        <v>10.6</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="36">
-        <v>54.500707317073157</v>
+        <v>86.29456097560977</v>
       </c>
       <c r="D51" s="37">
         <v>2</v>
       </c>
       <c r="E51" s="37">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="73">
+        <v>23</v>
+      </c>
+      <c r="C52" s="36">
+        <v>54.500707317073157</v>
+      </c>
+      <c r="D52" s="37">
+        <v>2</v>
+      </c>
+      <c r="E52" s="37">
         <v>9.6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="C52" s="74" t="s">
-        <v>326</v>
-      </c>
-      <c r="D52" s="74">
-        <f>PEARSON($C29:$C51,D29:D51)</f>
-        <v>0.72591509307923441</v>
-      </c>
-      <c r="E52" s="74">
-        <f>PEARSON($C29:$C51,E29:E51)</f>
-        <v>0.78748899109661075</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="C53" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="D53" s="74">
+        <f>PEARSON($C30:$C52,D30:D52)</f>
+        <v>0.72591509307923441</v>
+      </c>
+      <c r="E53" s="74">
+        <f>PEARSON($C30:$C52,E30:E52)</f>
+        <v>0.78748899109661075</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="C54" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D54" s="38">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E54" s="38">
         <v>0.48499999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B26:E26"/>
+  <mergeCells count="6">
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="T9:V9"/>
+    <mergeCell ref="X2:AA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -37419,26 +37519,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="15"/>
@@ -37741,14 +37841,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="3" spans="1:8">
       <c r="F3" s="42">
@@ -38389,13 +38489,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="18"/>
@@ -38715,13 +38815,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="42">
@@ -39037,12 +39137,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1"/>
     <row r="3" spans="1:6" s="10" customFormat="1">
@@ -39508,7 +39608,7 @@
   <sheetPr codeName="Feuil64"/>
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:G19"/>
     </sheetView>
   </sheetViews>
@@ -39523,13 +39623,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="108" t="s">
         <v>475</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="72" t="s">
@@ -39971,36 +40071,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="E3" s="112" t="s">
+      <c r="C3" s="111"/>
+      <c r="E3" s="114" t="s">
         <v>480</v>
       </c>
       <c r="F3" s="72" t="s">
         <v>500</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="116" t="s">
         <v>326</v>
       </c>
-      <c r="H3" s="114"/>
+      <c r="H3" s="116"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="72"/>
       <c r="G4" s="72" t="s">
         <v>503</v>
@@ -40109,14 +40209,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="78"/>
@@ -40559,16 +40659,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="3" spans="1:9">
       <c r="G3" s="29">
@@ -41652,16 +41752,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="22"/>
